--- a/a2_RyR_Analyser/a1_input/Target.xlsx
+++ b/a2_RyR_Analyser/a1_input/Target.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciano.galan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F09994E-22D3-4B54-A835-70FC79D721AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87B6020-EEA2-4E65-8939-A2EE785F51CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Guia_Luz_Blanco_FB1_X</t>
   </si>
@@ -92,30 +105,6 @@
   </si>
   <si>
     <t>Guia_Luz_Blanco_FB12_Y</t>
-  </si>
-  <si>
-    <t>Guia_Luz_Blanco_FB13_X</t>
-  </si>
-  <si>
-    <t>Guia_Luz_Blanco_FB13_Y</t>
-  </si>
-  <si>
-    <t>Guia_Luz_Blanco_FB14_X</t>
-  </si>
-  <si>
-    <t>Guia_Luz_Blanco_FB14_Y</t>
-  </si>
-  <si>
-    <t>Guia_Luz_Blanco_FB15_X</t>
-  </si>
-  <si>
-    <t>Guia_Luz_Blanco_FB15_Y</t>
-  </si>
-  <si>
-    <t>Guia_Luz_Blanco_FB16_X</t>
-  </si>
-  <si>
-    <t>Guia_Luz_Blanco_FB16_Y</t>
   </si>
 </sst>
 </file>
@@ -455,15 +444,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AG35"/>
+  <dimension ref="A4:AG27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH4" sqref="AH4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -471,94 +460,94 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.33239999999999997</v>
+        <v>0.3241</v>
       </c>
       <c r="C4">
-        <v>0.33260000000000001</v>
+        <v>0.32419999999999999</v>
       </c>
       <c r="D4">
-        <v>0.33239999999999997</v>
+        <v>0.3236</v>
       </c>
       <c r="E4">
-        <v>0.33279999999999998</v>
+        <v>0.32340000000000002</v>
       </c>
       <c r="F4">
-        <v>0.3322</v>
+        <v>0.3246</v>
       </c>
       <c r="G4">
-        <v>0.33239999999999997</v>
+        <v>0.3246</v>
       </c>
       <c r="H4">
-        <v>0.33229999999999998</v>
+        <v>0.32419999999999999</v>
       </c>
       <c r="I4">
-        <v>0.33250000000000002</v>
+        <v>0.32429999999999998</v>
       </c>
       <c r="J4">
-        <v>0.33210000000000001</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="K4">
-        <v>0.3327</v>
+        <v>0.32450000000000001</v>
       </c>
       <c r="L4">
-        <v>0.33229999999999998</v>
+        <v>0.3236</v>
       </c>
       <c r="M4">
-        <v>0.33210000000000001</v>
+        <v>0.3246</v>
       </c>
       <c r="N4">
-        <v>0.33210000000000001</v>
+        <v>0.3236</v>
       </c>
       <c r="O4">
-        <v>0.3327</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="P4">
-        <v>0.33289999999999997</v>
+        <v>0.32419999999999999</v>
       </c>
       <c r="Q4">
-        <v>0.33289999999999997</v>
+        <v>0.32379999999999998</v>
       </c>
       <c r="R4">
-        <v>0.3327</v>
+        <v>0.32450000000000001</v>
       </c>
       <c r="S4">
-        <v>0.3327</v>
+        <v>0.32379999999999998</v>
       </c>
       <c r="T4">
-        <v>0.33289999999999997</v>
+        <v>0.32440000000000002</v>
       </c>
       <c r="U4">
-        <v>0.3322</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="V4">
-        <v>0.3322</v>
+        <v>0.3241</v>
       </c>
       <c r="W4">
-        <v>0.3327</v>
+        <v>0.32379999999999998</v>
       </c>
       <c r="X4">
-        <v>0.3322</v>
+        <v>0.3241</v>
       </c>
       <c r="Y4">
-        <v>0.33229999999999998</v>
+        <v>0.32429999999999998</v>
       </c>
       <c r="Z4">
-        <v>0.3327</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="AA4">
-        <v>0.3322</v>
+        <v>0.32379999999999998</v>
       </c>
       <c r="AB4">
-        <v>0.33260000000000001</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="AC4">
-        <v>0.33239999999999997</v>
+        <v>0.32350000000000001</v>
       </c>
       <c r="AD4">
-        <v>0.33239999999999997</v>
+        <v>0.3236</v>
       </c>
       <c r="AE4">
-        <v>0.33239999999999997</v>
+        <v>0.32379999999999998</v>
       </c>
       <c r="AF4">
         <v>0.1</v>
@@ -572,94 +561,94 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.35589999999999999</v>
+        <v>0.35320000000000001</v>
       </c>
       <c r="C5">
-        <v>0.35599999999999998</v>
+        <v>0.35320000000000001</v>
       </c>
       <c r="D5">
-        <v>0.35580000000000001</v>
+        <v>0.35270000000000001</v>
       </c>
       <c r="E5">
-        <v>0.35589999999999999</v>
+        <v>0.35260000000000002</v>
       </c>
       <c r="F5">
-        <v>0.35599999999999998</v>
+        <v>0.35360000000000003</v>
       </c>
       <c r="G5">
-        <v>0.35580000000000001</v>
+        <v>0.35360000000000003</v>
       </c>
       <c r="H5">
-        <v>0.35570000000000002</v>
+        <v>0.35339999999999999</v>
       </c>
       <c r="I5">
-        <v>0.35580000000000001</v>
+        <v>0.35349999999999998</v>
       </c>
       <c r="J5">
-        <v>0.35570000000000002</v>
+        <v>0.35310000000000002</v>
       </c>
       <c r="K5">
-        <v>0.35599999999999998</v>
+        <v>0.3533</v>
       </c>
       <c r="L5">
-        <v>0.35570000000000002</v>
+        <v>0.35270000000000001</v>
       </c>
       <c r="M5">
-        <v>0.35570000000000002</v>
+        <v>0.35349999999999998</v>
       </c>
       <c r="N5">
-        <v>0.35570000000000002</v>
+        <v>0.35260000000000002</v>
       </c>
       <c r="O5">
-        <v>0.35570000000000002</v>
+        <v>0.35310000000000002</v>
       </c>
       <c r="P5">
-        <v>0.35599999999999998</v>
+        <v>0.3533</v>
       </c>
       <c r="Q5">
-        <v>0.35599999999999998</v>
+        <v>0.35289999999999999</v>
       </c>
       <c r="R5">
-        <v>0.35580000000000001</v>
+        <v>0.3533</v>
       </c>
       <c r="S5">
-        <v>0.35580000000000001</v>
+        <v>0.35289999999999999</v>
       </c>
       <c r="T5">
-        <v>0.35580000000000001</v>
+        <v>0.3533</v>
       </c>
       <c r="U5">
-        <v>0.35560000000000003</v>
+        <v>0.3523</v>
       </c>
       <c r="V5">
-        <v>0.35570000000000002</v>
+        <v>0.35310000000000002</v>
       </c>
       <c r="W5">
-        <v>0.35570000000000002</v>
+        <v>0.35270000000000001</v>
       </c>
       <c r="X5">
-        <v>0.35560000000000003</v>
+        <v>0.3533</v>
       </c>
       <c r="Y5">
-        <v>0.35570000000000002</v>
+        <v>0.35320000000000001</v>
       </c>
       <c r="Z5">
-        <v>0.35589999999999999</v>
+        <v>0.35310000000000002</v>
       </c>
       <c r="AA5">
-        <v>0.35570000000000002</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="AB5">
-        <v>0.35560000000000003</v>
+        <v>0.35289999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.35570000000000002</v>
+        <v>0.35260000000000002</v>
       </c>
       <c r="AD5">
-        <v>0.35570000000000002</v>
+        <v>0.35260000000000002</v>
       </c>
       <c r="AE5">
-        <v>0.35560000000000003</v>
+        <v>0.35289999999999999</v>
       </c>
       <c r="AF5">
         <v>0.1</v>
@@ -673,94 +662,94 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.33260000000000001</v>
+        <v>0.33639999999999998</v>
       </c>
       <c r="C6">
-        <v>0.3327</v>
+        <v>0.3362</v>
       </c>
       <c r="D6">
-        <v>0.33260000000000001</v>
+        <v>0.33589999999999998</v>
       </c>
       <c r="E6">
-        <v>0.33239999999999997</v>
+        <v>0.33579999999999999</v>
       </c>
       <c r="F6">
-        <v>0.33250000000000002</v>
+        <v>0.33639999999999998</v>
       </c>
       <c r="G6">
-        <v>0.33250000000000002</v>
+        <v>0.33639999999999998</v>
       </c>
       <c r="H6">
-        <v>0.33250000000000002</v>
+        <v>0.3362</v>
       </c>
       <c r="I6">
-        <v>0.33229999999999998</v>
+        <v>0.33629999999999999</v>
       </c>
       <c r="J6">
-        <v>0.33229999999999998</v>
+        <v>0.33629999999999999</v>
       </c>
       <c r="K6">
-        <v>0.33239999999999997</v>
+        <v>0.3362</v>
       </c>
       <c r="L6">
-        <v>0.33239999999999997</v>
+        <v>0.33610000000000001</v>
       </c>
       <c r="M6">
-        <v>0.33239999999999997</v>
+        <v>0.33639999999999998</v>
       </c>
       <c r="N6">
-        <v>0.33239999999999997</v>
+        <v>0.3357</v>
       </c>
       <c r="O6">
-        <v>0.33250000000000002</v>
+        <v>0.3362</v>
       </c>
       <c r="P6">
-        <v>0.3322</v>
+        <v>0.33629999999999999</v>
       </c>
       <c r="Q6">
-        <v>0.33210000000000001</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="R6">
-        <v>0.33239999999999997</v>
+        <v>0.33629999999999999</v>
       </c>
       <c r="S6">
-        <v>0.33229999999999998</v>
+        <v>0.33589999999999998</v>
       </c>
       <c r="T6">
-        <v>0.33229999999999998</v>
+        <v>0.33629999999999999</v>
       </c>
       <c r="U6">
-        <v>0.33229999999999998</v>
+        <v>0.33560000000000001</v>
       </c>
       <c r="V6">
-        <v>0.33239999999999997</v>
+        <v>0.3362</v>
       </c>
       <c r="W6">
-        <v>0.33239999999999997</v>
+        <v>0.33579999999999999</v>
       </c>
       <c r="X6">
-        <v>0.33239999999999997</v>
+        <v>0.33639999999999998</v>
       </c>
       <c r="Y6">
-        <v>0.33189999999999997</v>
+        <v>0.33610000000000001</v>
       </c>
       <c r="Z6">
-        <v>0.33239999999999997</v>
+        <v>0.3362</v>
       </c>
       <c r="AA6">
-        <v>0.3322</v>
+        <v>0.33629999999999999</v>
       </c>
       <c r="AB6">
-        <v>0.33229999999999998</v>
+        <v>0.3357</v>
       </c>
       <c r="AC6">
-        <v>0.33239999999999997</v>
+        <v>0.33579999999999999</v>
       </c>
       <c r="AD6">
-        <v>0.3322</v>
+        <v>0.33579999999999999</v>
       </c>
       <c r="AE6">
-        <v>0.33200000000000002</v>
+        <v>0.3362</v>
       </c>
       <c r="AF6">
         <v>0.1</v>
@@ -774,94 +763,94 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0.35720000000000002</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="C7">
-        <v>0.35720000000000002</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D7">
-        <v>0.35720000000000002</v>
+        <v>0.36059999999999998</v>
       </c>
       <c r="E7">
-        <v>0.35709999999999997</v>
+        <v>0.36059999999999998</v>
       </c>
       <c r="F7">
-        <v>0.35720000000000002</v>
+        <v>0.36109999999999998</v>
       </c>
       <c r="G7">
-        <v>0.35709999999999997</v>
+        <v>0.36109999999999998</v>
       </c>
       <c r="H7">
-        <v>0.35720000000000002</v>
+        <v>0.3609</v>
       </c>
       <c r="I7">
-        <v>0.35709999999999997</v>
+        <v>0.36109999999999998</v>
       </c>
       <c r="J7">
-        <v>0.35699999999999998</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="K7">
-        <v>0.35709999999999997</v>
+        <v>0.3609</v>
       </c>
       <c r="L7">
-        <v>0.35709999999999997</v>
+        <v>0.36070000000000002</v>
       </c>
       <c r="M7">
-        <v>0.35709999999999997</v>
+        <v>0.36109999999999998</v>
       </c>
       <c r="N7">
-        <v>0.35709999999999997</v>
+        <v>0.3604</v>
       </c>
       <c r="O7">
-        <v>0.35730000000000001</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="P7">
-        <v>0.35699999999999998</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="Q7">
-        <v>0.3569</v>
+        <v>0.36070000000000002</v>
       </c>
       <c r="R7">
-        <v>0.35709999999999997</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="S7">
-        <v>0.35709999999999997</v>
+        <v>0.36070000000000002</v>
       </c>
       <c r="T7">
-        <v>0.35709999999999997</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="U7">
-        <v>0.35699999999999998</v>
+        <v>0.3604</v>
       </c>
       <c r="V7">
-        <v>0.35699999999999998</v>
+        <v>0.3609</v>
       </c>
       <c r="W7">
-        <v>0.3569</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="X7">
-        <v>0.35699999999999998</v>
+        <v>0.36109999999999998</v>
       </c>
       <c r="Y7">
-        <v>0.35680000000000001</v>
+        <v>0.36080000000000001</v>
       </c>
       <c r="Z7">
-        <v>0.35709999999999997</v>
+        <v>0.3609</v>
       </c>
       <c r="AA7">
-        <v>0.3569</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="AB7">
-        <v>0.35699999999999998</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.35709999999999997</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="AD7">
-        <v>0.35699999999999998</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="AE7">
-        <v>0.35680000000000001</v>
+        <v>0.3609</v>
       </c>
       <c r="AF7">
         <v>0.1</v>
@@ -875,94 +864,94 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0.34289999999999998</v>
+        <v>0.3453</v>
       </c>
       <c r="C8">
-        <v>0.34300000000000003</v>
+        <v>0.3458</v>
       </c>
       <c r="D8">
-        <v>0.34279999999999999</v>
+        <v>0.3453</v>
       </c>
       <c r="E8">
-        <v>0.34250000000000003</v>
+        <v>0.34539999999999998</v>
       </c>
       <c r="F8">
-        <v>0.34289999999999998</v>
+        <v>0.34560000000000002</v>
       </c>
       <c r="G8">
-        <v>0.34239999999999998</v>
+        <v>0.34570000000000001</v>
       </c>
       <c r="H8">
-        <v>0.34239999999999998</v>
+        <v>0.34570000000000001</v>
       </c>
       <c r="I8">
-        <v>0.34239999999999998</v>
+        <v>0.34570000000000001</v>
       </c>
       <c r="J8">
-        <v>0.34260000000000002</v>
+        <v>0.34560000000000002</v>
       </c>
       <c r="K8">
-        <v>0.34279999999999999</v>
+        <v>0.34539999999999998</v>
       </c>
       <c r="L8">
-        <v>0.34260000000000002</v>
+        <v>0.3453</v>
       </c>
       <c r="M8">
-        <v>0.34260000000000002</v>
+        <v>0.34549999999999997</v>
       </c>
       <c r="N8">
-        <v>0.34239999999999998</v>
+        <v>0.34560000000000002</v>
       </c>
       <c r="O8">
-        <v>0.3427</v>
+        <v>0.34549999999999997</v>
       </c>
       <c r="P8">
-        <v>0.34229999999999999</v>
+        <v>0.34539999999999998</v>
       </c>
       <c r="Q8">
-        <v>0.34229999999999999</v>
+        <v>0.34520000000000001</v>
       </c>
       <c r="R8">
-        <v>0.34239999999999998</v>
+        <v>0.34539999999999998</v>
       </c>
       <c r="S8">
-        <v>0.34239999999999998</v>
+        <v>0.34510000000000002</v>
       </c>
       <c r="T8">
-        <v>0.34229999999999999</v>
+        <v>0.34539999999999998</v>
       </c>
       <c r="U8">
-        <v>0.34229999999999999</v>
+        <v>0.34510000000000002</v>
       </c>
       <c r="V8">
-        <v>0.34200000000000003</v>
+        <v>0.34510000000000002</v>
       </c>
       <c r="W8">
-        <v>0.34239999999999998</v>
+        <v>0.34510000000000002</v>
       </c>
       <c r="X8">
-        <v>0.34239999999999998</v>
+        <v>0.34539999999999998</v>
       </c>
       <c r="Y8">
-        <v>0.34229999999999999</v>
+        <v>0.3453</v>
       </c>
       <c r="Z8">
-        <v>0.34229999999999999</v>
+        <v>0.34549999999999997</v>
       </c>
       <c r="AA8">
-        <v>0.34239999999999998</v>
+        <v>0.3453</v>
       </c>
       <c r="AB8">
-        <v>0.34239999999999998</v>
+        <v>0.34489999999999998</v>
       </c>
       <c r="AC8">
-        <v>0.3422</v>
+        <v>0.34549999999999997</v>
       </c>
       <c r="AD8">
-        <v>0.34229999999999999</v>
+        <v>0.34560000000000002</v>
       </c>
       <c r="AE8">
-        <v>0.34239999999999998</v>
+        <v>0.34510000000000002</v>
       </c>
       <c r="AF8">
         <v>0.1</v>
@@ -976,94 +965,94 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.3629</v>
+        <v>0.37040000000000001</v>
       </c>
       <c r="C9">
-        <v>0.36320000000000002</v>
+        <v>0.37069999999999997</v>
       </c>
       <c r="D9">
-        <v>0.36309999999999998</v>
+        <v>0.37030000000000002</v>
       </c>
       <c r="E9">
-        <v>0.36299999999999999</v>
+        <v>0.37040000000000001</v>
       </c>
       <c r="F9">
-        <v>0.36299999999999999</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="G9">
-        <v>0.36249999999999999</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="H9">
-        <v>0.36249999999999999</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="I9">
-        <v>0.3624</v>
+        <v>0.37069999999999997</v>
       </c>
       <c r="J9">
-        <v>0.36259999999999998</v>
+        <v>0.3705</v>
       </c>
       <c r="K9">
-        <v>0.3629</v>
+        <v>0.37040000000000001</v>
       </c>
       <c r="L9">
-        <v>0.36259999999999998</v>
+        <v>0.37019999999999997</v>
       </c>
       <c r="M9">
-        <v>0.36270000000000002</v>
+        <v>0.3705</v>
       </c>
       <c r="N9">
-        <v>0.3624</v>
+        <v>0.37040000000000001</v>
       </c>
       <c r="O9">
-        <v>0.36270000000000002</v>
+        <v>0.3705</v>
       </c>
       <c r="P9">
-        <v>0.3624</v>
+        <v>0.37040000000000001</v>
       </c>
       <c r="Q9">
-        <v>0.3624</v>
+        <v>0.37009999999999998</v>
       </c>
       <c r="R9">
-        <v>0.3624</v>
+        <v>0.37040000000000001</v>
       </c>
       <c r="S9">
-        <v>0.36320000000000002</v>
+        <v>0.37009999999999998</v>
       </c>
       <c r="T9">
-        <v>0.36230000000000001</v>
+        <v>0.37040000000000001</v>
       </c>
       <c r="U9">
-        <v>0.3624</v>
+        <v>0.37009999999999998</v>
       </c>
       <c r="V9">
-        <v>0.3624</v>
+        <v>0.37019999999999997</v>
       </c>
       <c r="W9">
-        <v>0.3624</v>
+        <v>0.37009999999999998</v>
       </c>
       <c r="X9">
-        <v>0.3624</v>
+        <v>0.3705</v>
       </c>
       <c r="Y9">
-        <v>0.3624</v>
+        <v>0.37030000000000002</v>
       </c>
       <c r="Z9">
-        <v>0.3624</v>
+        <v>0.37040000000000001</v>
       </c>
       <c r="AA9">
-        <v>0.3624</v>
+        <v>0.37040000000000001</v>
       </c>
       <c r="AB9">
-        <v>0.3624</v>
+        <v>0.37009999999999998</v>
       </c>
       <c r="AC9">
-        <v>0.3624</v>
+        <v>0.37030000000000002</v>
       </c>
       <c r="AD9">
-        <v>0.3624</v>
+        <v>0.37040000000000001</v>
       </c>
       <c r="AE9">
-        <v>0.3624</v>
+        <v>0.37019999999999997</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1077,94 +1066,94 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.33160000000000001</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="C10">
-        <v>0.33169999999999999</v>
+        <v>0.32190000000000002</v>
       </c>
       <c r="D10">
-        <v>0.33160000000000001</v>
+        <v>0.32179999999999997</v>
       </c>
       <c r="E10">
-        <v>0.33160000000000001</v>
+        <v>0.3216</v>
       </c>
       <c r="F10">
-        <v>0.33110000000000001</v>
+        <v>0.3216</v>
       </c>
       <c r="G10">
-        <v>0.33150000000000002</v>
+        <v>0.3216</v>
       </c>
       <c r="H10">
-        <v>0.33160000000000001</v>
+        <v>0.32169999999999999</v>
       </c>
       <c r="I10">
-        <v>0.33090000000000003</v>
+        <v>0.32140000000000002</v>
       </c>
       <c r="J10">
-        <v>0.33169999999999999</v>
+        <v>0.32140000000000002</v>
       </c>
       <c r="K10">
-        <v>0.33160000000000001</v>
+        <v>0.32129999999999997</v>
       </c>
       <c r="L10">
-        <v>0.33129999999999998</v>
+        <v>0.32140000000000002</v>
       </c>
       <c r="M10">
-        <v>0.33160000000000001</v>
+        <v>0.32129999999999997</v>
       </c>
       <c r="N10">
-        <v>0.33100000000000002</v>
+        <v>0.32119999999999999</v>
       </c>
       <c r="O10">
-        <v>0.33040000000000003</v>
+        <v>0.3211</v>
       </c>
       <c r="P10">
-        <v>0.33129999999999998</v>
+        <v>0.32129999999999997</v>
       </c>
       <c r="Q10">
-        <v>0.33150000000000002</v>
+        <v>0.3211</v>
       </c>
       <c r="R10">
-        <v>0.33100000000000002</v>
+        <v>0.32119999999999999</v>
       </c>
       <c r="S10">
-        <v>0.33150000000000002</v>
+        <v>0.3211</v>
       </c>
       <c r="T10">
-        <v>0.33100000000000002</v>
+        <v>0.3211</v>
       </c>
       <c r="U10">
-        <v>0.33129999999999998</v>
+        <v>0.32079999999999997</v>
       </c>
       <c r="V10">
-        <v>0.33150000000000002</v>
+        <v>0.32090000000000002</v>
       </c>
       <c r="W10">
-        <v>0.33129999999999998</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="X10">
-        <v>0.33150000000000002</v>
+        <v>0.3216</v>
       </c>
       <c r="Y10">
-        <v>0.33139999999999997</v>
+        <v>0.32140000000000002</v>
       </c>
       <c r="Z10">
-        <v>0.33139999999999997</v>
+        <v>0.32140000000000002</v>
       </c>
       <c r="AA10">
-        <v>0.33100000000000002</v>
+        <v>0.32119999999999999</v>
       </c>
       <c r="AB10">
-        <v>0.33139999999999997</v>
+        <v>0.3211</v>
       </c>
       <c r="AC10">
-        <v>0.33110000000000001</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="AD10">
-        <v>0.33129999999999998</v>
+        <v>0.32090000000000002</v>
       </c>
       <c r="AE10">
-        <v>0.33139999999999997</v>
+        <v>0.32090000000000002</v>
       </c>
       <c r="AF10">
         <v>0.1</v>
@@ -1178,94 +1167,94 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0.35699999999999998</v>
+        <v>0.35010000000000002</v>
       </c>
       <c r="C11">
-        <v>0.35709999999999997</v>
+        <v>0.35</v>
       </c>
       <c r="D11">
-        <v>0.35699999999999998</v>
+        <v>0.3498</v>
       </c>
       <c r="E11">
-        <v>0.35699999999999998</v>
+        <v>0.3498</v>
       </c>
       <c r="F11">
-        <v>0.35630000000000001</v>
+        <v>0.34970000000000001</v>
       </c>
       <c r="G11">
-        <v>0.35639999999999999</v>
+        <v>0.34970000000000001</v>
       </c>
       <c r="H11">
-        <v>0.35699999999999998</v>
+        <v>0.34970000000000001</v>
       </c>
       <c r="I11">
-        <v>0.35620000000000002</v>
+        <v>0.34960000000000002</v>
       </c>
       <c r="J11">
-        <v>0.35630000000000001</v>
+        <v>0.34949999999999998</v>
       </c>
       <c r="K11">
-        <v>0.35639999999999999</v>
+        <v>0.34939999999999999</v>
       </c>
       <c r="L11">
-        <v>0.35630000000000001</v>
+        <v>0.34939999999999999</v>
       </c>
       <c r="M11">
-        <v>0.35709999999999997</v>
+        <v>0.34939999999999999</v>
       </c>
       <c r="N11">
-        <v>0.35630000000000001</v>
+        <v>0.3493</v>
       </c>
       <c r="O11">
-        <v>0.35639999999999999</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="P11">
-        <v>0.35630000000000001</v>
+        <v>0.3493</v>
       </c>
       <c r="Q11">
-        <v>0.35630000000000001</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="R11">
-        <v>0.35620000000000002</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="S11">
-        <v>0.35639999999999999</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="T11">
-        <v>0.35620000000000002</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="U11">
-        <v>0.35620000000000002</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="V11">
-        <v>0.35620000000000002</v>
+        <v>0.34910000000000002</v>
       </c>
       <c r="W11">
-        <v>0.35599999999999998</v>
+        <v>0.34910000000000002</v>
       </c>
       <c r="X11">
-        <v>0.35610000000000003</v>
+        <v>0.34970000000000001</v>
       </c>
       <c r="Y11">
-        <v>0.35620000000000002</v>
+        <v>0.34939999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.35620000000000002</v>
+        <v>0.34939999999999999</v>
       </c>
       <c r="AA11">
-        <v>0.35630000000000001</v>
+        <v>0.3493</v>
       </c>
       <c r="AB11">
-        <v>0.35610000000000003</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="AC11">
-        <v>0.35610000000000003</v>
+        <v>0.34910000000000002</v>
       </c>
       <c r="AD11">
-        <v>0.35610000000000003</v>
+        <v>0.34910000000000002</v>
       </c>
       <c r="AE11">
-        <v>0.35610000000000003</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="AF11">
         <v>0.1</v>
@@ -1279,94 +1268,94 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>0.32529999999999998</v>
+        <v>0.33460000000000001</v>
       </c>
       <c r="C12">
-        <v>0.3256</v>
+        <v>0.3347</v>
       </c>
       <c r="D12">
-        <v>0.32590000000000002</v>
+        <v>0.3347</v>
       </c>
       <c r="E12">
-        <v>0.32519999999999999</v>
+        <v>0.33460000000000001</v>
       </c>
       <c r="F12">
-        <v>0.32619999999999999</v>
+        <v>0.33479999999999999</v>
       </c>
       <c r="G12">
-        <v>0.32640000000000002</v>
+        <v>0.33450000000000002</v>
       </c>
       <c r="H12">
-        <v>0.32569999999999999</v>
+        <v>0.3347</v>
       </c>
       <c r="I12">
-        <v>0.32529999999999998</v>
+        <v>0.3342</v>
       </c>
       <c r="J12">
-        <v>0.3251</v>
+        <v>0.3342</v>
       </c>
       <c r="K12">
-        <v>0.32590000000000002</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="L12">
-        <v>0.32550000000000001</v>
+        <v>0.3342</v>
       </c>
       <c r="M12">
-        <v>0.3251</v>
+        <v>0.3342</v>
       </c>
       <c r="N12">
-        <v>0.32619999999999999</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="O12">
-        <v>0.32640000000000002</v>
+        <v>0.33460000000000001</v>
       </c>
       <c r="P12">
-        <v>0.32590000000000002</v>
+        <v>0.33460000000000001</v>
       </c>
       <c r="Q12">
-        <v>0.32629999999999998</v>
+        <v>0.33460000000000001</v>
       </c>
       <c r="R12">
-        <v>0.32490000000000002</v>
+        <v>0.33439999999999998</v>
       </c>
       <c r="S12">
-        <v>0.32600000000000001</v>
+        <v>0.33450000000000002</v>
       </c>
       <c r="T12">
-        <v>0.3261</v>
+        <v>0.3342</v>
       </c>
       <c r="U12">
-        <v>0.3261</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="V12">
-        <v>0.32600000000000001</v>
+        <v>0.33439999999999998</v>
       </c>
       <c r="W12">
-        <v>0.3261</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="X12">
-        <v>0.3261</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="Y12">
-        <v>0.32629999999999998</v>
+        <v>0.3347</v>
       </c>
       <c r="Z12">
-        <v>0.32629999999999998</v>
+        <v>0.33439999999999998</v>
       </c>
       <c r="AA12">
-        <v>0.3251</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="AB12">
-        <v>0.32519999999999999</v>
+        <v>0.3342</v>
       </c>
       <c r="AC12">
-        <v>0.32629999999999998</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="AD12">
-        <v>0.32529999999999998</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="AE12">
-        <v>0.32479999999999998</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="AF12">
         <v>0.1</v>
@@ -1380,94 +1369,94 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>0.35210000000000002</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="C13">
-        <v>0.35249999999999998</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="D13">
-        <v>0.35239999999999999</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="E13">
-        <v>0.3518</v>
+        <v>0.3604</v>
       </c>
       <c r="F13">
-        <v>0.35260000000000002</v>
+        <v>0.36059999999999998</v>
       </c>
       <c r="G13">
-        <v>0.35260000000000002</v>
+        <v>0.36030000000000001</v>
       </c>
       <c r="H13">
-        <v>0.35239999999999999</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="I13">
-        <v>0.35189999999999999</v>
+        <v>0.36009999999999998</v>
       </c>
       <c r="J13">
-        <v>0.35170000000000001</v>
+        <v>0.36009999999999998</v>
       </c>
       <c r="K13">
-        <v>0.35239999999999999</v>
+        <v>0.36009999999999998</v>
       </c>
       <c r="L13">
-        <v>0.35189999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="M13">
-        <v>0.35189999999999999</v>
+        <v>0.36009999999999998</v>
       </c>
       <c r="N13">
-        <v>0.35239999999999999</v>
+        <v>0.36009999999999998</v>
       </c>
       <c r="O13">
-        <v>0.35220000000000001</v>
+        <v>0.36030000000000001</v>
       </c>
       <c r="P13">
-        <v>0.35239999999999999</v>
+        <v>0.36030000000000001</v>
       </c>
       <c r="Q13">
-        <v>0.35239999999999999</v>
+        <v>0.36030000000000001</v>
       </c>
       <c r="R13">
-        <v>0.35160000000000002</v>
+        <v>0.36009999999999998</v>
       </c>
       <c r="S13">
-        <v>0.3523</v>
+        <v>0.36020000000000002</v>
       </c>
       <c r="T13">
-        <v>0.35220000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="U13">
-        <v>0.35220000000000001</v>
+        <v>0.36009999999999998</v>
       </c>
       <c r="V13">
-        <v>0.35239999999999999</v>
+        <v>0.36009999999999998</v>
       </c>
       <c r="W13">
-        <v>0.35220000000000001</v>
+        <v>0.3599</v>
       </c>
       <c r="X13">
-        <v>0.35220000000000001</v>
+        <v>0.36020000000000002</v>
       </c>
       <c r="Y13">
-        <v>0.35249999999999998</v>
+        <v>0.3604</v>
       </c>
       <c r="Z13">
-        <v>0.35239999999999999</v>
+        <v>0.36020000000000002</v>
       </c>
       <c r="AA13">
-        <v>0.35170000000000001</v>
+        <v>0.3599</v>
       </c>
       <c r="AB13">
-        <v>0.35170000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="AC13">
-        <v>0.35220000000000001</v>
+        <v>0.36009999999999998</v>
       </c>
       <c r="AD13">
-        <v>0.35189999999999999</v>
+        <v>0.3599</v>
       </c>
       <c r="AE13">
-        <v>0.35160000000000002</v>
+        <v>0.36</v>
       </c>
       <c r="AF13">
         <v>0.1</v>
@@ -1481,94 +1470,94 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>0.33460000000000001</v>
+        <v>0.3417</v>
       </c>
       <c r="C14">
-        <v>0.33460000000000001</v>
+        <v>0.3417</v>
       </c>
       <c r="D14">
-        <v>0.3347</v>
+        <v>0.34110000000000001</v>
       </c>
       <c r="E14">
-        <v>0.33400000000000002</v>
+        <v>0.34150000000000003</v>
       </c>
       <c r="F14">
-        <v>0.33460000000000001</v>
+        <v>0.34150000000000003</v>
       </c>
       <c r="G14">
-        <v>0.33479999999999999</v>
+        <v>0.34150000000000003</v>
       </c>
       <c r="H14">
-        <v>0.3347</v>
+        <v>0.34129999999999999</v>
       </c>
       <c r="I14">
-        <v>0.3342</v>
+        <v>0.34139999999999998</v>
       </c>
       <c r="J14">
-        <v>0.33429999999999999</v>
+        <v>0.34150000000000003</v>
       </c>
       <c r="K14">
-        <v>0.33479999999999999</v>
+        <v>0.34089999999999998</v>
       </c>
       <c r="L14">
-        <v>0.3327</v>
+        <v>0.3412</v>
       </c>
       <c r="M14">
-        <v>0.33460000000000001</v>
+        <v>0.3407</v>
       </c>
       <c r="N14">
-        <v>0.3342</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="O14">
-        <v>0.3352</v>
+        <v>0.34079999999999999</v>
       </c>
       <c r="P14">
-        <v>0.3347</v>
+        <v>0.34089999999999998</v>
       </c>
       <c r="Q14">
-        <v>0.33589999999999998</v>
+        <v>0.34079999999999999</v>
       </c>
       <c r="R14">
-        <v>0.33279999999999998</v>
+        <v>0.3407</v>
       </c>
       <c r="S14">
-        <v>0.33489999999999998</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="T14">
-        <v>0.33550000000000002</v>
+        <v>0.3407</v>
       </c>
       <c r="U14">
-        <v>0.33560000000000001</v>
+        <v>0.34089999999999998</v>
       </c>
       <c r="V14">
-        <v>0.3357</v>
+        <v>0.34089999999999998</v>
       </c>
       <c r="W14">
-        <v>0.33579999999999999</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="X14">
-        <v>0.33589999999999998</v>
+        <v>0.34110000000000001</v>
       </c>
       <c r="Y14">
-        <v>0.3352</v>
+        <v>0.3407</v>
       </c>
       <c r="Z14">
-        <v>0.33550000000000002</v>
+        <v>0.34089999999999998</v>
       </c>
       <c r="AA14">
-        <v>0.33339999999999997</v>
+        <v>0.34110000000000001</v>
       </c>
       <c r="AB14">
-        <v>0.33229999999999998</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="AC14">
-        <v>0.33460000000000001</v>
+        <v>0.34089999999999998</v>
       </c>
       <c r="AD14">
-        <v>0.33410000000000001</v>
+        <v>0.34110000000000001</v>
       </c>
       <c r="AE14">
-        <v>0.33400000000000002</v>
+        <v>0.34050000000000002</v>
       </c>
       <c r="AF14">
         <v>0.1</v>
@@ -1582,94 +1571,94 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>0.35749999999999998</v>
+        <v>0.36830000000000002</v>
       </c>
       <c r="C15">
-        <v>0.35670000000000002</v>
+        <v>0.36830000000000002</v>
       </c>
       <c r="D15">
-        <v>0.35670000000000002</v>
+        <v>0.36780000000000002</v>
       </c>
       <c r="E15">
-        <v>0.35630000000000001</v>
+        <v>0.36820000000000003</v>
       </c>
       <c r="F15">
-        <v>0.35659999999999997</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="G15">
-        <v>0.35659999999999997</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="H15">
-        <v>0.3579</v>
+        <v>0.3679</v>
       </c>
       <c r="I15">
-        <v>0.35699999999999998</v>
+        <v>0.36809999999999998</v>
       </c>
       <c r="J15">
-        <v>0.35680000000000001</v>
+        <v>0.36809999999999998</v>
       </c>
       <c r="K15">
-        <v>0.35649999999999998</v>
+        <v>0.36770000000000003</v>
       </c>
       <c r="L15">
-        <v>0.35510000000000003</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="M15">
-        <v>0.3574</v>
+        <v>0.36759999999999998</v>
       </c>
       <c r="N15">
-        <v>0.35659999999999997</v>
+        <v>0.36780000000000002</v>
       </c>
       <c r="O15">
-        <v>0.35649999999999998</v>
+        <v>0.36759999999999998</v>
       </c>
       <c r="P15">
-        <v>0.35639999999999999</v>
+        <v>0.36759999999999998</v>
       </c>
       <c r="Q15">
-        <v>0.35659999999999997</v>
+        <v>0.36759999999999998</v>
       </c>
       <c r="R15">
-        <v>0.35510000000000003</v>
+        <v>0.36770000000000003</v>
       </c>
       <c r="S15">
-        <v>0.35639999999999999</v>
+        <v>0.36780000000000002</v>
       </c>
       <c r="T15">
-        <v>0.35639999999999999</v>
+        <v>0.36770000000000003</v>
       </c>
       <c r="U15">
-        <v>0.35659999999999997</v>
+        <v>0.36759999999999998</v>
       </c>
       <c r="V15">
-        <v>0.35649999999999998</v>
+        <v>0.36749999999999999</v>
       </c>
       <c r="W15">
-        <v>0.35649999999999998</v>
+        <v>0.36770000000000003</v>
       </c>
       <c r="X15">
-        <v>0.35659999999999997</v>
+        <v>0.3679</v>
       </c>
       <c r="Y15">
-        <v>0.35639999999999999</v>
+        <v>0.36749999999999999</v>
       </c>
       <c r="Z15">
-        <v>0.35639999999999999</v>
+        <v>0.36770000000000003</v>
       </c>
       <c r="AA15">
-        <v>0.35589999999999999</v>
+        <v>0.3679</v>
       </c>
       <c r="AB15">
-        <v>0.3548</v>
+        <v>0.36759999999999998</v>
       </c>
       <c r="AC15">
-        <v>0.35639999999999999</v>
+        <v>0.36759999999999998</v>
       </c>
       <c r="AD15">
-        <v>0.35659999999999997</v>
+        <v>0.36759999999999998</v>
       </c>
       <c r="AE15">
-        <v>0.35680000000000001</v>
+        <v>0.3674</v>
       </c>
       <c r="AF15">
         <v>0.1</v>
@@ -1683,94 +1672,94 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>0.33129999999999998</v>
+        <v>0.32869999999999999</v>
       </c>
       <c r="C16">
-        <v>0.33229999999999998</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="D16">
-        <v>0.33169999999999999</v>
+        <v>0.32879999999999998</v>
       </c>
       <c r="E16">
-        <v>0.33110000000000001</v>
+        <v>0.3291</v>
       </c>
       <c r="F16">
-        <v>0.33160000000000001</v>
+        <v>0.3291</v>
       </c>
       <c r="G16">
-        <v>0.33119999999999999</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="H16">
-        <v>0.33110000000000001</v>
+        <v>0.3291</v>
       </c>
       <c r="I16">
-        <v>0.33100000000000002</v>
+        <v>0.3291</v>
       </c>
       <c r="J16">
-        <v>0.33110000000000001</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="K16">
-        <v>0.33210000000000001</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="L16">
-        <v>0.33100000000000002</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="M16">
-        <v>0.3306</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="N16">
-        <v>0.33150000000000002</v>
+        <v>0.3291</v>
       </c>
       <c r="O16">
-        <v>0.33110000000000001</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="P16">
-        <v>0.33210000000000001</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="Q16">
-        <v>0.33110000000000001</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="R16">
-        <v>0.33090000000000003</v>
+        <v>0.3291</v>
       </c>
       <c r="S16">
-        <v>0.33100000000000002</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="T16">
-        <v>0.33119999999999999</v>
+        <v>0.32879999999999998</v>
       </c>
       <c r="U16">
-        <v>0.33150000000000002</v>
+        <v>0.32819999999999999</v>
       </c>
       <c r="V16">
-        <v>0.33169999999999999</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="W16">
-        <v>0.33129999999999998</v>
+        <v>0.3291</v>
       </c>
       <c r="X16">
-        <v>0.33100000000000002</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="Y16">
-        <v>0.33139999999999997</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="Z16">
-        <v>0.33090000000000003</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="AA16">
-        <v>0.33090000000000003</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="AB16">
-        <v>0.33079999999999998</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="AC16">
-        <v>0.33129999999999998</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="AD16">
-        <v>0.33160000000000001</v>
+        <v>0.3291</v>
       </c>
       <c r="AE16">
-        <v>0.33079999999999998</v>
+        <v>0.32940000000000003</v>
       </c>
       <c r="AF16">
         <v>0.1</v>
@@ -1784,94 +1773,94 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>0.35520000000000002</v>
+        <v>0.35680000000000001</v>
       </c>
       <c r="C17">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="D17">
+        <v>0.3569</v>
+      </c>
+      <c r="E17">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="F17">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="G17">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="H17">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="I17">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="J17">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="K17">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="L17">
+        <v>0.3569</v>
+      </c>
+      <c r="M17">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="N17">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="O17">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="P17">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="Q17">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="R17">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="S17">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="T17">
+        <v>0.35680000000000001</v>
+      </c>
+      <c r="U17">
         <v>0.35630000000000001</v>
       </c>
-      <c r="D17">
-        <v>0.35539999999999999</v>
-      </c>
-      <c r="E17">
-        <v>0.35489999999999999</v>
-      </c>
-      <c r="F17">
-        <v>0.35549999999999998</v>
-      </c>
-      <c r="G17">
-        <v>0.3553</v>
-      </c>
-      <c r="H17">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="I17">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="J17">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="K17">
-        <v>0.35610000000000003</v>
-      </c>
-      <c r="L17">
-        <v>0.3548</v>
-      </c>
-      <c r="M17">
-        <v>0.35489999999999999</v>
-      </c>
-      <c r="N17">
-        <v>0.3553</v>
-      </c>
-      <c r="O17">
+      <c r="V17">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="W17">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="X17">
         <v>0.35510000000000003</v>
       </c>
-      <c r="P17">
-        <v>0.35620000000000002</v>
-      </c>
-      <c r="Q17">
-        <v>0.35510000000000003</v>
-      </c>
-      <c r="R17">
-        <v>0.3548</v>
-      </c>
-      <c r="S17">
-        <v>0.35510000000000003</v>
-      </c>
-      <c r="T17">
-        <v>0.35520000000000002</v>
-      </c>
-      <c r="U17">
-        <v>0.35560000000000003</v>
-      </c>
-      <c r="V17">
-        <v>0.35570000000000002</v>
-      </c>
-      <c r="W17">
-        <v>0.35549999999999998</v>
-      </c>
-      <c r="X17">
-        <v>0.35489999999999999</v>
-      </c>
       <c r="Y17">
-        <v>0.35560000000000003</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="Z17">
-        <v>0.35489999999999999</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="AA17">
-        <v>0.3548</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="AB17">
-        <v>0.35470000000000002</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="AC17">
-        <v>0.35549999999999998</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="AD17">
-        <v>0.35489999999999999</v>
+        <v>0.35709999999999997</v>
       </c>
       <c r="AE17">
-        <v>0.3548</v>
+        <v>0.35720000000000002</v>
       </c>
       <c r="AF17">
         <v>0.1</v>
@@ -1885,94 +1874,94 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>0.32619999999999999</v>
+        <v>0.33139999999999997</v>
       </c>
       <c r="C18">
-        <v>0.3271</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="D18">
-        <v>0.32669999999999999</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="E18">
-        <v>0.32669999999999999</v>
+        <v>0.33139999999999997</v>
       </c>
       <c r="F18">
-        <v>0.3271</v>
+        <v>0.33139999999999997</v>
       </c>
       <c r="G18">
-        <v>0.32590000000000002</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="H18">
-        <v>0.32690000000000002</v>
+        <v>0.33160000000000001</v>
       </c>
       <c r="I18">
-        <v>0.32679999999999998</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="J18">
-        <v>0.32669999999999999</v>
+        <v>0.33139999999999997</v>
       </c>
       <c r="K18">
-        <v>0.32690000000000002</v>
+        <v>0.33139999999999997</v>
       </c>
       <c r="L18">
-        <v>0.32590000000000002</v>
+        <v>0.33139999999999997</v>
       </c>
       <c r="M18">
-        <v>0.3271</v>
+        <v>0.33139999999999997</v>
       </c>
       <c r="N18">
-        <v>0.32669999999999999</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="O18">
-        <v>0.32619999999999999</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="P18">
-        <v>0.32700000000000001</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="Q18">
-        <v>0.3266</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="R18">
-        <v>0.32600000000000001</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="S18">
-        <v>0.32679999999999998</v>
+        <v>0.33139999999999997</v>
       </c>
       <c r="T18">
-        <v>0.3251</v>
+        <v>0.33139999999999997</v>
       </c>
       <c r="U18">
-        <v>0.32669999999999999</v>
+        <v>0.33110000000000001</v>
       </c>
       <c r="V18">
-        <v>0.3266</v>
+        <v>0.33139999999999997</v>
       </c>
       <c r="W18">
-        <v>0.32619999999999999</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="X18">
-        <v>0.32519999999999999</v>
+        <v>0.33040000000000003</v>
       </c>
       <c r="Y18">
-        <v>0.3266</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="Z18">
-        <v>0.3251</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="AA18">
-        <v>0.3261</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="AB18">
-        <v>0.3261</v>
+        <v>0.33160000000000001</v>
       </c>
       <c r="AC18">
-        <v>0.32669999999999999</v>
+        <v>0.33160000000000001</v>
       </c>
       <c r="AD18">
-        <v>0.32600000000000001</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="AE18">
-        <v>0.32669999999999999</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="AF18">
         <v>0.1</v>
@@ -1986,94 +1975,94 @@
         <v>15</v>
       </c>
       <c r="B19">
-        <v>0.35139999999999999</v>
+        <v>0.35959999999999998</v>
       </c>
       <c r="C19">
-        <v>0.35220000000000001</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="D19">
-        <v>0.35189999999999999</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="E19">
-        <v>0.3518</v>
+        <v>0.35959999999999998</v>
       </c>
       <c r="F19">
-        <v>0.35210000000000002</v>
+        <v>0.35959999999999998</v>
       </c>
       <c r="G19">
-        <v>0.35139999999999999</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="H19">
-        <v>0.35170000000000001</v>
+        <v>0.35980000000000001</v>
       </c>
       <c r="I19">
-        <v>0.35199999999999998</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="J19">
-        <v>0.35189999999999999</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="K19">
-        <v>0.35199999999999998</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="L19">
-        <v>0.35099999999999998</v>
+        <v>0.35959999999999998</v>
       </c>
       <c r="M19">
-        <v>0.3523</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="N19">
-        <v>0.3518</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="O19">
-        <v>0.35170000000000001</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="P19">
-        <v>0.35220000000000001</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="Q19">
-        <v>0.3518</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="R19">
-        <v>0.35099999999999998</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="S19">
-        <v>0.35189999999999999</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="T19">
-        <v>0.35110000000000002</v>
+        <v>0.35949999999999999</v>
       </c>
       <c r="U19">
-        <v>0.35139999999999999</v>
+        <v>0.35930000000000001</v>
       </c>
       <c r="V19">
-        <v>0.3518</v>
+        <v>0.35959999999999998</v>
       </c>
       <c r="W19">
-        <v>0.35110000000000002</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="X19">
-        <v>0.35120000000000001</v>
+        <v>0.35859999999999997</v>
       </c>
       <c r="Y19">
-        <v>0.35170000000000001</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="Z19">
-        <v>0.35099999999999998</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="AA19">
-        <v>0.3513</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="AB19">
-        <v>0.35139999999999999</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="AC19">
-        <v>0.35139999999999999</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="AD19">
-        <v>0.35149999999999998</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="AE19">
-        <v>0.35189999999999999</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="AF19">
         <v>0.1</v>
@@ -2087,94 +2076,94 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>0.32740000000000002</v>
+        <v>0.3473</v>
       </c>
       <c r="C20">
-        <v>0.32750000000000001</v>
+        <v>0.34760000000000002</v>
       </c>
       <c r="D20">
-        <v>0.32750000000000001</v>
+        <v>0.34739999999999999</v>
       </c>
       <c r="E20">
-        <v>0.32769999999999999</v>
+        <v>0.34739999999999999</v>
       </c>
       <c r="F20">
-        <v>0.32719999999999999</v>
+        <v>0.34739999999999999</v>
       </c>
       <c r="G20">
-        <v>0.32750000000000001</v>
+        <v>0.3473</v>
       </c>
       <c r="H20">
-        <v>0.32779999999999998</v>
+        <v>0.34739999999999999</v>
       </c>
       <c r="I20">
-        <v>0.3276</v>
+        <v>0.34749999999999998</v>
       </c>
       <c r="J20">
-        <v>0.32719999999999999</v>
+        <v>0.3473</v>
       </c>
       <c r="K20">
-        <v>0.32740000000000002</v>
+        <v>0.3473</v>
       </c>
       <c r="L20">
-        <v>0.32750000000000001</v>
+        <v>0.34720000000000001</v>
       </c>
       <c r="M20">
-        <v>0.32740000000000002</v>
+        <v>0.3473</v>
       </c>
       <c r="N20">
-        <v>0.32740000000000002</v>
+        <v>0.3473</v>
       </c>
       <c r="O20">
-        <v>0.32729999999999998</v>
+        <v>0.3473</v>
       </c>
       <c r="P20">
-        <v>0.32729999999999998</v>
+        <v>0.3473</v>
       </c>
       <c r="Q20">
-        <v>0.32729999999999998</v>
+        <v>0.3473</v>
       </c>
       <c r="R20">
-        <v>0.32719999999999999</v>
+        <v>0.34720000000000001</v>
       </c>
       <c r="S20">
-        <v>0.32740000000000002</v>
+        <v>0.34720000000000001</v>
       </c>
       <c r="T20">
-        <v>0.32740000000000002</v>
+        <v>0.34720000000000001</v>
       </c>
       <c r="U20">
-        <v>0.32750000000000001</v>
+        <v>0.34689999999999999</v>
       </c>
       <c r="V20">
-        <v>0.32729999999999998</v>
+        <v>0.34710000000000002</v>
       </c>
       <c r="W20">
-        <v>0.32729999999999998</v>
+        <v>0.3473</v>
       </c>
       <c r="X20">
-        <v>0.32740000000000002</v>
+        <v>0.34689999999999999</v>
       </c>
       <c r="Y20">
-        <v>0.32700000000000001</v>
+        <v>0.34720000000000001</v>
       </c>
       <c r="Z20">
-        <v>0.32750000000000001</v>
+        <v>0.3473</v>
       </c>
       <c r="AA20">
-        <v>0.32740000000000002</v>
+        <v>0.34720000000000001</v>
       </c>
       <c r="AB20">
-        <v>0.32729999999999998</v>
+        <v>0.34720000000000001</v>
       </c>
       <c r="AC20">
-        <v>0.32729999999999998</v>
+        <v>0.34720000000000001</v>
       </c>
       <c r="AD20">
-        <v>0.32740000000000002</v>
+        <v>0.3473</v>
       </c>
       <c r="AE20">
-        <v>0.32679999999999998</v>
+        <v>0.3473</v>
       </c>
       <c r="AF20">
         <v>0.1</v>
@@ -2188,94 +2177,94 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>0.35339999999999999</v>
+        <v>0.3715</v>
       </c>
       <c r="C21">
-        <v>0.35339999999999999</v>
+        <v>0.37169999999999997</v>
       </c>
       <c r="D21">
-        <v>0.3533</v>
+        <v>0.37169999999999997</v>
       </c>
       <c r="E21">
-        <v>0.35339999999999999</v>
+        <v>0.37159999999999999</v>
       </c>
       <c r="F21">
-        <v>0.3533</v>
+        <v>0.37159999999999999</v>
       </c>
       <c r="G21">
-        <v>0.35339999999999999</v>
+        <v>0.3715</v>
       </c>
       <c r="H21">
-        <v>0.35349999999999998</v>
+        <v>0.37159999999999999</v>
       </c>
       <c r="I21">
-        <v>0.35339999999999999</v>
+        <v>0.37169999999999997</v>
       </c>
       <c r="J21">
-        <v>0.35310000000000002</v>
+        <v>0.37159999999999999</v>
       </c>
       <c r="K21">
-        <v>0.3533</v>
+        <v>0.3715</v>
       </c>
       <c r="L21">
-        <v>0.35349999999999998</v>
+        <v>0.3715</v>
       </c>
       <c r="M21">
-        <v>0.35339999999999999</v>
+        <v>0.3715</v>
       </c>
       <c r="N21">
-        <v>0.35320000000000001</v>
+        <v>0.37159999999999999</v>
       </c>
       <c r="O21">
-        <v>0.3533</v>
+        <v>0.3715</v>
       </c>
       <c r="P21">
-        <v>0.35370000000000001</v>
+        <v>0.3715</v>
       </c>
       <c r="Q21">
-        <v>0.35320000000000001</v>
+        <v>0.3715</v>
       </c>
       <c r="R21">
-        <v>0.35320000000000001</v>
+        <v>0.3715</v>
       </c>
       <c r="S21">
-        <v>0.35320000000000001</v>
+        <v>0.37140000000000001</v>
       </c>
       <c r="T21">
-        <v>0.3533</v>
+        <v>0.37140000000000001</v>
       </c>
       <c r="U21">
-        <v>0.35339999999999999</v>
+        <v>0.37119999999999997</v>
       </c>
       <c r="V21">
-        <v>0.35320000000000001</v>
+        <v>0.37140000000000001</v>
       </c>
       <c r="W21">
-        <v>0.35320000000000001</v>
+        <v>0.3715</v>
       </c>
       <c r="X21">
-        <v>0.35320000000000001</v>
+        <v>0.371</v>
       </c>
       <c r="Y21">
-        <v>0.35299999999999998</v>
+        <v>0.3715</v>
       </c>
       <c r="Z21">
-        <v>0.35370000000000001</v>
+        <v>0.3715</v>
       </c>
       <c r="AA21">
-        <v>0.35320000000000001</v>
+        <v>0.3715</v>
       </c>
       <c r="AB21">
-        <v>0.35320000000000001</v>
+        <v>0.3715</v>
       </c>
       <c r="AC21">
-        <v>0.35310000000000002</v>
+        <v>0.3715</v>
       </c>
       <c r="AD21">
-        <v>0.3533</v>
+        <v>0.3715</v>
       </c>
       <c r="AE21">
-        <v>0.35349999999999998</v>
+        <v>0.37159999999999999</v>
       </c>
       <c r="AF21">
         <v>0.1</v>
@@ -2289,94 +2278,94 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>0.33560000000000001</v>
+        <v>0.3301</v>
       </c>
       <c r="C22">
-        <v>0.33539999999999998</v>
+        <v>0.33019999999999999</v>
       </c>
       <c r="D22">
-        <v>0.33439999999999998</v>
+        <v>0.33019999999999999</v>
       </c>
       <c r="E22">
-        <v>0.33460000000000001</v>
+        <v>0.3301</v>
       </c>
       <c r="F22">
-        <v>0.33600000000000002</v>
+        <v>0.3301</v>
       </c>
       <c r="G22">
-        <v>0.3357</v>
+        <v>0.3301</v>
       </c>
       <c r="H22">
-        <v>0.33500000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="I22">
-        <v>0.33360000000000001</v>
+        <v>0.3301</v>
       </c>
       <c r="J22">
-        <v>0.3352</v>
+        <v>0.33</v>
       </c>
       <c r="K22">
-        <v>0.3352</v>
+        <v>0.3301</v>
       </c>
       <c r="L22">
-        <v>0.33510000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="M22">
-        <v>0.33550000000000002</v>
+        <v>0.32990000000000003</v>
       </c>
       <c r="N22">
-        <v>0.33550000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="O22">
-        <v>0.3352</v>
+        <v>0.32990000000000003</v>
       </c>
       <c r="P22">
-        <v>0.33500000000000002</v>
+        <v>0.3301</v>
       </c>
       <c r="Q22">
-        <v>0.33510000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="R22">
-        <v>0.33500000000000002</v>
+        <v>0.3301</v>
       </c>
       <c r="S22">
-        <v>0.3352</v>
+        <v>0.3301</v>
       </c>
       <c r="T22">
-        <v>0.33529999999999999</v>
+        <v>0.3301</v>
       </c>
       <c r="U22">
-        <v>0.33550000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="V22">
-        <v>0.33500000000000002</v>
+        <v>0.3301</v>
       </c>
       <c r="W22">
-        <v>0.33529999999999999</v>
+        <v>0.3301</v>
       </c>
       <c r="X22">
-        <v>0.3357</v>
+        <v>0.33</v>
       </c>
       <c r="Y22">
-        <v>0.33510000000000001</v>
+        <v>0.32990000000000003</v>
       </c>
       <c r="Z22">
-        <v>0.33539999999999998</v>
+        <v>0.3301</v>
       </c>
       <c r="AA22">
-        <v>0.33550000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="AB22">
-        <v>0.33529999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="AC22">
-        <v>0.3352</v>
+        <v>0.33</v>
       </c>
       <c r="AD22">
-        <v>0.33510000000000001</v>
+        <v>0.3301</v>
       </c>
       <c r="AE22">
-        <v>0.3352</v>
+        <v>0.3301</v>
       </c>
       <c r="AF22">
         <v>0.1</v>
@@ -2390,94 +2379,94 @@
         <v>19</v>
       </c>
       <c r="B23">
-        <v>0.35770000000000002</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="C23">
-        <v>0.3574</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="D23">
-        <v>0.3569</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="E23">
-        <v>0.35720000000000002</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="F23">
-        <v>0.3574</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="G23">
         <v>0.35759999999999997</v>
       </c>
       <c r="H23">
-        <v>0.35759999999999997</v>
+        <v>0.3574</v>
       </c>
       <c r="I23">
-        <v>0.3569</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="J23">
         <v>0.35749999999999998</v>
       </c>
       <c r="K23">
-        <v>0.35770000000000002</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="L23">
         <v>0.3574</v>
       </c>
       <c r="M23">
-        <v>0.35770000000000002</v>
+        <v>0.3574</v>
       </c>
       <c r="N23">
         <v>0.35749999999999998</v>
       </c>
       <c r="O23">
+        <v>0.3574</v>
+      </c>
+      <c r="P23">
         <v>0.35749999999999998</v>
       </c>
-      <c r="P23">
-        <v>0.35720000000000002</v>
-      </c>
       <c r="Q23">
-        <v>0.35730000000000001</v>
+        <v>0.3574</v>
       </c>
       <c r="R23">
-        <v>0.35730000000000001</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="S23">
         <v>0.35749999999999998</v>
       </c>
       <c r="T23">
-        <v>0.35720000000000002</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="U23">
         <v>0.35749999999999998</v>
       </c>
       <c r="V23">
-        <v>0.35730000000000001</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="W23">
         <v>0.35749999999999998</v>
       </c>
       <c r="X23">
-        <v>0.35759999999999997</v>
+        <v>0.3574</v>
       </c>
       <c r="Y23">
         <v>0.3574</v>
       </c>
       <c r="Z23">
-        <v>0.3574</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="AA23">
         <v>0.3574</v>
       </c>
       <c r="AB23">
+        <v>0.3574</v>
+      </c>
+      <c r="AC23">
+        <v>0.3574</v>
+      </c>
+      <c r="AD23">
         <v>0.35749999999999998</v>
       </c>
-      <c r="AC23">
-        <v>0.35730000000000001</v>
-      </c>
-      <c r="AD23">
-        <v>0.35730000000000001</v>
-      </c>
       <c r="AE23">
-        <v>0.3574</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="AF23">
         <v>0.1</v>
@@ -2491,94 +2480,94 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>0.32929999999999998</v>
+        <v>0.33279999999999998</v>
       </c>
       <c r="C24">
-        <v>0.3291</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D24">
-        <v>0.3291</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="E24">
-        <v>0.32869999999999999</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F24">
-        <v>0.32890000000000003</v>
+        <v>0.3332</v>
       </c>
       <c r="G24">
-        <v>0.3291</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="H24">
-        <v>0.32890000000000003</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="I24">
-        <v>0.32900000000000001</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="J24">
-        <v>0.32940000000000003</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="K24">
-        <v>0.32890000000000003</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="L24">
-        <v>0.32890000000000003</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="M24">
-        <v>0.32900000000000001</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="N24">
-        <v>0.32940000000000003</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="O24">
-        <v>0.32940000000000003</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="P24">
-        <v>0.3291</v>
+        <v>0.33289999999999997</v>
       </c>
       <c r="Q24">
-        <v>0.32900000000000001</v>
+        <v>0.33289999999999997</v>
       </c>
       <c r="R24">
-        <v>0.32900000000000001</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="S24">
-        <v>0.32890000000000003</v>
+        <v>0.3332</v>
       </c>
       <c r="T24">
-        <v>0.32919999999999999</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="U24">
-        <v>0.32919999999999999</v>
+        <v>0.33289999999999997</v>
       </c>
       <c r="V24">
-        <v>0.32919999999999999</v>
+        <v>0.33289999999999997</v>
       </c>
       <c r="W24">
-        <v>0.32900000000000001</v>
+        <v>0.33289999999999997</v>
       </c>
       <c r="X24">
-        <v>0.32919999999999999</v>
+        <v>0.33289999999999997</v>
       </c>
       <c r="Y24">
-        <v>0.3291</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="Z24">
-        <v>0.32929999999999998</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="AA24">
-        <v>0.3291</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AB24">
-        <v>0.32919999999999999</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="AC24">
-        <v>0.32929999999999998</v>
+        <v>0.3332</v>
       </c>
       <c r="AD24">
-        <v>0.32919999999999999</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AE24">
-        <v>0.32929999999999998</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AF24">
         <v>0.1</v>
@@ -2592,94 +2581,94 @@
         <v>21</v>
       </c>
       <c r="B25">
-        <v>0.3518</v>
+        <v>0.35980000000000001</v>
       </c>
       <c r="C25">
-        <v>0.35160000000000002</v>
+        <v>0.36</v>
       </c>
       <c r="D25">
-        <v>0.35149999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="E25">
-        <v>0.35120000000000001</v>
+        <v>0.3599</v>
       </c>
       <c r="F25">
-        <v>0.35210000000000002</v>
+        <v>0.36009999999999998</v>
       </c>
       <c r="G25">
-        <v>0.35189999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="H25">
-        <v>0.35189999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="I25">
-        <v>0.35220000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="J25">
-        <v>0.35160000000000002</v>
+        <v>0.36</v>
       </c>
       <c r="K25">
-        <v>0.35149999999999998</v>
+        <v>0.3599</v>
       </c>
       <c r="L25">
-        <v>0.3518</v>
+        <v>0.36</v>
       </c>
       <c r="M25">
-        <v>0.35170000000000001</v>
+        <v>0.3599</v>
       </c>
       <c r="N25">
-        <v>0.3518</v>
+        <v>0.3599</v>
       </c>
       <c r="O25">
-        <v>0.35160000000000002</v>
+        <v>0.3599</v>
       </c>
       <c r="P25">
-        <v>0.35160000000000002</v>
+        <v>0.3599</v>
       </c>
       <c r="Q25">
-        <v>0.3518</v>
+        <v>0.35980000000000001</v>
       </c>
       <c r="R25">
-        <v>0.3518</v>
+        <v>0.36</v>
       </c>
       <c r="S25">
-        <v>0.35170000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="T25">
-        <v>0.35199999999999998</v>
+        <v>0.3599</v>
       </c>
       <c r="U25">
-        <v>0.35220000000000001</v>
+        <v>0.3599</v>
       </c>
       <c r="V25">
-        <v>0.3518</v>
+        <v>0.3599</v>
       </c>
       <c r="W25">
-        <v>0.35210000000000002</v>
+        <v>0.3599</v>
       </c>
       <c r="X25">
-        <v>0.35189999999999999</v>
+        <v>0.3599</v>
       </c>
       <c r="Y25">
-        <v>0.35220000000000001</v>
+        <v>0.3599</v>
       </c>
       <c r="Z25">
-        <v>0.35189999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="AA25">
-        <v>0.3518</v>
+        <v>0.3599</v>
       </c>
       <c r="AB25">
-        <v>0.3518</v>
+        <v>0.36</v>
       </c>
       <c r="AC25">
-        <v>0.3518</v>
+        <v>0.36</v>
       </c>
       <c r="AD25">
-        <v>0.3518</v>
+        <v>0.36</v>
       </c>
       <c r="AE25">
-        <v>0.35189999999999999</v>
+        <v>0.3599</v>
       </c>
       <c r="AF25">
         <v>0.1</v>
@@ -2693,94 +2682,94 @@
         <v>22</v>
       </c>
       <c r="B26">
-        <v>0.3306</v>
+        <v>0.3533</v>
       </c>
       <c r="C26">
-        <v>0.33</v>
+        <v>0.35320000000000001</v>
       </c>
       <c r="D26">
-        <v>0.32900000000000001</v>
+        <v>0.3533</v>
       </c>
       <c r="E26">
-        <v>0.32940000000000003</v>
+        <v>0.35310000000000002</v>
       </c>
       <c r="F26">
-        <v>0.32990000000000003</v>
+        <v>0.35310000000000002</v>
       </c>
       <c r="G26">
-        <v>0.32990000000000003</v>
+        <v>0.35310000000000002</v>
       </c>
       <c r="H26">
-        <v>0.3301</v>
+        <v>0.35310000000000002</v>
       </c>
       <c r="I26">
-        <v>0.32950000000000002</v>
+        <v>0.35310000000000002</v>
       </c>
       <c r="J26">
-        <v>0.3296</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="K26">
-        <v>0.32990000000000003</v>
+        <v>0.35310000000000002</v>
       </c>
       <c r="L26">
-        <v>0.33029999999999998</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="M26">
-        <v>0.33029999999999998</v>
+        <v>0.35310000000000002</v>
       </c>
       <c r="N26">
-        <v>0.32990000000000003</v>
+        <v>0.35289999999999999</v>
       </c>
       <c r="O26">
-        <v>0.32969999999999999</v>
+        <v>0.35310000000000002</v>
       </c>
       <c r="P26">
-        <v>0.33029999999999998</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="Q26">
-        <v>0.33040000000000003</v>
+        <v>0.3528</v>
       </c>
       <c r="R26">
-        <v>0.33029999999999998</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="S26">
-        <v>0.33029999999999998</v>
+        <v>0.35289999999999999</v>
       </c>
       <c r="T26">
-        <v>0.32990000000000003</v>
+        <v>0.35289999999999999</v>
       </c>
       <c r="U26">
-        <v>0.3301</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="V26">
-        <v>0.32990000000000003</v>
+        <v>0.35289999999999999</v>
       </c>
       <c r="W26">
-        <v>0.3301</v>
+        <v>0.35289999999999999</v>
       </c>
       <c r="X26">
-        <v>0.32990000000000003</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="Y26">
-        <v>0.32979999999999998</v>
+        <v>0.35289999999999999</v>
       </c>
       <c r="Z26">
-        <v>0.32940000000000003</v>
+        <v>0.35289999999999999</v>
       </c>
       <c r="AA26">
-        <v>0.32990000000000003</v>
+        <v>0.35289999999999999</v>
       </c>
       <c r="AB26">
-        <v>0.32990000000000003</v>
+        <v>0.35289999999999999</v>
       </c>
       <c r="AC26">
-        <v>0.32979999999999998</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="AD26">
-        <v>0.32900000000000001</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="AE26">
-        <v>0.32979999999999998</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="AF26">
         <v>0.1</v>
@@ -2794,907 +2783,99 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>0.35510000000000003</v>
+        <v>0.37440000000000001</v>
       </c>
       <c r="C27">
-        <v>0.35460000000000003</v>
+        <v>0.37440000000000001</v>
       </c>
       <c r="D27">
-        <v>0.35349999999999998</v>
+        <v>0.37440000000000001</v>
       </c>
       <c r="E27">
-        <v>0.35399999999999998</v>
+        <v>0.37430000000000002</v>
       </c>
       <c r="F27">
-        <v>0.35439999999999999</v>
+        <v>0.37430000000000002</v>
       </c>
       <c r="G27">
-        <v>0.35420000000000001</v>
+        <v>0.37430000000000002</v>
       </c>
       <c r="H27">
-        <v>0.35439999999999999</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="I27">
-        <v>0.35410000000000003</v>
+        <v>0.37430000000000002</v>
       </c>
       <c r="J27">
-        <v>0.35389999999999999</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="K27">
-        <v>0.35439999999999999</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="L27">
-        <v>0.35460000000000003</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="M27">
-        <v>0.35470000000000002</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="N27">
-        <v>0.3543</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="O27">
-        <v>0.35399999999999998</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="P27">
-        <v>0.35470000000000002</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="Q27">
-        <v>0.3548</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="R27">
-        <v>0.35460000000000003</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="S27">
-        <v>0.35470000000000002</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="T27">
-        <v>0.35420000000000001</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="U27">
-        <v>0.35449999999999998</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="V27">
-        <v>0.35420000000000001</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="W27">
-        <v>0.35449999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="X27">
-        <v>0.35420000000000001</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="Y27">
-        <v>0.35410000000000003</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="Z27">
-        <v>0.35370000000000001</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="AA27">
-        <v>0.35420000000000001</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="AB27">
-        <v>0.35420000000000001</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="AC27">
-        <v>0.35410000000000003</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="AD27">
-        <v>0.35370000000000001</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="AE27">
-        <v>0.35410000000000003</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="AF27">
         <v>0.1</v>
       </c>
       <c r="AG27">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28">
-        <v>0.33239999999999997</v>
-      </c>
-      <c r="C28">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="D28">
-        <v>0.3327</v>
-      </c>
-      <c r="E28">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="F28">
-        <v>0.3332</v>
-      </c>
-      <c r="G28">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="H28">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="I28">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="J28">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="K28">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="L28">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="M28">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="N28">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="O28">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="P28">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="Q28">
-        <v>0.33289999999999997</v>
-      </c>
-      <c r="R28">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="S28">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="T28">
-        <v>0.33289999999999997</v>
-      </c>
-      <c r="U28">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="V28">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="W28">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="X28">
-        <v>0.33310000000000001</v>
-      </c>
-      <c r="Y28">
-        <v>0.33310000000000001</v>
-      </c>
-      <c r="Z28">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="AA28">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="AB28">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="AC28">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="AD28">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="AE28">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="AF28">
-        <v>0.1</v>
-      </c>
-      <c r="AG28">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29">
-        <v>0.35680000000000001</v>
-      </c>
-      <c r="C29">
-        <v>0.35670000000000002</v>
-      </c>
-      <c r="D29">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="E29">
-        <v>0.35749999999999998</v>
-      </c>
-      <c r="F29">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="G29">
-        <v>0.3574</v>
-      </c>
-      <c r="H29">
-        <v>0.35749999999999998</v>
-      </c>
-      <c r="I29">
-        <v>0.35749999999999998</v>
-      </c>
-      <c r="J29">
-        <v>0.3574</v>
-      </c>
-      <c r="K29">
-        <v>0.3574</v>
-      </c>
-      <c r="L29">
-        <v>0.3574</v>
-      </c>
-      <c r="M29">
-        <v>0.3574</v>
-      </c>
-      <c r="N29">
-        <v>0.3574</v>
-      </c>
-      <c r="O29">
-        <v>0.35670000000000002</v>
-      </c>
-      <c r="P29">
-        <v>0.3574</v>
-      </c>
-      <c r="Q29">
-        <v>0.35659999999999997</v>
-      </c>
-      <c r="R29">
-        <v>0.3574</v>
-      </c>
-      <c r="S29">
-        <v>0.3574</v>
-      </c>
-      <c r="T29">
-        <v>0.35670000000000002</v>
-      </c>
-      <c r="U29">
-        <v>0.3574</v>
-      </c>
-      <c r="V29">
-        <v>0.35680000000000001</v>
-      </c>
-      <c r="W29">
-        <v>0.35749999999999998</v>
-      </c>
-      <c r="X29">
-        <v>0.35680000000000001</v>
-      </c>
-      <c r="Y29">
-        <v>0.3569</v>
-      </c>
-      <c r="Z29">
-        <v>0.35680000000000001</v>
-      </c>
-      <c r="AA29">
-        <v>0.35680000000000001</v>
-      </c>
-      <c r="AB29">
-        <v>0.35749999999999998</v>
-      </c>
-      <c r="AC29">
-        <v>0.3574</v>
-      </c>
-      <c r="AD29">
-        <v>0.35749999999999998</v>
-      </c>
-      <c r="AE29">
-        <v>0.3574</v>
-      </c>
-      <c r="AF29">
-        <v>0.1</v>
-      </c>
-      <c r="AG29">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30">
-        <v>0.33279999999999998</v>
-      </c>
-      <c r="C30">
-        <v>0.33310000000000001</v>
-      </c>
-      <c r="D30">
-        <v>0.33289999999999997</v>
-      </c>
-      <c r="E30">
-        <v>0.33310000000000001</v>
-      </c>
-      <c r="F30">
-        <v>0.33279999999999998</v>
-      </c>
-      <c r="G30">
-        <v>0.33339999999999997</v>
-      </c>
-      <c r="H30">
-        <v>0.33310000000000001</v>
-      </c>
-      <c r="I30">
-        <v>0.3327</v>
-      </c>
-      <c r="J30">
-        <v>0.3332</v>
-      </c>
-      <c r="K30">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="L30">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="M30">
-        <v>0.33339999999999997</v>
-      </c>
-      <c r="N30">
-        <v>0.33350000000000002</v>
-      </c>
-      <c r="O30">
-        <v>0.32950000000000002</v>
-      </c>
-      <c r="P30">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="Q30">
-        <v>0.33279999999999998</v>
-      </c>
-      <c r="R30">
-        <v>0.33279999999999998</v>
-      </c>
-      <c r="S30">
-        <v>0.33250000000000002</v>
-      </c>
-      <c r="T30">
-        <v>0.33239999999999997</v>
-      </c>
-      <c r="U30">
-        <v>0.3327</v>
-      </c>
-      <c r="V30">
-        <v>0.3327</v>
-      </c>
-      <c r="W30">
-        <v>0.33250000000000002</v>
-      </c>
-      <c r="X30">
-        <v>0.33250000000000002</v>
-      </c>
-      <c r="Y30">
-        <v>0.33250000000000002</v>
-      </c>
-      <c r="Z30">
-        <v>0.33239999999999997</v>
-      </c>
-      <c r="AA30">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="AB30">
-        <v>0.33350000000000002</v>
-      </c>
-      <c r="AC30">
-        <v>0.33289999999999997</v>
-      </c>
-      <c r="AD30">
-        <v>0.33289999999999997</v>
-      </c>
-      <c r="AE30">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="AF30">
-        <v>0.1</v>
-      </c>
-      <c r="AG30">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="C31">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="D31">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="E31">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="F31">
-        <v>0.35709999999999997</v>
-      </c>
-      <c r="G31">
-        <v>0.35709999999999997</v>
-      </c>
-      <c r="H31">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="I31">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="J31">
-        <v>0.35709999999999997</v>
-      </c>
-      <c r="K31">
-        <v>0.35709999999999997</v>
-      </c>
-      <c r="L31">
-        <v>0.35709999999999997</v>
-      </c>
-      <c r="M31">
-        <v>0.35709999999999997</v>
-      </c>
-      <c r="N31">
-        <v>0.35709999999999997</v>
-      </c>
-      <c r="O31">
-        <v>0.3553</v>
-      </c>
-      <c r="P31">
-        <v>0.35709999999999997</v>
-      </c>
-      <c r="Q31">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="R31">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="S31">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="T31">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="U31">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="V31">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="W31">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="X31">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="Y31">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="Z31">
-        <v>0.35730000000000001</v>
-      </c>
-      <c r="AA31">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="AB31">
-        <v>0.35709999999999997</v>
-      </c>
-      <c r="AC31">
-        <v>0.35709999999999997</v>
-      </c>
-      <c r="AD31">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="AE31">
-        <v>0.35730000000000001</v>
-      </c>
-      <c r="AF31">
-        <v>0.1</v>
-      </c>
-      <c r="AG31">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32">
-        <v>0.33160000000000001</v>
-      </c>
-      <c r="C32">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="D32">
-        <v>0.33139999999999997</v>
-      </c>
-      <c r="E32">
-        <v>0.33189999999999997</v>
-      </c>
-      <c r="F32">
-        <v>0.33239999999999997</v>
-      </c>
-      <c r="G32">
-        <v>0.33160000000000001</v>
-      </c>
-      <c r="H32">
-        <v>0.33239999999999997</v>
-      </c>
-      <c r="I32">
-        <v>0.33239999999999997</v>
-      </c>
-      <c r="J32">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="K32">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="L32">
-        <v>0.33339999999999997</v>
-      </c>
-      <c r="M32">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="N32">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="O32">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="P32">
-        <v>0.33250000000000002</v>
-      </c>
-      <c r="Q32">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="R32">
-        <v>0.33310000000000001</v>
-      </c>
-      <c r="S32">
-        <v>0.33310000000000001</v>
-      </c>
-      <c r="T32">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="U32">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="V32">
-        <v>0.33310000000000001</v>
-      </c>
-      <c r="W32">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="X32">
-        <v>0.3332</v>
-      </c>
-      <c r="Y32">
-        <v>0.3332</v>
-      </c>
-      <c r="Z32">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="AA32">
-        <v>0.33339999999999997</v>
-      </c>
-      <c r="AB32">
-        <v>0.33310000000000001</v>
-      </c>
-      <c r="AC32">
-        <v>0.3332</v>
-      </c>
-      <c r="AD32">
-        <v>0.33279999999999998</v>
-      </c>
-      <c r="AE32">
-        <v>0.33350000000000002</v>
-      </c>
-      <c r="AF32">
-        <v>0.1</v>
-      </c>
-      <c r="AG32">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33">
-        <v>0.35620000000000002</v>
-      </c>
-      <c r="C33">
-        <v>0.35630000000000001</v>
-      </c>
-      <c r="D33">
-        <v>0.35580000000000001</v>
-      </c>
-      <c r="E33">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="F33">
-        <v>0.35630000000000001</v>
-      </c>
-      <c r="G33">
-        <v>0.35589999999999999</v>
-      </c>
-      <c r="H33">
-        <v>0.35630000000000001</v>
-      </c>
-      <c r="I33">
-        <v>0.35620000000000002</v>
-      </c>
-      <c r="J33">
-        <v>0.35659999999999997</v>
-      </c>
-      <c r="K33">
-        <v>0.35670000000000002</v>
-      </c>
-      <c r="L33">
-        <v>0.35680000000000001</v>
-      </c>
-      <c r="M33">
-        <v>0.35670000000000002</v>
-      </c>
-      <c r="N33">
-        <v>0.35659999999999997</v>
-      </c>
-      <c r="O33">
-        <v>0.35649999999999998</v>
-      </c>
-      <c r="P33">
-        <v>0.35630000000000001</v>
-      </c>
-      <c r="Q33">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="R33">
-        <v>0.3569</v>
-      </c>
-      <c r="S33">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="T33">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="U33">
-        <v>0.35730000000000001</v>
-      </c>
-      <c r="V33">
-        <v>0.3569</v>
-      </c>
-      <c r="W33">
-        <v>0.35680000000000001</v>
-      </c>
-      <c r="X33">
-        <v>0.3569</v>
-      </c>
-      <c r="Y33">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="Z33">
-        <v>0.3569</v>
-      </c>
-      <c r="AA33">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="AB33">
-        <v>0.3569</v>
-      </c>
-      <c r="AC33">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="AD33">
-        <v>0.35670000000000002</v>
-      </c>
-      <c r="AE33">
-        <v>0.3574</v>
-      </c>
-      <c r="AF33">
-        <v>0.1</v>
-      </c>
-      <c r="AG33">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34">
-        <v>0.32740000000000002</v>
-      </c>
-      <c r="C34">
-        <v>0.32729999999999998</v>
-      </c>
-      <c r="D34">
-        <v>0.3286</v>
-      </c>
-      <c r="E34">
-        <v>0.32890000000000003</v>
-      </c>
-      <c r="F34">
-        <v>0.32840000000000003</v>
-      </c>
-      <c r="G34">
-        <v>0.3276</v>
-      </c>
-      <c r="H34">
-        <v>0.3286</v>
-      </c>
-      <c r="I34">
-        <v>0.32829999999999998</v>
-      </c>
-      <c r="J34">
-        <v>0.32840000000000003</v>
-      </c>
-      <c r="K34">
-        <v>0.32850000000000001</v>
-      </c>
-      <c r="L34">
-        <v>0.32869999999999999</v>
-      </c>
-      <c r="M34">
-        <v>0.3286</v>
-      </c>
-      <c r="N34">
-        <v>0.32840000000000003</v>
-      </c>
-      <c r="O34">
-        <v>0.32819999999999999</v>
-      </c>
-      <c r="P34">
-        <v>0.32829999999999998</v>
-      </c>
-      <c r="Q34">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="R34">
-        <v>0.3286</v>
-      </c>
-      <c r="S34">
-        <v>0.32879999999999998</v>
-      </c>
-      <c r="T34">
-        <v>0.32890000000000003</v>
-      </c>
-      <c r="U34">
-        <v>0.32879999999999998</v>
-      </c>
-      <c r="V34">
-        <v>0.32829999999999998</v>
-      </c>
-      <c r="W34">
-        <v>0.32890000000000003</v>
-      </c>
-      <c r="X34">
-        <v>0.32890000000000003</v>
-      </c>
-      <c r="Y34">
-        <v>0.32879999999999998</v>
-      </c>
-      <c r="Z34">
-        <v>0.32879999999999998</v>
-      </c>
-      <c r="AA34">
-        <v>0.32879999999999998</v>
-      </c>
-      <c r="AB34">
-        <v>0.32879999999999998</v>
-      </c>
-      <c r="AC34">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="AD34">
-        <v>0.32890000000000003</v>
-      </c>
-      <c r="AE34">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="AF34">
-        <v>0.1</v>
-      </c>
-      <c r="AG34">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35">
-        <v>0.35320000000000001</v>
-      </c>
-      <c r="C35">
-        <v>0.35310000000000002</v>
-      </c>
-      <c r="D35">
-        <v>0.35349999999999998</v>
-      </c>
-      <c r="E35">
-        <v>0.35360000000000003</v>
-      </c>
-      <c r="F35">
-        <v>0.35349999999999998</v>
-      </c>
-      <c r="G35">
-        <v>0.35310000000000002</v>
-      </c>
-      <c r="H35">
-        <v>0.35349999999999998</v>
-      </c>
-      <c r="I35">
-        <v>0.3533</v>
-      </c>
-      <c r="J35">
-        <v>0.35349999999999998</v>
-      </c>
-      <c r="K35">
-        <v>0.35349999999999998</v>
-      </c>
-      <c r="L35">
-        <v>0.3538</v>
-      </c>
-      <c r="M35">
-        <v>0.3538</v>
-      </c>
-      <c r="N35">
-        <v>0.35339999999999999</v>
-      </c>
-      <c r="O35">
-        <v>0.35320000000000001</v>
-      </c>
-      <c r="P35">
-        <v>0.35339999999999999</v>
-      </c>
-      <c r="Q35">
-        <v>0.35420000000000001</v>
-      </c>
-      <c r="R35">
-        <v>0.3538</v>
-      </c>
-      <c r="S35">
-        <v>0.35389999999999999</v>
-      </c>
-      <c r="T35">
-        <v>0.35410000000000003</v>
-      </c>
-      <c r="U35">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="V35">
-        <v>0.35349999999999998</v>
-      </c>
-      <c r="W35">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="X35">
-        <v>0.35410000000000003</v>
-      </c>
-      <c r="Y35">
-        <v>0.3538</v>
-      </c>
-      <c r="Z35">
-        <v>0.35389999999999999</v>
-      </c>
-      <c r="AA35">
-        <v>0.35389999999999999</v>
-      </c>
-      <c r="AB35">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="AC35">
-        <v>0.35389999999999999</v>
-      </c>
-      <c r="AD35">
-        <v>0.3538</v>
-      </c>
-      <c r="AE35">
-        <v>0.35389999999999999</v>
-      </c>
-      <c r="AF35">
-        <v>0.1</v>
-      </c>
-      <c r="AG35">
         <v>0.4</v>
       </c>
     </row>

--- a/a2_RyR_Analyser/a1_input/Target.xlsx
+++ b/a2_RyR_Analyser/a1_input/Target.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciano.galan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciano.galan\Desktop\Code\Python_Eiit_RyR\a2_RyR_Analyser\a1_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87B6020-EEA2-4E65-8939-A2EE785F51CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891101FB-34CD-4FDD-981A-1A5D18C35D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,86 +35,92 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>Guia_Luz_Blanco_FB1_X</t>
+    <t>Fiber 1</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB1_Y</t>
+    <t>Fiber 2</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB2_X</t>
+    <t>Fiber 3</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB2_Y</t>
+    <t>Fiber 4</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB3_X</t>
+    <t>Fiber 5</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB3_Y</t>
+    <t>Fiber 6</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB4_X</t>
+    <t>Fiber 7</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB4_Y</t>
+    <t>Fiber 8</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB5_X</t>
+    <t>Fiber 9</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB5_Y</t>
+    <t>Fiber 10</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB6_X</t>
+    <t>Fiber 11</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB6_Y</t>
+    <t>Fiber 12</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB7_X</t>
+    <t>Fiber 13</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB7_Y</t>
+    <t>Fiber 14</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB8_X</t>
+    <t>Fiber 15</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB8_Y</t>
+    <t>Fiber 16</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB9_X</t>
+    <t>Fiber 17</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB9_Y</t>
+    <t>Fiber 18</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB10_X</t>
+    <t>Fiber 19</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB10_Y</t>
+    <t>Fiber 20</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB11_X</t>
+    <t>Fiber 21</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB11_Y</t>
+    <t>Fiber 22</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB12_X</t>
+    <t>Fiber 23</t>
   </si>
   <si>
-    <t>Guia_Luz_Blanco_FB12_Y</t>
+    <t>Fiber 24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -446,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:AG27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,7 +1061,7 @@
         <v>0.37019999999999997</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AG9">
         <v>0.4</v>
@@ -2880,6 +2886,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/a2_RyR_Analyser/a1_input/Target.xlsx
+++ b/a2_RyR_Analyser/a1_input/Target.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciano.galan\Desktop\Code\Python_Eiit_RyR\a2_RyR_Analyser\a1_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucio\Desktop\Code\Python_Eiit_RyR\a2_RyR_Analyser\a1_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891101FB-34CD-4FDD-981A-1A5D18C35D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303D28FB-18C8-4D93-8B61-A5EFEE6D23F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AG27"/>
+  <dimension ref="A4:AF27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL19" sqref="AL19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,2383 +461,2314 @@
     <col min="1" max="1" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.3241</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="C4">
-        <v>0.32419999999999999</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="D4">
-        <v>0.3236</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="E4">
-        <v>0.32340000000000002</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="F4">
-        <v>0.3246</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="G4">
-        <v>0.3246</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="H4">
-        <v>0.32419999999999999</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="I4">
-        <v>0.32429999999999998</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="J4">
-        <v>0.32400000000000001</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="K4">
-        <v>0.32450000000000001</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="L4">
-        <v>0.3236</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="M4">
-        <v>0.3246</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="N4">
-        <v>0.3236</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="O4">
-        <v>0.32400000000000001</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="P4">
-        <v>0.32419999999999999</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="Q4">
-        <v>0.32379999999999998</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="R4">
-        <v>0.32450000000000001</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="S4">
-        <v>0.32379999999999998</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="T4">
-        <v>0.32440000000000002</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="U4">
-        <v>0.32300000000000001</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="V4">
-        <v>0.3241</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="W4">
-        <v>0.32379999999999998</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="X4">
-        <v>0.3241</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="Y4">
-        <v>0.32429999999999998</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="Z4">
-        <v>0.32400000000000001</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.32379999999999998</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.32400000000000001</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="AC4">
-        <v>0.32350000000000001</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="AD4">
-        <v>0.3236</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="AE4">
-        <v>0.32379999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="AF4">
-        <v>0.1</v>
-      </c>
-      <c r="AG4">
-        <v>0.4</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.35320000000000001</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="C5">
-        <v>0.35320000000000001</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="D5">
-        <v>0.35270000000000001</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="E5">
-        <v>0.35260000000000002</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="F5">
-        <v>0.35360000000000003</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="G5">
-        <v>0.35360000000000003</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="H5">
-        <v>0.35339999999999999</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="I5">
-        <v>0.35349999999999998</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="J5">
-        <v>0.35310000000000002</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="K5">
-        <v>0.3533</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="L5">
-        <v>0.35270000000000001</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="M5">
-        <v>0.35349999999999998</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="N5">
-        <v>0.35260000000000002</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="O5">
-        <v>0.35310000000000002</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="P5">
-        <v>0.3533</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="Q5">
-        <v>0.35289999999999999</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="R5">
-        <v>0.3533</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="S5">
-        <v>0.35289999999999999</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="T5">
-        <v>0.3533</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="U5">
-        <v>0.3523</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="V5">
-        <v>0.35310000000000002</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="W5">
-        <v>0.35270000000000001</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="X5">
-        <v>0.3533</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="Y5">
-        <v>0.35320000000000001</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="Z5">
-        <v>0.35310000000000002</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="AA5">
-        <v>0.35299999999999998</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="AB5">
-        <v>0.35289999999999999</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="AC5">
-        <v>0.35260000000000002</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="AD5">
-        <v>0.35260000000000002</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="AE5">
-        <v>0.35289999999999999</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AF5">
-        <v>0.1</v>
-      </c>
-      <c r="AG5">
-        <v>0.4</v>
+        <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.33639999999999998</v>
+        <v>0.33679999999999999</v>
       </c>
       <c r="C6">
-        <v>0.3362</v>
+        <v>0.3402</v>
       </c>
       <c r="D6">
+        <v>0.33829999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="F6">
         <v>0.33589999999999998</v>
       </c>
-      <c r="E6">
-        <v>0.33579999999999999</v>
-      </c>
-      <c r="F6">
-        <v>0.33639999999999998</v>
-      </c>
       <c r="G6">
-        <v>0.33639999999999998</v>
+        <v>0.3372</v>
       </c>
       <c r="H6">
-        <v>0.3362</v>
+        <v>0.33829999999999999</v>
       </c>
       <c r="I6">
-        <v>0.33629999999999999</v>
+        <v>0.33560000000000001</v>
       </c>
       <c r="J6">
-        <v>0.33629999999999999</v>
+        <v>0.33789999999999998</v>
       </c>
       <c r="K6">
-        <v>0.3362</v>
+        <v>0.34060000000000001</v>
       </c>
       <c r="L6">
-        <v>0.33610000000000001</v>
+        <v>0.32840000000000003</v>
       </c>
       <c r="M6">
-        <v>0.33639999999999998</v>
+        <v>0.33439999999999998</v>
       </c>
       <c r="N6">
-        <v>0.3357</v>
+        <v>0.3387</v>
       </c>
       <c r="O6">
-        <v>0.3362</v>
+        <v>0.33289999999999997</v>
       </c>
       <c r="P6">
-        <v>0.33629999999999999</v>
+        <v>0.3352</v>
       </c>
       <c r="Q6">
-        <v>0.33600000000000002</v>
+        <v>0.34129999999999999</v>
       </c>
       <c r="R6">
-        <v>0.33629999999999999</v>
+        <v>0.3422</v>
       </c>
       <c r="S6">
-        <v>0.33589999999999998</v>
+        <v>0.32879999999999998</v>
       </c>
       <c r="T6">
-        <v>0.33629999999999999</v>
+        <v>0.33560000000000001</v>
       </c>
       <c r="U6">
-        <v>0.33560000000000001</v>
+        <v>0.33090000000000003</v>
       </c>
       <c r="V6">
-        <v>0.3362</v>
+        <v>0.33040000000000003</v>
       </c>
       <c r="W6">
-        <v>0.33579999999999999</v>
+        <v>0.3387</v>
       </c>
       <c r="X6">
-        <v>0.33639999999999998</v>
+        <v>0.33939999999999998</v>
       </c>
       <c r="Y6">
-        <v>0.33610000000000001</v>
+        <v>0.33090000000000003</v>
       </c>
       <c r="Z6">
-        <v>0.3362</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="AA6">
-        <v>0.33629999999999999</v>
+        <v>0.34060000000000001</v>
       </c>
       <c r="AB6">
-        <v>0.3357</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="AC6">
-        <v>0.33579999999999999</v>
+        <v>0.33679999999999999</v>
       </c>
       <c r="AD6">
-        <v>0.33579999999999999</v>
+        <v>0.3402</v>
       </c>
       <c r="AE6">
-        <v>0.3362</v>
+        <v>0.31</v>
       </c>
       <c r="AF6">
-        <v>0.1</v>
-      </c>
-      <c r="AG6">
-        <v>0.4</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
+        <v>0.3614</v>
+      </c>
+      <c r="C7">
+        <v>0.36309999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.36220000000000002</v>
+      </c>
+      <c r="E7">
+        <v>0.35930000000000001</v>
+      </c>
+      <c r="F7">
         <v>0.36099999999999999</v>
       </c>
-      <c r="C7">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="D7">
+      <c r="G7">
+        <v>0.36159999999999998</v>
+      </c>
+      <c r="H7">
+        <v>0.36220000000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.3609</v>
+      </c>
+      <c r="J7">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.36330000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="M7">
+        <v>0.36020000000000002</v>
+      </c>
+      <c r="N7">
+        <v>0.3624</v>
+      </c>
+      <c r="O7">
+        <v>0.35949999999999999</v>
+      </c>
+      <c r="P7">
         <v>0.36059999999999998</v>
       </c>
-      <c r="E7">
-        <v>0.36059999999999998</v>
-      </c>
-      <c r="F7">
-        <v>0.36109999999999998</v>
-      </c>
-      <c r="G7">
-        <v>0.36109999999999998</v>
-      </c>
-      <c r="H7">
+      <c r="Q7">
+        <v>0.36370000000000002</v>
+      </c>
+      <c r="R7">
+        <v>0.36420000000000002</v>
+      </c>
+      <c r="S7">
+        <v>0.3574</v>
+      </c>
+      <c r="T7">
         <v>0.3609</v>
       </c>
-      <c r="I7">
-        <v>0.36109999999999998</v>
-      </c>
-      <c r="J7">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="K7">
-        <v>0.3609</v>
-      </c>
-      <c r="L7">
-        <v>0.36070000000000002</v>
-      </c>
-      <c r="M7">
-        <v>0.36109999999999998</v>
-      </c>
-      <c r="N7">
-        <v>0.3604</v>
-      </c>
-      <c r="O7">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="P7">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="Q7">
-        <v>0.36070000000000002</v>
-      </c>
-      <c r="R7">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="S7">
-        <v>0.36070000000000002</v>
-      </c>
-      <c r="T7">
-        <v>0.36099999999999999</v>
-      </c>
       <c r="U7">
-        <v>0.3604</v>
+        <v>0.35849999999999999</v>
       </c>
       <c r="V7">
-        <v>0.3609</v>
+        <v>0.35820000000000002</v>
       </c>
       <c r="W7">
-        <v>0.36049999999999999</v>
+        <v>0.3624</v>
       </c>
       <c r="X7">
-        <v>0.36109999999999998</v>
+        <v>0.36270000000000002</v>
       </c>
       <c r="Y7">
-        <v>0.36080000000000001</v>
+        <v>0.35849999999999999</v>
       </c>
       <c r="Z7">
-        <v>0.3609</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.36099999999999999</v>
+        <v>0.36330000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.36049999999999999</v>
+        <v>0.36180000000000001</v>
       </c>
       <c r="AC7">
-        <v>0.36049999999999999</v>
+        <v>0.3614</v>
       </c>
       <c r="AD7">
-        <v>0.36049999999999999</v>
+        <v>0.36309999999999998</v>
       </c>
       <c r="AE7">
-        <v>0.3609</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AF7">
-        <v>0.1</v>
-      </c>
-      <c r="AG7">
-        <v>0.4</v>
+        <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0.3453</v>
+        <v>0.34649999999999997</v>
       </c>
       <c r="C8">
-        <v>0.3458</v>
+        <v>0.34639999999999999</v>
       </c>
       <c r="D8">
-        <v>0.3453</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="E8">
-        <v>0.34539999999999998</v>
+        <v>0.34689999999999999</v>
       </c>
       <c r="F8">
-        <v>0.34560000000000002</v>
+        <v>0.34689999999999999</v>
       </c>
       <c r="G8">
-        <v>0.34570000000000001</v>
+        <v>0.3468</v>
       </c>
       <c r="H8">
-        <v>0.34570000000000001</v>
+        <v>0.34670000000000001</v>
       </c>
       <c r="I8">
-        <v>0.34570000000000001</v>
+        <v>0.3468</v>
       </c>
       <c r="J8">
-        <v>0.34560000000000002</v>
+        <v>0.34649999999999997</v>
       </c>
       <c r="K8">
-        <v>0.34539999999999998</v>
+        <v>0.34649999999999997</v>
       </c>
       <c r="L8">
-        <v>0.3453</v>
+        <v>0.34820000000000001</v>
       </c>
       <c r="M8">
-        <v>0.34549999999999997</v>
+        <v>0.3473</v>
       </c>
       <c r="N8">
-        <v>0.34560000000000002</v>
+        <v>0.3468</v>
       </c>
       <c r="O8">
-        <v>0.34549999999999997</v>
+        <v>0.34720000000000001</v>
       </c>
       <c r="P8">
-        <v>0.34539999999999998</v>
+        <v>0.34720000000000001</v>
       </c>
       <c r="Q8">
-        <v>0.34520000000000001</v>
+        <v>0.34639999999999999</v>
       </c>
       <c r="R8">
-        <v>0.34539999999999998</v>
+        <v>0.34639999999999999</v>
       </c>
       <c r="S8">
-        <v>0.34510000000000002</v>
+        <v>0.3488</v>
       </c>
       <c r="T8">
-        <v>0.34539999999999998</v>
+        <v>0.3473</v>
       </c>
       <c r="U8">
-        <v>0.34510000000000002</v>
+        <v>0.34820000000000001</v>
       </c>
       <c r="V8">
-        <v>0.34510000000000002</v>
+        <v>0.34839999999999999</v>
       </c>
       <c r="W8">
-        <v>0.34510000000000002</v>
+        <v>0.34670000000000001</v>
       </c>
       <c r="X8">
-        <v>0.34539999999999998</v>
+        <v>0.34649999999999997</v>
       </c>
       <c r="Y8">
-        <v>0.3453</v>
+        <v>0.34839999999999999</v>
       </c>
       <c r="Z8">
-        <v>0.34549999999999997</v>
+        <v>0.3468</v>
       </c>
       <c r="AA8">
-        <v>0.3453</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="AB8">
-        <v>0.34489999999999998</v>
+        <v>0.34720000000000001</v>
       </c>
       <c r="AC8">
-        <v>0.34549999999999997</v>
+        <v>0.34720000000000001</v>
       </c>
       <c r="AD8">
-        <v>0.34560000000000002</v>
+        <v>0.3468</v>
       </c>
       <c r="AE8">
-        <v>0.34510000000000002</v>
+        <v>0.31</v>
       </c>
       <c r="AF8">
-        <v>0.1</v>
-      </c>
-      <c r="AG8">
-        <v>0.4</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.37040000000000001</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="C9">
+        <v>0.37080000000000002</v>
+      </c>
+      <c r="D9">
         <v>0.37069999999999997</v>
       </c>
-      <c r="D9">
-        <v>0.37030000000000002</v>
-      </c>
       <c r="E9">
-        <v>0.37040000000000001</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="F9">
-        <v>0.37059999999999998</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="G9">
-        <v>0.37059999999999998</v>
+        <v>0.37069999999999997</v>
       </c>
       <c r="H9">
-        <v>0.37059999999999998</v>
+        <v>0.37069999999999997</v>
       </c>
       <c r="I9">
         <v>0.37069999999999997</v>
       </c>
       <c r="J9">
-        <v>0.3705</v>
+        <v>0.37069999999999997</v>
       </c>
       <c r="K9">
-        <v>0.37040000000000001</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="L9">
-        <v>0.37019999999999997</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="M9">
-        <v>0.3705</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="N9">
-        <v>0.37040000000000001</v>
+        <v>0.37069999999999997</v>
       </c>
       <c r="O9">
-        <v>0.3705</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="P9">
-        <v>0.37040000000000001</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="Q9">
-        <v>0.37009999999999998</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="R9">
-        <v>0.37040000000000001</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="S9">
-        <v>0.37009999999999998</v>
+        <v>0.37090000000000001</v>
       </c>
       <c r="T9">
-        <v>0.37040000000000001</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="U9">
-        <v>0.37009999999999998</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="V9">
-        <v>0.37019999999999997</v>
+        <v>0.37090000000000001</v>
       </c>
       <c r="W9">
-        <v>0.37009999999999998</v>
+        <v>0.37069999999999997</v>
       </c>
       <c r="X9">
-        <v>0.3705</v>
+        <v>0.37069999999999997</v>
       </c>
       <c r="Y9">
-        <v>0.37030000000000002</v>
+        <v>0.37090000000000001</v>
       </c>
       <c r="Z9">
-        <v>0.37040000000000001</v>
+        <v>0.37069999999999997</v>
       </c>
       <c r="AA9">
-        <v>0.37040000000000001</v>
+        <v>0.37069999999999997</v>
       </c>
       <c r="AB9">
-        <v>0.37009999999999998</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="AC9">
-        <v>0.37030000000000002</v>
+        <v>0.37069999999999997</v>
       </c>
       <c r="AD9">
-        <v>0.37040000000000001</v>
+        <v>0.37069999999999997</v>
       </c>
       <c r="AE9">
-        <v>0.37019999999999997</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AF9">
-        <v>0.1</v>
-      </c>
-      <c r="AG9">
-        <v>0.4</v>
+        <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.32200000000000001</v>
+        <v>0.32450000000000001</v>
       </c>
       <c r="C10">
-        <v>0.32190000000000002</v>
+        <v>0.32450000000000001</v>
       </c>
       <c r="D10">
-        <v>0.32179999999999997</v>
+        <v>0.3246</v>
       </c>
       <c r="E10">
-        <v>0.3216</v>
+        <v>0.32479999999999998</v>
       </c>
       <c r="F10">
-        <v>0.3216</v>
+        <v>0.32479999999999998</v>
       </c>
       <c r="G10">
-        <v>0.3216</v>
+        <v>0.32479999999999998</v>
       </c>
       <c r="H10">
-        <v>0.32169999999999999</v>
+        <v>0.3246</v>
       </c>
       <c r="I10">
-        <v>0.32140000000000002</v>
+        <v>0.32479999999999998</v>
       </c>
       <c r="J10">
-        <v>0.32140000000000002</v>
+        <v>0.32469999999999999</v>
       </c>
       <c r="K10">
-        <v>0.32129999999999997</v>
+        <v>0.3246</v>
       </c>
       <c r="L10">
-        <v>0.32140000000000002</v>
+        <v>0.32529999999999998</v>
       </c>
       <c r="M10">
-        <v>0.32129999999999997</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="N10">
-        <v>0.32119999999999999</v>
+        <v>0.32469999999999999</v>
       </c>
       <c r="O10">
-        <v>0.3211</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="P10">
-        <v>0.32129999999999997</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="Q10">
-        <v>0.3211</v>
+        <v>0.3246</v>
       </c>
       <c r="R10">
-        <v>0.32119999999999999</v>
+        <v>0.3246</v>
       </c>
       <c r="S10">
-        <v>0.3211</v>
+        <v>0.3256</v>
       </c>
       <c r="T10">
-        <v>0.3211</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="U10">
-        <v>0.32079999999999997</v>
+        <v>0.32529999999999998</v>
       </c>
       <c r="V10">
-        <v>0.32090000000000002</v>
+        <v>0.32540000000000002</v>
       </c>
       <c r="W10">
-        <v>0.32100000000000001</v>
+        <v>0.32469999999999999</v>
       </c>
       <c r="X10">
-        <v>0.3216</v>
+        <v>0.3246</v>
       </c>
       <c r="Y10">
-        <v>0.32140000000000002</v>
+        <v>0.32529999999999998</v>
       </c>
       <c r="Z10">
-        <v>0.32140000000000002</v>
+        <v>0.32479999999999998</v>
       </c>
       <c r="AA10">
-        <v>0.32119999999999999</v>
+        <v>0.32469999999999999</v>
       </c>
       <c r="AB10">
-        <v>0.3211</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.32100000000000001</v>
+        <v>0.32490000000000002</v>
       </c>
       <c r="AD10">
-        <v>0.32090000000000002</v>
+        <v>0.32479999999999998</v>
       </c>
       <c r="AE10">
-        <v>0.32090000000000002</v>
+        <v>0.31</v>
       </c>
       <c r="AF10">
-        <v>0.1</v>
-      </c>
-      <c r="AG10">
-        <v>0.4</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0.35010000000000002</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="C11">
-        <v>0.35</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="D11">
-        <v>0.3498</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="E11">
-        <v>0.3498</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="F11">
-        <v>0.34970000000000001</v>
+        <v>0.3518</v>
       </c>
       <c r="G11">
-        <v>0.34970000000000001</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="H11">
-        <v>0.34970000000000001</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="I11">
-        <v>0.34960000000000002</v>
+        <v>0.3518</v>
       </c>
       <c r="J11">
-        <v>0.34949999999999998</v>
+        <v>0.3518</v>
       </c>
       <c r="K11">
-        <v>0.34939999999999999</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="L11">
-        <v>0.34939999999999999</v>
+        <v>0.3518</v>
       </c>
       <c r="M11">
-        <v>0.34939999999999999</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="N11">
-        <v>0.3493</v>
+        <v>0.3518</v>
       </c>
       <c r="O11">
-        <v>0.34920000000000001</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="P11">
-        <v>0.3493</v>
+        <v>0.3518</v>
       </c>
       <c r="Q11">
-        <v>0.34920000000000001</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="R11">
-        <v>0.34920000000000001</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="S11">
-        <v>0.34920000000000001</v>
+        <v>0.35170000000000001</v>
       </c>
       <c r="T11">
-        <v>0.34920000000000001</v>
+        <v>0.3518</v>
       </c>
       <c r="U11">
-        <v>0.34899999999999998</v>
+        <v>0.35170000000000001</v>
       </c>
       <c r="V11">
-        <v>0.34910000000000002</v>
+        <v>0.35170000000000001</v>
       </c>
       <c r="W11">
-        <v>0.34910000000000002</v>
+        <v>0.3518</v>
       </c>
       <c r="X11">
-        <v>0.34970000000000001</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="Y11">
-        <v>0.34939999999999999</v>
+        <v>0.3518</v>
       </c>
       <c r="Z11">
-        <v>0.34939999999999999</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="AA11">
-        <v>0.3493</v>
+        <v>0.3518</v>
       </c>
       <c r="AB11">
-        <v>0.34920000000000001</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="AC11">
-        <v>0.34910000000000002</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="AD11">
-        <v>0.34910000000000002</v>
+        <v>0.3518</v>
       </c>
       <c r="AE11">
-        <v>0.34899999999999998</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AF11">
-        <v>0.1</v>
-      </c>
-      <c r="AG11">
-        <v>0.4</v>
+        <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>0.33460000000000001</v>
+        <v>0.33450000000000002</v>
       </c>
       <c r="C12">
-        <v>0.3347</v>
+        <v>0.33389999999999997</v>
       </c>
       <c r="D12">
-        <v>0.3347</v>
+        <v>0.3342</v>
       </c>
       <c r="E12">
-        <v>0.33460000000000001</v>
+        <v>0.33479999999999999</v>
       </c>
       <c r="F12">
-        <v>0.33479999999999999</v>
+        <v>0.3342</v>
       </c>
       <c r="G12">
         <v>0.33450000000000002</v>
       </c>
       <c r="H12">
-        <v>0.3347</v>
+        <v>0.33389999999999997</v>
       </c>
       <c r="I12">
         <v>0.3342</v>
       </c>
       <c r="J12">
+        <v>0.3337</v>
+      </c>
+      <c r="K12">
+        <v>0.33379999999999999</v>
+      </c>
+      <c r="L12">
+        <v>0.33610000000000001</v>
+      </c>
+      <c r="M12">
+        <v>0.33460000000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.33460000000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.33479999999999999</v>
+      </c>
+      <c r="P12">
         <v>0.3342</v>
       </c>
-      <c r="K12">
-        <v>0.33429999999999999</v>
-      </c>
-      <c r="L12">
+      <c r="Q12">
+        <v>0.33360000000000001</v>
+      </c>
+      <c r="R12">
+        <v>0.33360000000000001</v>
+      </c>
+      <c r="S12">
+        <v>0.33589999999999998</v>
+      </c>
+      <c r="T12">
+        <v>0.33479999999999999</v>
+      </c>
+      <c r="U12">
+        <v>0.33560000000000001</v>
+      </c>
+      <c r="V12">
+        <v>0.33550000000000002</v>
+      </c>
+      <c r="W12">
+        <v>0.3337</v>
+      </c>
+      <c r="X12">
+        <v>0.33360000000000001</v>
+      </c>
+      <c r="Y12">
+        <v>0.33560000000000001</v>
+      </c>
+      <c r="Z12">
+        <v>0.3337</v>
+      </c>
+      <c r="AA12">
+        <v>0.3337</v>
+      </c>
+      <c r="AB12">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="AC12">
         <v>0.3342</v>
       </c>
-      <c r="M12">
+      <c r="AD12">
         <v>0.3342</v>
       </c>
-      <c r="N12">
-        <v>0.33429999999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.33460000000000001</v>
-      </c>
-      <c r="P12">
-        <v>0.33460000000000001</v>
-      </c>
-      <c r="Q12">
-        <v>0.33460000000000001</v>
-      </c>
-      <c r="R12">
-        <v>0.33439999999999998</v>
-      </c>
-      <c r="S12">
-        <v>0.33450000000000002</v>
-      </c>
-      <c r="T12">
-        <v>0.3342</v>
-      </c>
-      <c r="U12">
-        <v>0.33429999999999999</v>
-      </c>
-      <c r="V12">
-        <v>0.33439999999999998</v>
-      </c>
-      <c r="W12">
-        <v>0.33410000000000001</v>
-      </c>
-      <c r="X12">
-        <v>0.33429999999999999</v>
-      </c>
-      <c r="Y12">
-        <v>0.3347</v>
-      </c>
-      <c r="Z12">
-        <v>0.33439999999999998</v>
-      </c>
-      <c r="AA12">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="AB12">
-        <v>0.3342</v>
-      </c>
-      <c r="AC12">
-        <v>0.33429999999999999</v>
-      </c>
-      <c r="AD12">
-        <v>0.33410000000000001</v>
-      </c>
       <c r="AE12">
-        <v>0.33429999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="AF12">
-        <v>0.1</v>
-      </c>
-      <c r="AG12">
-        <v>0.4</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>0.36049999999999999</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="C13">
-        <v>0.36049999999999999</v>
+        <v>0.35809999999999997</v>
       </c>
       <c r="D13">
-        <v>0.36049999999999999</v>
+        <v>0.35849999999999999</v>
       </c>
       <c r="E13">
+        <v>0.35909999999999997</v>
+      </c>
+      <c r="F13">
+        <v>0.3584</v>
+      </c>
+      <c r="G13">
+        <v>0.35870000000000002</v>
+      </c>
+      <c r="H13">
+        <v>0.35809999999999997</v>
+      </c>
+      <c r="I13">
+        <v>0.35849999999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.35780000000000001</v>
+      </c>
+      <c r="K13">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="L13">
+        <v>0.36059999999999998</v>
+      </c>
+      <c r="M13">
+        <v>0.3589</v>
+      </c>
+      <c r="N13">
+        <v>0.3589</v>
+      </c>
+      <c r="O13">
+        <v>0.35909999999999997</v>
+      </c>
+      <c r="P13">
+        <v>0.3584</v>
+      </c>
+      <c r="Q13">
+        <v>0.35770000000000002</v>
+      </c>
+      <c r="R13">
+        <v>0.35770000000000002</v>
+      </c>
+      <c r="S13">
         <v>0.3604</v>
       </c>
-      <c r="F13">
-        <v>0.36059999999999998</v>
-      </c>
-      <c r="G13">
-        <v>0.36030000000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.36049999999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.36009999999999998</v>
-      </c>
-      <c r="J13">
-        <v>0.36009999999999998</v>
-      </c>
-      <c r="K13">
-        <v>0.36009999999999998</v>
-      </c>
-      <c r="L13">
+      <c r="T13">
+        <v>0.35909999999999997</v>
+      </c>
+      <c r="U13">
         <v>0.36</v>
       </c>
-      <c r="M13">
-        <v>0.36009999999999998</v>
-      </c>
-      <c r="N13">
-        <v>0.36009999999999998</v>
-      </c>
-      <c r="O13">
-        <v>0.36030000000000001</v>
-      </c>
-      <c r="P13">
-        <v>0.36030000000000001</v>
-      </c>
-      <c r="Q13">
-        <v>0.36030000000000001</v>
-      </c>
-      <c r="R13">
-        <v>0.36009999999999998</v>
-      </c>
-      <c r="S13">
-        <v>0.36020000000000002</v>
-      </c>
-      <c r="T13">
+      <c r="V13">
+        <v>0.3599</v>
+      </c>
+      <c r="W13">
+        <v>0.35780000000000001</v>
+      </c>
+      <c r="X13">
+        <v>0.35770000000000002</v>
+      </c>
+      <c r="Y13">
         <v>0.36</v>
       </c>
-      <c r="U13">
-        <v>0.36009999999999998</v>
-      </c>
-      <c r="V13">
-        <v>0.36009999999999998</v>
-      </c>
-      <c r="W13">
-        <v>0.3599</v>
-      </c>
-      <c r="X13">
-        <v>0.36020000000000002</v>
-      </c>
-      <c r="Y13">
-        <v>0.3604</v>
-      </c>
       <c r="Z13">
-        <v>0.36020000000000002</v>
+        <v>0.35780000000000001</v>
       </c>
       <c r="AA13">
-        <v>0.3599</v>
+        <v>0.35780000000000001</v>
       </c>
       <c r="AB13">
-        <v>0.36</v>
+        <v>0.35859999999999997</v>
       </c>
       <c r="AC13">
-        <v>0.36009999999999998</v>
+        <v>0.35849999999999999</v>
       </c>
       <c r="AD13">
-        <v>0.3599</v>
+        <v>0.3584</v>
       </c>
       <c r="AE13">
-        <v>0.36</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AF13">
-        <v>0.1</v>
-      </c>
-      <c r="AG13">
-        <v>0.4</v>
+        <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>0.3417</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="C14">
-        <v>0.3417</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="D14">
-        <v>0.34110000000000001</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="E14">
-        <v>0.34150000000000003</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="F14">
-        <v>0.34150000000000003</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="G14">
-        <v>0.34150000000000003</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="H14">
-        <v>0.34129999999999999</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="I14">
-        <v>0.34139999999999998</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="J14">
-        <v>0.34150000000000003</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="K14">
-        <v>0.34089999999999998</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="L14">
-        <v>0.3412</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="M14">
-        <v>0.3407</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="N14">
-        <v>0.34100000000000003</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="O14">
-        <v>0.34079999999999999</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="P14">
-        <v>0.34089999999999998</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="Q14">
-        <v>0.34079999999999999</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="R14">
-        <v>0.3407</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="S14">
-        <v>0.34100000000000003</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="T14">
-        <v>0.3407</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="U14">
-        <v>0.34089999999999998</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="V14">
-        <v>0.34089999999999998</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="W14">
-        <v>0.34100000000000003</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="X14">
-        <v>0.34110000000000001</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="Y14">
-        <v>0.3407</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="Z14">
-        <v>0.34089999999999998</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="AA14">
-        <v>0.34110000000000001</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="AB14">
-        <v>0.34100000000000003</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="AC14">
-        <v>0.34089999999999998</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="AD14">
-        <v>0.34110000000000001</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="AE14">
-        <v>0.34050000000000002</v>
+        <v>0.31</v>
       </c>
       <c r="AF14">
-        <v>0.1</v>
-      </c>
-      <c r="AG14">
-        <v>0.4</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>0.36830000000000002</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="C15">
-        <v>0.36830000000000002</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="D15">
-        <v>0.36780000000000002</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="E15">
-        <v>0.36820000000000003</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="F15">
-        <v>0.36799999999999999</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="G15">
-        <v>0.36799999999999999</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="H15">
-        <v>0.3679</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="I15">
-        <v>0.36809999999999998</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="J15">
-        <v>0.36809999999999998</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="K15">
-        <v>0.36770000000000003</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="L15">
-        <v>0.36799999999999999</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="M15">
-        <v>0.36759999999999998</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="N15">
-        <v>0.36780000000000002</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="O15">
-        <v>0.36759999999999998</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="P15">
-        <v>0.36759999999999998</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="Q15">
-        <v>0.36759999999999998</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="R15">
-        <v>0.36770000000000003</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="S15">
-        <v>0.36780000000000002</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="T15">
-        <v>0.36770000000000003</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="U15">
-        <v>0.36759999999999998</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="V15">
-        <v>0.36749999999999999</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="W15">
-        <v>0.36770000000000003</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="X15">
-        <v>0.3679</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="Y15">
-        <v>0.36749999999999999</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="Z15">
-        <v>0.36770000000000003</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="AA15">
-        <v>0.3679</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="AB15">
-        <v>0.36759999999999998</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="AC15">
-        <v>0.36759999999999998</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="AD15">
-        <v>0.36759999999999998</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="AE15">
-        <v>0.3674</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AF15">
-        <v>0.1</v>
-      </c>
-      <c r="AG15">
-        <v>0.4</v>
+        <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>0.32869999999999999</v>
+        <v>0.32519999999999999</v>
       </c>
       <c r="C16">
-        <v>0.32900000000000001</v>
+        <v>0.32450000000000001</v>
       </c>
       <c r="D16">
-        <v>0.32879999999999998</v>
+        <v>0.32469999999999999</v>
       </c>
       <c r="E16">
-        <v>0.3291</v>
+        <v>0.32590000000000002</v>
       </c>
       <c r="F16">
-        <v>0.3291</v>
+        <v>0.32540000000000002</v>
       </c>
       <c r="G16">
-        <v>0.32900000000000001</v>
+        <v>0.32529999999999998</v>
       </c>
       <c r="H16">
-        <v>0.3291</v>
+        <v>0.3251</v>
       </c>
       <c r="I16">
-        <v>0.3291</v>
+        <v>0.32519999999999999</v>
       </c>
       <c r="J16">
-        <v>0.32890000000000003</v>
+        <v>0.3246</v>
       </c>
       <c r="K16">
-        <v>0.32900000000000001</v>
+        <v>0.32450000000000001</v>
       </c>
       <c r="L16">
-        <v>0.32890000000000003</v>
+        <v>0.32640000000000002</v>
       </c>
       <c r="M16">
-        <v>0.32890000000000003</v>
+        <v>0.32529999999999998</v>
       </c>
       <c r="N16">
-        <v>0.3291</v>
+        <v>0.3251</v>
       </c>
       <c r="O16">
-        <v>0.32900000000000001</v>
+        <v>0.32519999999999999</v>
       </c>
       <c r="P16">
-        <v>0.32900000000000001</v>
+        <v>0.3251</v>
       </c>
       <c r="Q16">
-        <v>0.32890000000000003</v>
+        <v>0.32440000000000002</v>
       </c>
       <c r="R16">
-        <v>0.3291</v>
+        <v>0.32429999999999998</v>
       </c>
       <c r="S16">
-        <v>0.32900000000000001</v>
+        <v>0.32669999999999999</v>
       </c>
       <c r="T16">
-        <v>0.32879999999999998</v>
+        <v>0.3251</v>
       </c>
       <c r="U16">
-        <v>0.32819999999999999</v>
+        <v>0.32650000000000001</v>
       </c>
       <c r="V16">
-        <v>0.32900000000000001</v>
+        <v>0.3261</v>
       </c>
       <c r="W16">
-        <v>0.3291</v>
+        <v>0.32440000000000002</v>
       </c>
       <c r="X16">
-        <v>0.32700000000000001</v>
+        <v>0.32419999999999999</v>
       </c>
       <c r="Y16">
-        <v>0.32900000000000001</v>
+        <v>0.32590000000000002</v>
       </c>
       <c r="Z16">
-        <v>0.32900000000000001</v>
+        <v>0.32429999999999998</v>
       </c>
       <c r="AA16">
-        <v>0.32900000000000001</v>
+        <v>0.32440000000000002</v>
       </c>
       <c r="AB16">
-        <v>0.32890000000000003</v>
+        <v>0.32479999999999998</v>
       </c>
       <c r="AC16">
-        <v>0.32900000000000001</v>
+        <v>0.32469999999999999</v>
       </c>
       <c r="AD16">
-        <v>0.3291</v>
+        <v>0.32450000000000001</v>
       </c>
       <c r="AE16">
-        <v>0.32940000000000003</v>
+        <v>0.31</v>
       </c>
       <c r="AF16">
-        <v>0.1</v>
-      </c>
-      <c r="AG16">
-        <v>0.4</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17">
-        <v>0.35680000000000001</v>
+        <v>0.3543</v>
       </c>
       <c r="C17">
-        <v>0.35709999999999997</v>
+        <v>0.35349999999999998</v>
       </c>
       <c r="D17">
-        <v>0.3569</v>
+        <v>0.3538</v>
       </c>
       <c r="E17">
-        <v>0.35709999999999997</v>
+        <v>0.35520000000000002</v>
       </c>
       <c r="F17">
-        <v>0.35720000000000002</v>
+        <v>0.35449999999999998</v>
       </c>
       <c r="G17">
-        <v>0.35699999999999998</v>
+        <v>0.35439999999999999</v>
       </c>
       <c r="H17">
-        <v>0.35709999999999997</v>
+        <v>0.35420000000000001</v>
       </c>
       <c r="I17">
-        <v>0.35720000000000002</v>
+        <v>0.3543</v>
       </c>
       <c r="J17">
-        <v>0.35709999999999997</v>
+        <v>0.35360000000000003</v>
       </c>
       <c r="K17">
-        <v>0.35709999999999997</v>
+        <v>0.35349999999999998</v>
       </c>
       <c r="L17">
-        <v>0.3569</v>
+        <v>0.35580000000000001</v>
       </c>
       <c r="M17">
-        <v>0.35709999999999997</v>
+        <v>0.35439999999999999</v>
       </c>
       <c r="N17">
-        <v>0.35709999999999997</v>
+        <v>0.35410000000000003</v>
       </c>
       <c r="O17">
-        <v>0.35699999999999998</v>
+        <v>0.3543</v>
       </c>
       <c r="P17">
-        <v>0.35709999999999997</v>
+        <v>0.35410000000000003</v>
       </c>
       <c r="Q17">
-        <v>0.35699999999999998</v>
+        <v>0.35339999999999999</v>
       </c>
       <c r="R17">
-        <v>0.35709999999999997</v>
+        <v>0.3533</v>
       </c>
       <c r="S17">
-        <v>0.35699999999999998</v>
+        <v>0.35610000000000003</v>
       </c>
       <c r="T17">
-        <v>0.35680000000000001</v>
+        <v>0.35420000000000001</v>
       </c>
       <c r="U17">
-        <v>0.35630000000000001</v>
+        <v>0.35589999999999999</v>
       </c>
       <c r="V17">
-        <v>0.35699999999999998</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="W17">
-        <v>0.35709999999999997</v>
+        <v>0.35339999999999999</v>
       </c>
       <c r="X17">
-        <v>0.35510000000000003</v>
+        <v>0.35310000000000002</v>
       </c>
       <c r="Y17">
-        <v>0.35699999999999998</v>
+        <v>0.35520000000000002</v>
       </c>
       <c r="Z17">
-        <v>0.35699999999999998</v>
+        <v>0.3533</v>
       </c>
       <c r="AA17">
-        <v>0.35699999999999998</v>
+        <v>0.35339999999999999</v>
       </c>
       <c r="AB17">
-        <v>0.35699999999999998</v>
+        <v>0.35389999999999999</v>
       </c>
       <c r="AC17">
-        <v>0.35699999999999998</v>
+        <v>0.3538</v>
       </c>
       <c r="AD17">
-        <v>0.35709999999999997</v>
+        <v>0.35349999999999998</v>
       </c>
       <c r="AE17">
-        <v>0.35720000000000002</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AF17">
-        <v>0.1</v>
-      </c>
-      <c r="AG17">
-        <v>0.4</v>
+        <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18">
-        <v>0.33139999999999997</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="C18">
-        <v>0.33150000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="D18">
-        <v>0.33150000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="E18">
-        <v>0.33139999999999997</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="F18">
-        <v>0.33139999999999997</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="G18">
-        <v>0.33150000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="H18">
-        <v>0.33160000000000001</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="I18">
-        <v>0.33150000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="J18">
-        <v>0.33139999999999997</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="K18">
-        <v>0.33139999999999997</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="L18">
-        <v>0.33139999999999997</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="M18">
-        <v>0.33139999999999997</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="N18">
-        <v>0.33150000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="O18">
-        <v>0.33150000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="P18">
-        <v>0.33150000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="Q18">
-        <v>0.33150000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="R18">
-        <v>0.33150000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="S18">
-        <v>0.33139999999999997</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="T18">
-        <v>0.33139999999999997</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="U18">
-        <v>0.33110000000000001</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="V18">
-        <v>0.33139999999999997</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="W18">
-        <v>0.33150000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="X18">
-        <v>0.33040000000000003</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="Y18">
-        <v>0.33150000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="Z18">
-        <v>0.33150000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="AA18">
-        <v>0.33150000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="AB18">
-        <v>0.33160000000000001</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="AC18">
-        <v>0.33160000000000001</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="AD18">
-        <v>0.33150000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="AE18">
-        <v>0.33150000000000002</v>
+        <v>0.31</v>
       </c>
       <c r="AF18">
-        <v>0.1</v>
-      </c>
-      <c r="AG18">
-        <v>0.4</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19">
-        <v>0.35959999999999998</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="C19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="D19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="E19">
-        <v>0.35959999999999998</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="F19">
-        <v>0.35959999999999998</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="G19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="H19">
-        <v>0.35980000000000001</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="I19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="J19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="K19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="L19">
-        <v>0.35959999999999998</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="M19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="N19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="O19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="P19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="Q19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="R19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="S19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="T19">
-        <v>0.35949999999999999</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="U19">
-        <v>0.35930000000000001</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="V19">
-        <v>0.35959999999999998</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="W19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="X19">
-        <v>0.35859999999999997</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="Y19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="Z19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="AA19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="AB19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="AC19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="AD19">
-        <v>0.35970000000000002</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="AE19">
-        <v>0.35970000000000002</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AF19">
-        <v>0.1</v>
-      </c>
-      <c r="AG19">
-        <v>0.4</v>
+        <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20">
-        <v>0.3473</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="C20">
-        <v>0.34760000000000002</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="D20">
-        <v>0.34739999999999999</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="E20">
-        <v>0.34739999999999999</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="F20">
-        <v>0.34739999999999999</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="G20">
-        <v>0.3473</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="H20">
-        <v>0.34739999999999999</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="I20">
-        <v>0.34749999999999998</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="J20">
-        <v>0.3473</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="K20">
-        <v>0.3473</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="L20">
-        <v>0.34720000000000001</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="M20">
-        <v>0.3473</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="N20">
-        <v>0.3473</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="O20">
-        <v>0.3473</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="P20">
-        <v>0.3473</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="Q20">
-        <v>0.3473</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="R20">
-        <v>0.34720000000000001</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="S20">
-        <v>0.34720000000000001</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="T20">
-        <v>0.34720000000000001</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="U20">
-        <v>0.34689999999999999</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="V20">
-        <v>0.34710000000000002</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="W20">
-        <v>0.3473</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="X20">
-        <v>0.34689999999999999</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="Y20">
-        <v>0.34720000000000001</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="Z20">
-        <v>0.3473</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="AA20">
-        <v>0.34720000000000001</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="AB20">
-        <v>0.34720000000000001</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="AC20">
-        <v>0.34720000000000001</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="AD20">
-        <v>0.3473</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="AE20">
-        <v>0.3473</v>
+        <v>0.31</v>
       </c>
       <c r="AF20">
-        <v>0.1</v>
-      </c>
-      <c r="AG20">
-        <v>0.4</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21">
-        <v>0.3715</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="C21">
-        <v>0.37169999999999997</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="D21">
-        <v>0.37169999999999997</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="E21">
-        <v>0.37159999999999999</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="F21">
-        <v>0.37159999999999999</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="G21">
-        <v>0.3715</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="H21">
-        <v>0.37159999999999999</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="I21">
-        <v>0.37169999999999997</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="J21">
-        <v>0.37159999999999999</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="K21">
-        <v>0.3715</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="L21">
-        <v>0.3715</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="M21">
-        <v>0.3715</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="N21">
-        <v>0.37159999999999999</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="O21">
-        <v>0.3715</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="P21">
-        <v>0.3715</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="Q21">
-        <v>0.3715</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="R21">
-        <v>0.3715</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="S21">
-        <v>0.37140000000000001</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="T21">
-        <v>0.37140000000000001</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="U21">
-        <v>0.37119999999999997</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="V21">
-        <v>0.37140000000000001</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="W21">
-        <v>0.3715</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="X21">
-        <v>0.371</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="Y21">
-        <v>0.3715</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="Z21">
-        <v>0.3715</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="AA21">
-        <v>0.3715</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="AB21">
-        <v>0.3715</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="AC21">
-        <v>0.3715</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="AD21">
-        <v>0.3715</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="AE21">
-        <v>0.37159999999999999</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AF21">
-        <v>0.1</v>
-      </c>
-      <c r="AG21">
-        <v>0.4</v>
+        <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
       <c r="B22">
-        <v>0.3301</v>
+        <v>0.3286</v>
       </c>
       <c r="C22">
-        <v>0.33019999999999999</v>
+        <v>0.3286</v>
       </c>
       <c r="D22">
-        <v>0.33019999999999999</v>
+        <v>0.32869999999999999</v>
       </c>
       <c r="E22">
-        <v>0.3301</v>
+        <v>0.3286</v>
       </c>
       <c r="F22">
-        <v>0.3301</v>
+        <v>0.32879999999999998</v>
       </c>
       <c r="G22">
-        <v>0.3301</v>
+        <v>0.32869999999999999</v>
       </c>
       <c r="H22">
-        <v>0.33</v>
+        <v>0.3286</v>
       </c>
       <c r="I22">
-        <v>0.3301</v>
+        <v>0.32869999999999999</v>
       </c>
       <c r="J22">
-        <v>0.33</v>
+        <v>0.3286</v>
       </c>
       <c r="K22">
-        <v>0.3301</v>
+        <v>0.32869999999999999</v>
       </c>
       <c r="L22">
-        <v>0.33</v>
+        <v>0.32869999999999999</v>
       </c>
       <c r="M22">
-        <v>0.32990000000000003</v>
+        <v>0.32869999999999999</v>
       </c>
       <c r="N22">
-        <v>0.33</v>
+        <v>0.3286</v>
       </c>
       <c r="O22">
-        <v>0.32990000000000003</v>
+        <v>0.32869999999999999</v>
       </c>
       <c r="P22">
-        <v>0.3301</v>
+        <v>0.32869999999999999</v>
       </c>
       <c r="Q22">
-        <v>0.33</v>
+        <v>0.3286</v>
       </c>
       <c r="R22">
-        <v>0.3301</v>
+        <v>0.3286</v>
       </c>
       <c r="S22">
-        <v>0.3301</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="T22">
-        <v>0.3301</v>
+        <v>0.32869999999999999</v>
       </c>
       <c r="U22">
-        <v>0.33</v>
+        <v>0.3286</v>
       </c>
       <c r="V22">
-        <v>0.3301</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="W22">
-        <v>0.3301</v>
+        <v>0.32869999999999999</v>
       </c>
       <c r="X22">
-        <v>0.33</v>
+        <v>0.3286</v>
       </c>
       <c r="Y22">
-        <v>0.32990000000000003</v>
+        <v>0.3286</v>
       </c>
       <c r="Z22">
-        <v>0.3301</v>
+        <v>0.32869999999999999</v>
       </c>
       <c r="AA22">
-        <v>0.33</v>
+        <v>0.3286</v>
       </c>
       <c r="AB22">
-        <v>0.33</v>
+        <v>0.32869999999999999</v>
       </c>
       <c r="AC22">
-        <v>0.33</v>
+        <v>0.3286</v>
       </c>
       <c r="AD22">
-        <v>0.3301</v>
+        <v>0.32869999999999999</v>
       </c>
       <c r="AE22">
-        <v>0.3301</v>
+        <v>0.31</v>
       </c>
       <c r="AF22">
-        <v>0.1</v>
-      </c>
-      <c r="AG22">
-        <v>0.4</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23">
-        <v>0.35749999999999998</v>
+        <v>0.35620000000000002</v>
       </c>
       <c r="C23">
-        <v>0.35759999999999997</v>
+        <v>0.35620000000000002</v>
       </c>
       <c r="D23">
-        <v>0.35759999999999997</v>
+        <v>0.35639999999999999</v>
       </c>
       <c r="E23">
-        <v>0.35759999999999997</v>
+        <v>0.35620000000000002</v>
       </c>
       <c r="F23">
-        <v>0.35749999999999998</v>
+        <v>0.35639999999999999</v>
       </c>
       <c r="G23">
-        <v>0.35759999999999997</v>
+        <v>0.35639999999999999</v>
       </c>
       <c r="H23">
-        <v>0.3574</v>
+        <v>0.35620000000000002</v>
       </c>
       <c r="I23">
-        <v>0.35749999999999998</v>
+        <v>0.35639999999999999</v>
       </c>
       <c r="J23">
-        <v>0.35749999999999998</v>
+        <v>0.35620000000000002</v>
       </c>
       <c r="K23">
-        <v>0.35749999999999998</v>
+        <v>0.35630000000000001</v>
       </c>
       <c r="L23">
-        <v>0.3574</v>
+        <v>0.35630000000000001</v>
       </c>
       <c r="M23">
-        <v>0.3574</v>
+        <v>0.35639999999999999</v>
       </c>
       <c r="N23">
-        <v>0.35749999999999998</v>
+        <v>0.35620000000000002</v>
       </c>
       <c r="O23">
-        <v>0.3574</v>
+        <v>0.35639999999999999</v>
       </c>
       <c r="P23">
-        <v>0.35749999999999998</v>
+        <v>0.35639999999999999</v>
       </c>
       <c r="Q23">
-        <v>0.3574</v>
+        <v>0.35620000000000002</v>
       </c>
       <c r="R23">
-        <v>0.35749999999999998</v>
+        <v>0.35620000000000002</v>
       </c>
       <c r="S23">
-        <v>0.35749999999999998</v>
+        <v>0.35680000000000001</v>
       </c>
       <c r="T23">
-        <v>0.35749999999999998</v>
+        <v>0.35639999999999999</v>
       </c>
       <c r="U23">
-        <v>0.35749999999999998</v>
+        <v>0.35620000000000002</v>
       </c>
       <c r="V23">
-        <v>0.35749999999999998</v>
+        <v>0.35670000000000002</v>
       </c>
       <c r="W23">
-        <v>0.35749999999999998</v>
+        <v>0.35630000000000001</v>
       </c>
       <c r="X23">
-        <v>0.3574</v>
+        <v>0.35620000000000002</v>
       </c>
       <c r="Y23">
-        <v>0.3574</v>
+        <v>0.35620000000000002</v>
       </c>
       <c r="Z23">
-        <v>0.35749999999999998</v>
+        <v>0.35630000000000001</v>
       </c>
       <c r="AA23">
-        <v>0.3574</v>
+        <v>0.35620000000000002</v>
       </c>
       <c r="AB23">
-        <v>0.3574</v>
+        <v>0.35630000000000001</v>
       </c>
       <c r="AC23">
-        <v>0.3574</v>
+        <v>0.35620000000000002</v>
       </c>
       <c r="AD23">
-        <v>0.35749999999999998</v>
+        <v>0.35639999999999999</v>
       </c>
       <c r="AE23">
-        <v>0.35749999999999998</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AF23">
-        <v>0.1</v>
-      </c>
-      <c r="AG23">
-        <v>0.4</v>
+        <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24">
-        <v>0.33279999999999998</v>
+        <v>0.3286</v>
       </c>
       <c r="C24">
-        <v>0.33300000000000002</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="D24">
-        <v>0.33310000000000001</v>
+        <v>0.3286</v>
       </c>
       <c r="E24">
-        <v>0.33300000000000002</v>
+        <v>0.32850000000000001</v>
       </c>
       <c r="F24">
-        <v>0.3332</v>
+        <v>0.3286</v>
       </c>
       <c r="G24">
-        <v>0.33300000000000002</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="H24">
-        <v>0.33310000000000001</v>
+        <v>0.32850000000000001</v>
       </c>
       <c r="I24">
-        <v>0.33310000000000001</v>
+        <v>0.32869999999999999</v>
       </c>
       <c r="J24">
-        <v>0.33310000000000001</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="K24">
-        <v>0.33300000000000002</v>
+        <v>0.32840000000000003</v>
       </c>
       <c r="L24">
-        <v>0.33310000000000001</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="M24">
-        <v>0.33300000000000002</v>
+        <v>0.3286</v>
       </c>
       <c r="N24">
-        <v>0.33300000000000002</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="O24">
-        <v>0.33300000000000002</v>
+        <v>0.32840000000000003</v>
       </c>
       <c r="P24">
-        <v>0.33289999999999997</v>
+        <v>0.3286</v>
       </c>
       <c r="Q24">
-        <v>0.33289999999999997</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="R24">
-        <v>0.33310000000000001</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="S24">
-        <v>0.3332</v>
+        <v>0.32929999999999998</v>
       </c>
       <c r="T24">
-        <v>0.33300000000000002</v>
+        <v>0.32840000000000003</v>
       </c>
       <c r="U24">
-        <v>0.33289999999999997</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="V24">
-        <v>0.33289999999999997</v>
+        <v>0.32869999999999999</v>
       </c>
       <c r="W24">
-        <v>0.33289999999999997</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="X24">
-        <v>0.33289999999999997</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="Y24">
-        <v>0.33300000000000002</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="Z24">
-        <v>0.33310000000000001</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="AA24">
-        <v>0.33300000000000002</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="AB24">
-        <v>0.33310000000000001</v>
+        <v>0.32840000000000003</v>
       </c>
       <c r="AC24">
-        <v>0.3332</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="AD24">
-        <v>0.33300000000000002</v>
+        <v>0.32840000000000003</v>
       </c>
       <c r="AE24">
-        <v>0.33300000000000002</v>
+        <v>0.31</v>
       </c>
       <c r="AF24">
-        <v>0.1</v>
-      </c>
-      <c r="AG24">
-        <v>0.4</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
       <c r="B25">
-        <v>0.35980000000000001</v>
+        <v>0.35730000000000001</v>
       </c>
       <c r="C25">
-        <v>0.36</v>
+        <v>0.3569</v>
       </c>
       <c r="D25">
-        <v>0.36</v>
+        <v>0.35730000000000001</v>
       </c>
       <c r="E25">
-        <v>0.3599</v>
+        <v>0.35709999999999997</v>
       </c>
       <c r="F25">
-        <v>0.36009999999999998</v>
+        <v>0.35730000000000001</v>
       </c>
       <c r="G25">
-        <v>0.36</v>
+        <v>0.3569</v>
       </c>
       <c r="H25">
-        <v>0.36</v>
+        <v>0.35709999999999997</v>
       </c>
       <c r="I25">
-        <v>0.36</v>
+        <v>0.35730000000000001</v>
       </c>
       <c r="J25">
-        <v>0.36</v>
+        <v>0.3569</v>
       </c>
       <c r="K25">
-        <v>0.3599</v>
+        <v>0.3569</v>
       </c>
       <c r="L25">
-        <v>0.36</v>
+        <v>0.3569</v>
       </c>
       <c r="M25">
-        <v>0.3599</v>
+        <v>0.35709999999999997</v>
       </c>
       <c r="N25">
-        <v>0.3599</v>
+        <v>0.3569</v>
       </c>
       <c r="O25">
-        <v>0.3599</v>
+        <v>0.3569</v>
       </c>
       <c r="P25">
-        <v>0.3599</v>
+        <v>0.35709999999999997</v>
       </c>
       <c r="Q25">
-        <v>0.35980000000000001</v>
+        <v>0.3569</v>
       </c>
       <c r="R25">
-        <v>0.36</v>
+        <v>0.3569</v>
       </c>
       <c r="S25">
-        <v>0.36</v>
+        <v>0.35709999999999997</v>
       </c>
       <c r="T25">
-        <v>0.3599</v>
+        <v>0.3569</v>
       </c>
       <c r="U25">
-        <v>0.3599</v>
+        <v>0.3569</v>
       </c>
       <c r="V25">
-        <v>0.3599</v>
+        <v>0.35680000000000001</v>
       </c>
       <c r="W25">
-        <v>0.3599</v>
+        <v>0.3569</v>
       </c>
       <c r="X25">
-        <v>0.3599</v>
+        <v>0.3569</v>
       </c>
       <c r="Y25">
-        <v>0.3599</v>
+        <v>0.3569</v>
       </c>
       <c r="Z25">
-        <v>0.36</v>
+        <v>0.3569</v>
       </c>
       <c r="AA25">
-        <v>0.3599</v>
+        <v>0.3569</v>
       </c>
       <c r="AB25">
-        <v>0.36</v>
+        <v>0.3569</v>
       </c>
       <c r="AC25">
-        <v>0.36</v>
+        <v>0.3569</v>
       </c>
       <c r="AD25">
-        <v>0.36</v>
+        <v>0.3569</v>
       </c>
       <c r="AE25">
-        <v>0.3599</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AF25">
-        <v>0.1</v>
-      </c>
-      <c r="AG25">
-        <v>0.4</v>
+        <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
       <c r="B26">
-        <v>0.3533</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="C26">
-        <v>0.35320000000000001</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="D26">
-        <v>0.3533</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="E26">
-        <v>0.35310000000000002</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="F26">
-        <v>0.35310000000000002</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="G26">
-        <v>0.35310000000000002</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="H26">
-        <v>0.35310000000000002</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="I26">
-        <v>0.35310000000000002</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="J26">
-        <v>0.35299999999999998</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="K26">
-        <v>0.35310000000000002</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="L26">
-        <v>0.35299999999999998</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="M26">
-        <v>0.35310000000000002</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="N26">
-        <v>0.35289999999999999</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="O26">
-        <v>0.35310000000000002</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="P26">
-        <v>0.35299999999999998</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="Q26">
-        <v>0.3528</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="R26">
-        <v>0.35299999999999998</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="S26">
-        <v>0.35289999999999999</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="T26">
-        <v>0.35289999999999999</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="U26">
-        <v>0.35299999999999998</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="V26">
-        <v>0.35289999999999999</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="W26">
-        <v>0.35289999999999999</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="X26">
-        <v>0.35299999999999998</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="Y26">
-        <v>0.35289999999999999</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="Z26">
-        <v>0.35289999999999999</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="AA26">
-        <v>0.35289999999999999</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="AB26">
-        <v>0.35289999999999999</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="AC26">
-        <v>0.35299999999999998</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="AD26">
-        <v>0.35299999999999998</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="AE26">
-        <v>0.35299999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="AF26">
-        <v>0.1</v>
-      </c>
-      <c r="AG26">
-        <v>0.4</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
       <c r="B27">
-        <v>0.37440000000000001</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="C27">
-        <v>0.37440000000000001</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="D27">
-        <v>0.37440000000000001</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="E27">
-        <v>0.37430000000000002</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="F27">
-        <v>0.37430000000000002</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="G27">
-        <v>0.37430000000000002</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="H27">
-        <v>0.37419999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="I27">
-        <v>0.37430000000000002</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="J27">
-        <v>0.37419999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="K27">
-        <v>0.37419999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="L27">
-        <v>0.37419999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="M27">
-        <v>0.37419999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="N27">
-        <v>0.37419999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="O27">
-        <v>0.37419999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="P27">
-        <v>0.37419999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="Q27">
         <v>0.37409999999999999</v>
       </c>
       <c r="R27">
-        <v>0.37419999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="S27">
         <v>0.37409999999999999</v>
@@ -2846,7 +2777,7 @@
         <v>0.37409999999999999</v>
       </c>
       <c r="U27">
-        <v>0.37419999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="V27">
         <v>0.37409999999999999</v>
@@ -2855,34 +2786,31 @@
         <v>0.37409999999999999</v>
       </c>
       <c r="X27">
-        <v>0.37419999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="Y27">
         <v>0.37409999999999999</v>
       </c>
       <c r="Z27">
-        <v>0.37419999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="AA27">
-        <v>0.37419999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="AB27">
         <v>0.37409999999999999</v>
       </c>
       <c r="AC27">
-        <v>0.37419999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="AD27">
-        <v>0.37419999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="AE27">
-        <v>0.37419999999999998</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AF27">
-        <v>0.1</v>
-      </c>
-      <c r="AG27">
-        <v>0.4</v>
+        <v>0.35799999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/a2_RyR_Analyser/a1_input/Target.xlsx
+++ b/a2_RyR_Analyser/a1_input/Target.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucio\Desktop\Code\Python_Eiit_RyR\a2_RyR_Analyser\a1_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciano.galan\Desktop\RyR Generator (v10.0)\3_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303D28FB-18C8-4D93-8B61-A5EFEE6D23F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF84966C-8456-4DF8-848B-4F914EF7408C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13824" windowHeight="7176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,92 +35,86 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>Fiber 1</t>
+    <t>Guia_Luz_Blanco_FB1_X</t>
   </si>
   <si>
-    <t>Fiber 2</t>
+    <t>Guia_Luz_Blanco_FB1_Y</t>
   </si>
   <si>
-    <t>Fiber 3</t>
+    <t>Guia_Luz_Blanco_FB2_X</t>
   </si>
   <si>
-    <t>Fiber 4</t>
+    <t>Guia_Luz_Blanco_FB2_Y</t>
   </si>
   <si>
-    <t>Fiber 5</t>
+    <t>Guia_Luz_Blanco_FB3_X</t>
   </si>
   <si>
-    <t>Fiber 6</t>
+    <t>Guia_Luz_Blanco_FB3_Y</t>
   </si>
   <si>
-    <t>Fiber 7</t>
+    <t>Guia_Luz_Blanco_FB4_X</t>
   </si>
   <si>
-    <t>Fiber 8</t>
+    <t>Guia_Luz_Blanco_FB4_Y</t>
   </si>
   <si>
-    <t>Fiber 9</t>
+    <t>Guia_Luz_Blanco_FB5_X</t>
   </si>
   <si>
-    <t>Fiber 10</t>
+    <t>Guia_Luz_Blanco_FB5_Y</t>
   </si>
   <si>
-    <t>Fiber 11</t>
+    <t>Guia_Luz_Blanco_FB6_X</t>
   </si>
   <si>
-    <t>Fiber 12</t>
+    <t>Guia_Luz_Blanco_FB6_Y</t>
   </si>
   <si>
-    <t>Fiber 13</t>
+    <t>Guia_Luz_Blanco_FB7_X</t>
   </si>
   <si>
-    <t>Fiber 14</t>
+    <t>Guia_Luz_Blanco_FB7_Y</t>
   </si>
   <si>
-    <t>Fiber 15</t>
+    <t>Guia_Luz_Blanco_FB8_X</t>
   </si>
   <si>
-    <t>Fiber 16</t>
+    <t>Guia_Luz_Blanco_FB8_Y</t>
   </si>
   <si>
-    <t>Fiber 17</t>
+    <t>Guia_Luz_Blanco_FB9_X</t>
   </si>
   <si>
-    <t>Fiber 18</t>
+    <t>Guia_Luz_Blanco_FB9_Y</t>
   </si>
   <si>
-    <t>Fiber 19</t>
+    <t>Guia_Luz_Blanco_FB10_X</t>
   </si>
   <si>
-    <t>Fiber 20</t>
+    <t>Guia_Luz_Blanco_FB10_Y</t>
   </si>
   <si>
-    <t>Fiber 21</t>
+    <t>Guia_Luz_Blanco_FB11_X</t>
   </si>
   <si>
-    <t>Fiber 22</t>
+    <t>Guia_Luz_Blanco_FB11_Y</t>
   </si>
   <si>
-    <t>Fiber 23</t>
+    <t>Guia_Luz_Blanco_FB12_X</t>
   </si>
   <si>
-    <t>Fiber 24</t>
+    <t>Guia_Luz_Blanco_FB12_Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -450,983 +444,1007 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AF27"/>
+  <dimension ref="A4:AG27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL19" sqref="AL19"/>
+    <sheetView tabSelected="1" topLeftCell="U20" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.31809999999999999</v>
+        <v>0.32879999999999998</v>
       </c>
       <c r="C4">
-        <v>0.31809999999999999</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="D4">
-        <v>0.31809999999999999</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="E4">
-        <v>0.31809999999999999</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="F4">
-        <v>0.31809999999999999</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="G4">
-        <v>0.31809999999999999</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="H4">
-        <v>0.31809999999999999</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="I4">
-        <v>0.31809999999999999</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="J4">
-        <v>0.31809999999999999</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="K4">
-        <v>0.31809999999999999</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="L4">
-        <v>0.31809999999999999</v>
+        <v>0.3286</v>
       </c>
       <c r="M4">
-        <v>0.31809999999999999</v>
+        <v>0.3281</v>
       </c>
       <c r="N4">
-        <v>0.31809999999999999</v>
+        <v>0.32740000000000002</v>
       </c>
       <c r="O4">
-        <v>0.31809999999999999</v>
+        <v>0.32779999999999998</v>
       </c>
       <c r="P4">
-        <v>0.31809999999999999</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="Q4">
-        <v>0.31809999999999999</v>
+        <v>0.3286</v>
       </c>
       <c r="R4">
-        <v>0.31809999999999999</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="S4">
-        <v>0.31809999999999999</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="T4">
-        <v>0.31809999999999999</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="U4">
-        <v>0.31809999999999999</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="V4">
-        <v>0.31809999999999999</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="W4">
-        <v>0.31809999999999999</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="X4">
-        <v>0.31809999999999999</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="Y4">
-        <v>0.31809999999999999</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="Z4">
-        <v>0.31809999999999999</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="AA4">
-        <v>0.31809999999999999</v>
+        <v>0.32779999999999998</v>
       </c>
       <c r="AB4">
-        <v>0.31809999999999999</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="AC4">
-        <v>0.31809999999999999</v>
+        <v>0.32619999999999999</v>
       </c>
       <c r="AD4">
-        <v>0.31809999999999999</v>
+        <v>0.32840000000000003</v>
       </c>
       <c r="AE4">
-        <v>0.31</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="AF4">
-        <v>0.33500000000000002</v>
+        <v>0.314</v>
+      </c>
+      <c r="AG4">
+        <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.35149999999999998</v>
+        <v>0.3503</v>
       </c>
       <c r="C5">
-        <v>0.35149999999999998</v>
+        <v>0.3503</v>
       </c>
       <c r="D5">
-        <v>0.35149999999999998</v>
+        <v>0.3503</v>
       </c>
       <c r="E5">
-        <v>0.35149999999999998</v>
+        <v>0.3503</v>
       </c>
       <c r="F5">
-        <v>0.35149999999999998</v>
+        <v>0.3503</v>
       </c>
       <c r="G5">
-        <v>0.35149999999999998</v>
+        <v>0.3503</v>
       </c>
       <c r="H5">
-        <v>0.35149999999999998</v>
+        <v>0.3503</v>
       </c>
       <c r="I5">
-        <v>0.35149999999999998</v>
+        <v>0.3503</v>
       </c>
       <c r="J5">
-        <v>0.35149999999999998</v>
+        <v>0.3503</v>
       </c>
       <c r="K5">
-        <v>0.35149999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="L5">
-        <v>0.35149999999999998</v>
+        <v>0.35010000000000002</v>
       </c>
       <c r="M5">
-        <v>0.35149999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="N5">
-        <v>0.35149999999999998</v>
+        <v>0.34960000000000002</v>
       </c>
       <c r="O5">
-        <v>0.35149999999999998</v>
+        <v>0.3498</v>
       </c>
       <c r="P5">
-        <v>0.35149999999999998</v>
+        <v>0.3498</v>
       </c>
       <c r="Q5">
-        <v>0.35149999999999998</v>
+        <v>0.35010000000000002</v>
       </c>
       <c r="R5">
-        <v>0.35149999999999998</v>
+        <v>0.3503</v>
       </c>
       <c r="S5">
-        <v>0.35149999999999998</v>
+        <v>0.3503</v>
       </c>
       <c r="T5">
-        <v>0.35149999999999998</v>
+        <v>0.3503</v>
       </c>
       <c r="U5">
-        <v>0.35149999999999998</v>
+        <v>0.3503</v>
       </c>
       <c r="V5">
-        <v>0.35149999999999998</v>
+        <v>0.3503</v>
       </c>
       <c r="W5">
-        <v>0.35149999999999998</v>
+        <v>0.3503</v>
       </c>
       <c r="X5">
-        <v>0.35149999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="Y5">
-        <v>0.35149999999999998</v>
+        <v>0.3503</v>
       </c>
       <c r="Z5">
-        <v>0.35149999999999998</v>
+        <v>0.3503</v>
       </c>
       <c r="AA5">
-        <v>0.35149999999999998</v>
+        <v>0.34989999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.35149999999999998</v>
+        <v>0.34989999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.35149999999999998</v>
+        <v>0.3493</v>
       </c>
       <c r="AD5">
-        <v>0.35149999999999998</v>
+        <v>0.35020000000000001</v>
       </c>
       <c r="AE5">
-        <v>0.32500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="AF5">
-        <v>0.35799999999999998</v>
+        <v>0.3453</v>
+      </c>
+      <c r="AG5">
+        <v>0.37890000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.33679999999999999</v>
+        <v>0.33450000000000002</v>
       </c>
       <c r="C6">
-        <v>0.3402</v>
+        <v>0.33450000000000002</v>
       </c>
       <c r="D6">
-        <v>0.33829999999999999</v>
+        <v>0.33439999999999998</v>
       </c>
       <c r="E6">
-        <v>0.33250000000000002</v>
+        <v>0.33389999999999997</v>
       </c>
       <c r="F6">
-        <v>0.33589999999999998</v>
+        <v>0.33439999999999998</v>
       </c>
       <c r="G6">
-        <v>0.3372</v>
+        <v>0.33439999999999998</v>
       </c>
       <c r="H6">
-        <v>0.33829999999999999</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="I6">
-        <v>0.33560000000000001</v>
+        <v>0.3342</v>
       </c>
       <c r="J6">
-        <v>0.33789999999999998</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="K6">
-        <v>0.34060000000000001</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="L6">
-        <v>0.32840000000000003</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="M6">
-        <v>0.33439999999999998</v>
+        <v>0.33389999999999997</v>
       </c>
       <c r="N6">
-        <v>0.3387</v>
+        <v>0.33379999999999999</v>
       </c>
       <c r="O6">
-        <v>0.33289999999999997</v>
+        <v>0.33389999999999997</v>
       </c>
       <c r="P6">
-        <v>0.3352</v>
+        <v>0.3342</v>
       </c>
       <c r="Q6">
-        <v>0.34129999999999999</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="R6">
-        <v>0.3422</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="S6">
-        <v>0.32879999999999998</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="T6">
-        <v>0.33560000000000001</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="U6">
-        <v>0.33090000000000003</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="V6">
-        <v>0.33040000000000003</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="W6">
-        <v>0.3387</v>
+        <v>0.3342</v>
       </c>
       <c r="X6">
-        <v>0.33939999999999998</v>
+        <v>0.3342</v>
       </c>
       <c r="Y6">
-        <v>0.33090000000000003</v>
+        <v>0.3342</v>
       </c>
       <c r="Z6">
-        <v>0.33900000000000002</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="AA6">
-        <v>0.34060000000000001</v>
+        <v>0.3332</v>
       </c>
       <c r="AB6">
-        <v>0.33750000000000002</v>
+        <v>0.33379999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.33679999999999999</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="AD6">
-        <v>0.3402</v>
+        <v>0.33360000000000001</v>
       </c>
       <c r="AE6">
-        <v>0.31</v>
+        <v>0.33350000000000002</v>
       </c>
       <c r="AF6">
-        <v>0.33500000000000002</v>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AG6">
+        <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0.3614</v>
+        <v>0.35770000000000002</v>
       </c>
       <c r="C7">
-        <v>0.36309999999999998</v>
+        <v>0.35770000000000002</v>
       </c>
       <c r="D7">
-        <v>0.36220000000000002</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="E7">
-        <v>0.35930000000000001</v>
+        <v>0.35730000000000001</v>
       </c>
       <c r="F7">
-        <v>0.36099999999999999</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="G7">
-        <v>0.36159999999999998</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="H7">
-        <v>0.36220000000000002</v>
+        <v>0.35730000000000001</v>
       </c>
       <c r="I7">
-        <v>0.3609</v>
+        <v>0.3574</v>
       </c>
       <c r="J7">
-        <v>0.36199999999999999</v>
+        <v>0.35730000000000001</v>
       </c>
       <c r="K7">
-        <v>0.36330000000000001</v>
+        <v>0.35730000000000001</v>
       </c>
       <c r="L7">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="N7">
         <v>0.35720000000000002</v>
       </c>
-      <c r="M7">
-        <v>0.36020000000000002</v>
-      </c>
-      <c r="N7">
-        <v>0.3624</v>
-      </c>
       <c r="O7">
-        <v>0.35949999999999999</v>
+        <v>0.35720000000000002</v>
       </c>
       <c r="P7">
-        <v>0.36059999999999998</v>
+        <v>0.35730000000000001</v>
       </c>
       <c r="Q7">
-        <v>0.36370000000000002</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="R7">
-        <v>0.36420000000000002</v>
+        <v>0.35730000000000001</v>
       </c>
       <c r="S7">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="T7">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="U7">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="V7">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="W7">
         <v>0.3574</v>
       </c>
-      <c r="T7">
-        <v>0.3609</v>
-      </c>
-      <c r="U7">
-        <v>0.35849999999999999</v>
-      </c>
-      <c r="V7">
-        <v>0.35820000000000002</v>
-      </c>
-      <c r="W7">
-        <v>0.3624</v>
-      </c>
       <c r="X7">
-        <v>0.36270000000000002</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="Y7">
-        <v>0.35849999999999999</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="Z7">
-        <v>0.36249999999999999</v>
+        <v>0.35770000000000002</v>
       </c>
       <c r="AA7">
-        <v>0.36330000000000001</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="AB7">
-        <v>0.36180000000000001</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="AC7">
-        <v>0.3614</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="AD7">
-        <v>0.36309999999999998</v>
+        <v>0.35770000000000002</v>
       </c>
       <c r="AE7">
-        <v>0.32500000000000001</v>
+        <v>0.3574</v>
       </c>
       <c r="AF7">
-        <v>0.35799999999999998</v>
+        <v>0.3453</v>
+      </c>
+      <c r="AG7">
+        <v>0.37890000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0.34649999999999997</v>
+        <v>0.3392</v>
       </c>
       <c r="C8">
-        <v>0.34639999999999999</v>
+        <v>0.33910000000000001</v>
       </c>
       <c r="D8">
-        <v>0.34660000000000002</v>
+        <v>0.33879999999999999</v>
       </c>
       <c r="E8">
-        <v>0.34689999999999999</v>
+        <v>0.33879999999999999</v>
       </c>
       <c r="F8">
-        <v>0.34689999999999999</v>
+        <v>0.33879999999999999</v>
       </c>
       <c r="G8">
-        <v>0.3468</v>
+        <v>0.33879999999999999</v>
       </c>
       <c r="H8">
-        <v>0.34670000000000001</v>
+        <v>0.33879999999999999</v>
       </c>
       <c r="I8">
-        <v>0.3468</v>
+        <v>0.33889999999999998</v>
       </c>
       <c r="J8">
-        <v>0.34649999999999997</v>
+        <v>0.33879999999999999</v>
       </c>
       <c r="K8">
-        <v>0.34649999999999997</v>
+        <v>0.33879999999999999</v>
       </c>
       <c r="L8">
-        <v>0.34820000000000001</v>
+        <v>0.33879999999999999</v>
       </c>
       <c r="M8">
-        <v>0.3473</v>
+        <v>0.33879999999999999</v>
       </c>
       <c r="N8">
-        <v>0.3468</v>
+        <v>0.33889999999999998</v>
       </c>
       <c r="O8">
-        <v>0.34720000000000001</v>
+        <v>0.33889999999999998</v>
       </c>
       <c r="P8">
-        <v>0.34720000000000001</v>
+        <v>0.33889999999999998</v>
       </c>
       <c r="Q8">
-        <v>0.34639999999999999</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="R8">
-        <v>0.34639999999999999</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="S8">
-        <v>0.3488</v>
+        <v>0.33889999999999998</v>
       </c>
       <c r="T8">
-        <v>0.3473</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="U8">
-        <v>0.34820000000000001</v>
+        <v>0.33889999999999998</v>
       </c>
       <c r="V8">
-        <v>0.34839999999999999</v>
+        <v>0.33879999999999999</v>
       </c>
       <c r="W8">
-        <v>0.34670000000000001</v>
+        <v>0.33860000000000001</v>
       </c>
       <c r="X8">
-        <v>0.34649999999999997</v>
+        <v>0.33889999999999998</v>
       </c>
       <c r="Y8">
-        <v>0.34839999999999999</v>
+        <v>0.33889999999999998</v>
       </c>
       <c r="Z8">
-        <v>0.3468</v>
+        <v>0.33850000000000002</v>
       </c>
       <c r="AA8">
-        <v>0.34660000000000002</v>
+        <v>0.33860000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.34720000000000001</v>
+        <v>0.33839999999999998</v>
       </c>
       <c r="AC8">
-        <v>0.34720000000000001</v>
+        <v>0.33860000000000001</v>
       </c>
       <c r="AD8">
-        <v>0.3468</v>
+        <v>0.33839999999999998</v>
       </c>
       <c r="AE8">
-        <v>0.31</v>
+        <v>0.33860000000000001</v>
       </c>
       <c r="AF8">
-        <v>0.33500000000000002</v>
+        <v>0.33510000000000001</v>
+      </c>
+      <c r="AG8">
+        <v>0.36009999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.37080000000000002</v>
+        <v>0.3659</v>
       </c>
       <c r="C9">
-        <v>0.37080000000000002</v>
+        <v>0.3659</v>
       </c>
       <c r="D9">
-        <v>0.37069999999999997</v>
+        <v>0.36570000000000003</v>
       </c>
       <c r="E9">
-        <v>0.37080000000000002</v>
+        <v>0.36570000000000003</v>
       </c>
       <c r="F9">
-        <v>0.37080000000000002</v>
+        <v>0.36570000000000003</v>
       </c>
       <c r="G9">
-        <v>0.37069999999999997</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="H9">
-        <v>0.37069999999999997</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="I9">
-        <v>0.37069999999999997</v>
+        <v>0.36570000000000003</v>
       </c>
       <c r="J9">
-        <v>0.37069999999999997</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="K9">
-        <v>0.37080000000000002</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="L9">
-        <v>0.37080000000000002</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="M9">
-        <v>0.37080000000000002</v>
+        <v>0.36570000000000003</v>
       </c>
       <c r="N9">
-        <v>0.37069999999999997</v>
+        <v>0.36570000000000003</v>
       </c>
       <c r="O9">
-        <v>0.37080000000000002</v>
+        <v>0.36570000000000003</v>
       </c>
       <c r="P9">
-        <v>0.37080000000000002</v>
+        <v>0.36570000000000003</v>
       </c>
       <c r="Q9">
-        <v>0.37080000000000002</v>
+        <v>0.36570000000000003</v>
       </c>
       <c r="R9">
-        <v>0.37080000000000002</v>
+        <v>0.36570000000000003</v>
       </c>
       <c r="S9">
-        <v>0.37090000000000001</v>
+        <v>0.36570000000000003</v>
       </c>
       <c r="T9">
-        <v>0.37080000000000002</v>
+        <v>0.36570000000000003</v>
       </c>
       <c r="U9">
-        <v>0.37080000000000002</v>
+        <v>0.36570000000000003</v>
       </c>
       <c r="V9">
-        <v>0.37090000000000001</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="W9">
-        <v>0.37069999999999997</v>
+        <v>0.36549999999999999</v>
       </c>
       <c r="X9">
-        <v>0.37069999999999997</v>
+        <v>0.36570000000000003</v>
       </c>
       <c r="Y9">
-        <v>0.37090000000000001</v>
+        <v>0.36570000000000003</v>
       </c>
       <c r="Z9">
-        <v>0.37069999999999997</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="AA9">
-        <v>0.37069999999999997</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="AB9">
-        <v>0.37080000000000002</v>
+        <v>0.3654</v>
       </c>
       <c r="AC9">
-        <v>0.37069999999999997</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="AD9">
-        <v>0.37069999999999997</v>
+        <v>0.36549999999999999</v>
       </c>
       <c r="AE9">
-        <v>0.32500000000000001</v>
+        <v>0.36549999999999999</v>
       </c>
       <c r="AF9">
-        <v>0.35799999999999998</v>
+        <v>0.3453</v>
+      </c>
+      <c r="AG9">
+        <v>0.37890000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.32450000000000001</v>
+        <v>0.32750000000000001</v>
       </c>
       <c r="C10">
-        <v>0.32450000000000001</v>
+        <v>0.32750000000000001</v>
       </c>
       <c r="D10">
-        <v>0.3246</v>
+        <v>0.32729999999999998</v>
       </c>
       <c r="E10">
-        <v>0.32479999999999998</v>
+        <v>0.32740000000000002</v>
       </c>
       <c r="F10">
-        <v>0.32479999999999998</v>
+        <v>0.32729999999999998</v>
       </c>
       <c r="G10">
-        <v>0.32479999999999998</v>
+        <v>0.32740000000000002</v>
       </c>
       <c r="H10">
-        <v>0.3246</v>
+        <v>0.32740000000000002</v>
       </c>
       <c r="I10">
-        <v>0.32479999999999998</v>
+        <v>0.32740000000000002</v>
       </c>
       <c r="J10">
-        <v>0.32469999999999999</v>
+        <v>0.32729999999999998</v>
       </c>
       <c r="K10">
-        <v>0.3246</v>
+        <v>0.32719999999999999</v>
       </c>
       <c r="L10">
-        <v>0.32529999999999998</v>
+        <v>0.32719999999999999</v>
       </c>
       <c r="M10">
-        <v>0.32500000000000001</v>
+        <v>0.32669999999999999</v>
       </c>
       <c r="N10">
-        <v>0.32469999999999999</v>
+        <v>0.3271</v>
       </c>
       <c r="O10">
-        <v>0.32500000000000001</v>
+        <v>0.32679999999999998</v>
       </c>
       <c r="P10">
-        <v>0.32500000000000001</v>
+        <v>0.32719999999999999</v>
       </c>
       <c r="Q10">
-        <v>0.3246</v>
+        <v>0.32719999999999999</v>
       </c>
       <c r="R10">
-        <v>0.3246</v>
+        <v>0.32740000000000002</v>
       </c>
       <c r="S10">
-        <v>0.3256</v>
+        <v>0.32740000000000002</v>
       </c>
       <c r="T10">
-        <v>0.32500000000000001</v>
+        <v>0.32740000000000002</v>
       </c>
       <c r="U10">
-        <v>0.32529999999999998</v>
+        <v>0.32740000000000002</v>
       </c>
       <c r="V10">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="W10">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="X10">
+        <v>0.32729999999999998</v>
+      </c>
+      <c r="Y10">
+        <v>0.3276</v>
+      </c>
+      <c r="Z10">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="AA10">
         <v>0.32540000000000002</v>
       </c>
-      <c r="W10">
-        <v>0.32469999999999999</v>
-      </c>
-      <c r="X10">
-        <v>0.3246</v>
-      </c>
-      <c r="Y10">
-        <v>0.32529999999999998</v>
-      </c>
-      <c r="Z10">
-        <v>0.32479999999999998</v>
-      </c>
-      <c r="AA10">
-        <v>0.32469999999999999</v>
-      </c>
       <c r="AB10">
-        <v>0.32500000000000001</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="AC10">
         <v>0.32490000000000002</v>
       </c>
       <c r="AD10">
-        <v>0.32479999999999998</v>
+        <v>0.32650000000000001</v>
       </c>
       <c r="AE10">
-        <v>0.31</v>
+        <v>0.32719999999999999</v>
       </c>
       <c r="AF10">
-        <v>0.33500000000000002</v>
+        <v>0.314</v>
+      </c>
+      <c r="AG10">
+        <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0.35189999999999999</v>
+        <v>0.34720000000000001</v>
       </c>
       <c r="C11">
-        <v>0.35189999999999999</v>
+        <v>0.34720000000000001</v>
       </c>
       <c r="D11">
-        <v>0.35189999999999999</v>
+        <v>0.34710000000000002</v>
       </c>
       <c r="E11">
-        <v>0.35189999999999999</v>
+        <v>0.34710000000000002</v>
       </c>
       <c r="F11">
-        <v>0.3518</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="G11">
-        <v>0.35189999999999999</v>
+        <v>0.34710000000000002</v>
       </c>
       <c r="H11">
-        <v>0.35189999999999999</v>
+        <v>0.34710000000000002</v>
       </c>
       <c r="I11">
-        <v>0.3518</v>
+        <v>0.34710000000000002</v>
       </c>
       <c r="J11">
-        <v>0.3518</v>
+        <v>0.34710000000000002</v>
       </c>
       <c r="K11">
-        <v>0.35189999999999999</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="L11">
-        <v>0.3518</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="M11">
-        <v>0.35189999999999999</v>
+        <v>0.34670000000000001</v>
       </c>
       <c r="N11">
-        <v>0.3518</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="O11">
-        <v>0.35189999999999999</v>
+        <v>0.3468</v>
       </c>
       <c r="P11">
-        <v>0.3518</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="Q11">
-        <v>0.35189999999999999</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="R11">
-        <v>0.35189999999999999</v>
+        <v>0.34710000000000002</v>
       </c>
       <c r="S11">
-        <v>0.35170000000000001</v>
+        <v>0.34710000000000002</v>
       </c>
       <c r="T11">
-        <v>0.3518</v>
+        <v>0.34710000000000002</v>
       </c>
       <c r="U11">
-        <v>0.35170000000000001</v>
+        <v>0.34710000000000002</v>
       </c>
       <c r="V11">
-        <v>0.35170000000000001</v>
+        <v>0.34710000000000002</v>
       </c>
       <c r="W11">
-        <v>0.3518</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="X11">
-        <v>0.35189999999999999</v>
+        <v>0.34710000000000002</v>
       </c>
       <c r="Y11">
-        <v>0.3518</v>
+        <v>0.34720000000000001</v>
       </c>
       <c r="Z11">
-        <v>0.35189999999999999</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="AA11">
-        <v>0.3518</v>
+        <v>0.34649999999999997</v>
       </c>
       <c r="AB11">
-        <v>0.35189999999999999</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="AC11">
-        <v>0.35189999999999999</v>
+        <v>0.3463</v>
       </c>
       <c r="AD11">
-        <v>0.3518</v>
+        <v>0.34670000000000001</v>
       </c>
       <c r="AE11">
-        <v>0.32500000000000001</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="AF11">
-        <v>0.35799999999999998</v>
+        <v>0.3453</v>
+      </c>
+      <c r="AG11">
+        <v>0.37890000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>0.33450000000000002</v>
+        <v>0.33489999999999998</v>
       </c>
       <c r="C12">
-        <v>0.33389999999999997</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="D12">
         <v>0.3342</v>
       </c>
       <c r="E12">
-        <v>0.33479999999999999</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="F12">
+        <v>0.33410000000000001</v>
+      </c>
+      <c r="G12">
         <v>0.3342</v>
       </c>
-      <c r="G12">
+      <c r="H12">
+        <v>0.33410000000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="J12">
+        <v>0.33410000000000001</v>
+      </c>
+      <c r="K12">
+        <v>0.33410000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.33410000000000001</v>
+      </c>
+      <c r="M12">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="N12">
+        <v>0.3342</v>
+      </c>
+      <c r="O12">
+        <v>0.33460000000000001</v>
+      </c>
+      <c r="P12">
+        <v>0.33410000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>0.33410000000000001</v>
+      </c>
+      <c r="R12">
+        <v>0.33410000000000001</v>
+      </c>
+      <c r="S12">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="T12">
+        <v>0.33410000000000001</v>
+      </c>
+      <c r="U12">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="V12">
+        <v>0.33410000000000001</v>
+      </c>
+      <c r="W12">
         <v>0.33450000000000002</v>
       </c>
-      <c r="H12">
-        <v>0.33389999999999997</v>
-      </c>
-      <c r="I12">
+      <c r="X12">
+        <v>0.33460000000000001</v>
+      </c>
+      <c r="Y12">
         <v>0.3342</v>
       </c>
-      <c r="J12">
-        <v>0.3337</v>
-      </c>
-      <c r="K12">
-        <v>0.33379999999999999</v>
-      </c>
-      <c r="L12">
-        <v>0.33610000000000001</v>
-      </c>
-      <c r="M12">
-        <v>0.33460000000000001</v>
-      </c>
-      <c r="N12">
-        <v>0.33460000000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.33479999999999999</v>
-      </c>
-      <c r="P12">
-        <v>0.3342</v>
-      </c>
-      <c r="Q12">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="R12">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="S12">
-        <v>0.33589999999999998</v>
-      </c>
-      <c r="T12">
-        <v>0.33479999999999999</v>
-      </c>
-      <c r="U12">
-        <v>0.33560000000000001</v>
-      </c>
-      <c r="V12">
-        <v>0.33550000000000002</v>
-      </c>
-      <c r="W12">
-        <v>0.3337</v>
-      </c>
-      <c r="X12">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="Y12">
-        <v>0.33560000000000001</v>
-      </c>
       <c r="Z12">
-        <v>0.3337</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="AA12">
         <v>0.3337</v>
       </c>
       <c r="AB12">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="AC12">
         <v>0.33439999999999998</v>
       </c>
-      <c r="AC12">
-        <v>0.3342</v>
-      </c>
       <c r="AD12">
-        <v>0.3342</v>
+        <v>0.33360000000000001</v>
       </c>
       <c r="AE12">
-        <v>0.31</v>
+        <v>0.3332</v>
       </c>
       <c r="AF12">
-        <v>0.33500000000000002</v>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AG12">
+        <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>0.35870000000000002</v>
+        <v>0.35880000000000001</v>
       </c>
       <c r="C13">
+        <v>0.35880000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.3584</v>
+      </c>
+      <c r="E13">
         <v>0.35809999999999997</v>
       </c>
-      <c r="D13">
-        <v>0.35849999999999999</v>
-      </c>
-      <c r="E13">
-        <v>0.35909999999999997</v>
-      </c>
       <c r="F13">
-        <v>0.3584</v>
+        <v>0.35820000000000002</v>
       </c>
       <c r="G13">
-        <v>0.35870000000000002</v>
+        <v>0.35830000000000001</v>
       </c>
       <c r="H13">
         <v>0.35809999999999997</v>
       </c>
       <c r="I13">
-        <v>0.35849999999999999</v>
+        <v>0.35830000000000001</v>
       </c>
       <c r="J13">
-        <v>0.35780000000000001</v>
+        <v>0.35809999999999997</v>
       </c>
       <c r="K13">
-        <v>0.35799999999999998</v>
+        <v>0.35809999999999997</v>
       </c>
       <c r="L13">
-        <v>0.36059999999999998</v>
+        <v>0.35809999999999997</v>
       </c>
       <c r="M13">
-        <v>0.3589</v>
+        <v>0.3584</v>
       </c>
       <c r="N13">
-        <v>0.3589</v>
+        <v>0.35809999999999997</v>
       </c>
       <c r="O13">
-        <v>0.35909999999999997</v>
+        <v>0.3584</v>
       </c>
       <c r="P13">
+        <v>0.35809999999999997</v>
+      </c>
+      <c r="Q13">
+        <v>0.35809999999999997</v>
+      </c>
+      <c r="R13">
+        <v>0.35809999999999997</v>
+      </c>
+      <c r="S13">
+        <v>0.35830000000000001</v>
+      </c>
+      <c r="T13">
+        <v>0.35809999999999997</v>
+      </c>
+      <c r="U13">
+        <v>0.35830000000000001</v>
+      </c>
+      <c r="V13">
+        <v>0.35809999999999997</v>
+      </c>
+      <c r="W13">
         <v>0.3584</v>
       </c>
-      <c r="Q13">
-        <v>0.35770000000000002</v>
-      </c>
-      <c r="R13">
-        <v>0.35770000000000002</v>
-      </c>
-      <c r="S13">
-        <v>0.3604</v>
-      </c>
-      <c r="T13">
-        <v>0.35909999999999997</v>
-      </c>
-      <c r="U13">
-        <v>0.36</v>
-      </c>
-      <c r="V13">
-        <v>0.3599</v>
-      </c>
-      <c r="W13">
-        <v>0.35780000000000001</v>
-      </c>
       <c r="X13">
-        <v>0.35770000000000002</v>
+        <v>0.35859999999999997</v>
       </c>
       <c r="Y13">
-        <v>0.36</v>
+        <v>0.3584</v>
       </c>
       <c r="Z13">
-        <v>0.35780000000000001</v>
+        <v>0.35859999999999997</v>
       </c>
       <c r="AA13">
-        <v>0.35780000000000001</v>
+        <v>0.35830000000000001</v>
       </c>
       <c r="AB13">
-        <v>0.35859999999999997</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="AC13">
         <v>0.35849999999999999</v>
@@ -1435,1386 +1453,1430 @@
         <v>0.3584</v>
       </c>
       <c r="AE13">
-        <v>0.32500000000000001</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="AF13">
-        <v>0.35799999999999998</v>
+        <v>0.3453</v>
+      </c>
+      <c r="AG13">
+        <v>0.37890000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>0.33650000000000002</v>
+        <v>0.33360000000000001</v>
       </c>
       <c r="C14">
-        <v>0.33650000000000002</v>
+        <v>0.33350000000000002</v>
       </c>
       <c r="D14">
-        <v>0.33650000000000002</v>
+        <v>0.33350000000000002</v>
       </c>
       <c r="E14">
-        <v>0.33650000000000002</v>
+        <v>0.33350000000000002</v>
       </c>
       <c r="F14">
-        <v>0.33650000000000002</v>
+        <v>0.3337</v>
       </c>
       <c r="G14">
-        <v>0.33650000000000002</v>
+        <v>0.3337</v>
       </c>
       <c r="H14">
-        <v>0.33650000000000002</v>
+        <v>0.3337</v>
       </c>
       <c r="I14">
-        <v>0.33650000000000002</v>
+        <v>0.3337</v>
       </c>
       <c r="J14">
-        <v>0.33650000000000002</v>
+        <v>0.3337</v>
       </c>
       <c r="K14">
-        <v>0.33650000000000002</v>
+        <v>0.3337</v>
       </c>
       <c r="L14">
-        <v>0.33650000000000002</v>
+        <v>0.3337</v>
       </c>
       <c r="M14">
-        <v>0.33650000000000002</v>
+        <v>0.33379999999999999</v>
       </c>
       <c r="N14">
-        <v>0.33650000000000002</v>
+        <v>0.3337</v>
       </c>
       <c r="O14">
-        <v>0.33650000000000002</v>
+        <v>0.3337</v>
       </c>
       <c r="P14">
-        <v>0.33650000000000002</v>
+        <v>0.3337</v>
       </c>
       <c r="Q14">
-        <v>0.33650000000000002</v>
+        <v>0.3337</v>
       </c>
       <c r="R14">
-        <v>0.33650000000000002</v>
+        <v>0.3337</v>
       </c>
       <c r="S14">
-        <v>0.33650000000000002</v>
+        <v>0.3337</v>
       </c>
       <c r="T14">
-        <v>0.33650000000000002</v>
+        <v>0.3337</v>
       </c>
       <c r="U14">
-        <v>0.33650000000000002</v>
+        <v>0.3337</v>
       </c>
       <c r="V14">
-        <v>0.33650000000000002</v>
+        <v>0.3337</v>
       </c>
       <c r="W14">
-        <v>0.33650000000000002</v>
+        <v>0.3337</v>
       </c>
       <c r="X14">
-        <v>0.33650000000000002</v>
+        <v>0.3337</v>
       </c>
       <c r="Y14">
-        <v>0.33650000000000002</v>
+        <v>0.3337</v>
       </c>
       <c r="Z14">
-        <v>0.33650000000000002</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="AA14">
-        <v>0.33650000000000002</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="AB14">
-        <v>0.33650000000000002</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.33650000000000002</v>
+        <v>0.33360000000000001</v>
       </c>
       <c r="AD14">
-        <v>0.33650000000000002</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="AE14">
-        <v>0.31</v>
+        <v>0.33379999999999999</v>
       </c>
       <c r="AF14">
-        <v>0.33500000000000002</v>
+        <v>0.33510000000000001</v>
+      </c>
+      <c r="AG14">
+        <v>0.36009999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>0.36559999999999998</v>
+        <v>0.36270000000000002</v>
       </c>
       <c r="C15">
-        <v>0.36559999999999998</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="D15">
-        <v>0.36559999999999998</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="E15">
-        <v>0.36559999999999998</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="F15">
-        <v>0.36559999999999998</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="G15">
-        <v>0.36559999999999998</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="H15">
-        <v>0.36559999999999998</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="I15">
-        <v>0.36559999999999998</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="J15">
-        <v>0.36559999999999998</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="K15">
-        <v>0.36559999999999998</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="L15">
-        <v>0.36559999999999998</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="M15">
-        <v>0.36559999999999998</v>
+        <v>0.36270000000000002</v>
       </c>
       <c r="N15">
-        <v>0.36559999999999998</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="O15">
-        <v>0.36559999999999998</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="P15">
-        <v>0.36559999999999998</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="Q15">
-        <v>0.36559999999999998</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="R15">
-        <v>0.36559999999999998</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="S15">
-        <v>0.36559999999999998</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="T15">
-        <v>0.36559999999999998</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="U15">
-        <v>0.36559999999999998</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="V15">
-        <v>0.36559999999999998</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="W15">
-        <v>0.36559999999999998</v>
+        <v>0.36270000000000002</v>
       </c>
       <c r="X15">
-        <v>0.36559999999999998</v>
+        <v>0.36270000000000002</v>
       </c>
       <c r="Y15">
-        <v>0.36559999999999998</v>
+        <v>0.36270000000000002</v>
       </c>
       <c r="Z15">
-        <v>0.36559999999999998</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="AA15">
-        <v>0.36559999999999998</v>
+        <v>0.3629</v>
       </c>
       <c r="AB15">
-        <v>0.36559999999999998</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="AC15">
-        <v>0.36559999999999998</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="AD15">
-        <v>0.36559999999999998</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="AE15">
-        <v>0.32500000000000001</v>
+        <v>0.36280000000000001</v>
       </c>
       <c r="AF15">
-        <v>0.35799999999999998</v>
+        <v>0.3453</v>
+      </c>
+      <c r="AG15">
+        <v>0.37890000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>0.32519999999999999</v>
+        <v>0.3332</v>
       </c>
       <c r="C16">
-        <v>0.32450000000000001</v>
+        <v>0.33350000000000002</v>
       </c>
       <c r="D16">
-        <v>0.32469999999999999</v>
+        <v>0.33339999999999997</v>
       </c>
       <c r="E16">
-        <v>0.32590000000000002</v>
+        <v>0.33360000000000001</v>
       </c>
       <c r="F16">
-        <v>0.32540000000000002</v>
+        <v>0.33350000000000002</v>
       </c>
       <c r="G16">
-        <v>0.32529999999999998</v>
+        <v>0.33360000000000001</v>
       </c>
       <c r="H16">
-        <v>0.3251</v>
+        <v>0.33360000000000001</v>
       </c>
       <c r="I16">
-        <v>0.32519999999999999</v>
+        <v>0.33360000000000001</v>
       </c>
       <c r="J16">
-        <v>0.3246</v>
+        <v>0.3332</v>
       </c>
       <c r="K16">
-        <v>0.32450000000000001</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="L16">
-        <v>0.32640000000000002</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="M16">
-        <v>0.32529999999999998</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="N16">
-        <v>0.3251</v>
+        <v>0.3327</v>
       </c>
       <c r="O16">
-        <v>0.32519999999999999</v>
+        <v>0.33289999999999997</v>
       </c>
       <c r="P16">
-        <v>0.3251</v>
+        <v>0.33339999999999997</v>
       </c>
       <c r="Q16">
-        <v>0.32440000000000002</v>
+        <v>0.33350000000000002</v>
       </c>
       <c r="R16">
-        <v>0.32429999999999998</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="S16">
-        <v>0.32669999999999999</v>
+        <v>0.33360000000000001</v>
       </c>
       <c r="T16">
-        <v>0.3251</v>
+        <v>0.33360000000000001</v>
       </c>
       <c r="U16">
-        <v>0.32650000000000001</v>
+        <v>0.33360000000000001</v>
       </c>
       <c r="V16">
-        <v>0.3261</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="W16">
-        <v>0.32440000000000002</v>
+        <v>0.3332</v>
       </c>
       <c r="X16">
-        <v>0.32419999999999999</v>
+        <v>0.33350000000000002</v>
       </c>
       <c r="Y16">
-        <v>0.32590000000000002</v>
+        <v>0.33360000000000001</v>
       </c>
       <c r="Z16">
-        <v>0.32429999999999998</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AA16">
-        <v>0.32440000000000002</v>
+        <v>0.33350000000000002</v>
       </c>
       <c r="AB16">
-        <v>0.32479999999999998</v>
+        <v>0.3332</v>
       </c>
       <c r="AC16">
-        <v>0.32469999999999999</v>
+        <v>0.33350000000000002</v>
       </c>
       <c r="AD16">
-        <v>0.32450000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
       <c r="AE16">
-        <v>0.31</v>
+        <v>0.33210000000000001</v>
       </c>
       <c r="AF16">
-        <v>0.33500000000000002</v>
+        <v>0.314</v>
+      </c>
+      <c r="AG16">
+        <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17">
-        <v>0.3543</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="C17">
-        <v>0.35349999999999998</v>
+        <v>0.35170000000000001</v>
       </c>
       <c r="D17">
-        <v>0.3538</v>
+        <v>0.3518</v>
       </c>
       <c r="E17">
-        <v>0.35520000000000002</v>
+        <v>0.3518</v>
       </c>
       <c r="F17">
-        <v>0.35449999999999998</v>
+        <v>0.3518</v>
       </c>
       <c r="G17">
-        <v>0.35439999999999999</v>
+        <v>0.3518</v>
       </c>
       <c r="H17">
-        <v>0.35420000000000001</v>
+        <v>0.3518</v>
       </c>
       <c r="I17">
-        <v>0.3543</v>
+        <v>0.3518</v>
       </c>
       <c r="J17">
-        <v>0.35360000000000003</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="K17">
-        <v>0.35349999999999998</v>
+        <v>0.35160000000000002</v>
       </c>
       <c r="L17">
-        <v>0.35580000000000001</v>
+        <v>0.35170000000000001</v>
       </c>
       <c r="M17">
-        <v>0.35439999999999999</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="N17">
-        <v>0.35410000000000003</v>
+        <v>0.3513</v>
       </c>
       <c r="O17">
-        <v>0.3543</v>
+        <v>0.35139999999999999</v>
       </c>
       <c r="P17">
-        <v>0.35410000000000003</v>
+        <v>0.35170000000000001</v>
       </c>
       <c r="Q17">
-        <v>0.35339999999999999</v>
+        <v>0.3518</v>
       </c>
       <c r="R17">
-        <v>0.3533</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="S17">
-        <v>0.35610000000000003</v>
+        <v>0.3518</v>
       </c>
       <c r="T17">
-        <v>0.35420000000000001</v>
+        <v>0.3518</v>
       </c>
       <c r="U17">
-        <v>0.35589999999999999</v>
+        <v>0.3518</v>
       </c>
       <c r="V17">
-        <v>0.35539999999999999</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="W17">
-        <v>0.35339999999999999</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="X17">
-        <v>0.35310000000000002</v>
+        <v>0.3518</v>
       </c>
       <c r="Y17">
-        <v>0.35520000000000002</v>
+        <v>0.3518</v>
       </c>
       <c r="Z17">
-        <v>0.3533</v>
+        <v>0.35170000000000001</v>
       </c>
       <c r="AA17">
-        <v>0.35339999999999999</v>
+        <v>0.3518</v>
       </c>
       <c r="AB17">
-        <v>0.35389999999999999</v>
+        <v>0.35160000000000002</v>
       </c>
       <c r="AC17">
-        <v>0.3538</v>
+        <v>0.3518</v>
       </c>
       <c r="AD17">
-        <v>0.35349999999999998</v>
+        <v>0.35139999999999999</v>
       </c>
       <c r="AE17">
-        <v>0.32500000000000001</v>
+        <v>0.35120000000000001</v>
       </c>
       <c r="AF17">
-        <v>0.35799999999999998</v>
+        <v>0.3453</v>
+      </c>
+      <c r="AG17">
+        <v>0.37890000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18">
-        <v>0.33100000000000002</v>
+        <v>0.3306</v>
       </c>
       <c r="C18">
-        <v>0.33100000000000002</v>
+        <v>0.3306</v>
       </c>
       <c r="D18">
-        <v>0.33100000000000002</v>
+        <v>0.33040000000000003</v>
       </c>
       <c r="E18">
-        <v>0.33100000000000002</v>
+        <v>0.33029999999999998</v>
       </c>
       <c r="F18">
-        <v>0.33100000000000002</v>
+        <v>0.33029999999999998</v>
       </c>
       <c r="G18">
-        <v>0.33100000000000002</v>
+        <v>0.33029999999999998</v>
       </c>
       <c r="H18">
-        <v>0.33100000000000002</v>
+        <v>0.33029999999999998</v>
       </c>
       <c r="I18">
-        <v>0.33100000000000002</v>
+        <v>0.33029999999999998</v>
       </c>
       <c r="J18">
-        <v>0.33100000000000002</v>
+        <v>0.33040000000000003</v>
       </c>
       <c r="K18">
-        <v>0.33100000000000002</v>
+        <v>0.33040000000000003</v>
       </c>
       <c r="L18">
-        <v>0.33100000000000002</v>
+        <v>0.33029999999999998</v>
       </c>
       <c r="M18">
-        <v>0.33100000000000002</v>
+        <v>0.3301</v>
       </c>
       <c r="N18">
-        <v>0.33100000000000002</v>
+        <v>0.3301</v>
       </c>
       <c r="O18">
-        <v>0.33100000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="P18">
-        <v>0.33100000000000002</v>
+        <v>0.33029999999999998</v>
       </c>
       <c r="Q18">
-        <v>0.33100000000000002</v>
+        <v>0.33019999999999999</v>
       </c>
       <c r="R18">
-        <v>0.33100000000000002</v>
+        <v>0.33040000000000003</v>
       </c>
       <c r="S18">
-        <v>0.33100000000000002</v>
+        <v>0.33029999999999998</v>
       </c>
       <c r="T18">
-        <v>0.33100000000000002</v>
+        <v>0.33040000000000003</v>
       </c>
       <c r="U18">
-        <v>0.33100000000000002</v>
+        <v>0.33029999999999998</v>
       </c>
       <c r="V18">
-        <v>0.33100000000000002</v>
+        <v>0.33029999999999998</v>
       </c>
       <c r="W18">
-        <v>0.33100000000000002</v>
+        <v>0.33029999999999998</v>
       </c>
       <c r="X18">
-        <v>0.33100000000000002</v>
+        <v>0.33019999999999999</v>
       </c>
       <c r="Y18">
-        <v>0.33100000000000002</v>
+        <v>0.33029999999999998</v>
       </c>
       <c r="Z18">
-        <v>0.33100000000000002</v>
+        <v>0.33029999999999998</v>
       </c>
       <c r="AA18">
-        <v>0.33100000000000002</v>
+        <v>0.33029999999999998</v>
       </c>
       <c r="AB18">
-        <v>0.33100000000000002</v>
+        <v>0.3301</v>
       </c>
       <c r="AC18">
-        <v>0.33100000000000002</v>
+        <v>0.33029999999999998</v>
       </c>
       <c r="AD18">
-        <v>0.33100000000000002</v>
+        <v>0.33019999999999999</v>
       </c>
       <c r="AE18">
-        <v>0.31</v>
+        <v>0.33029999999999998</v>
       </c>
       <c r="AF18">
-        <v>0.33500000000000002</v>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AG18">
+        <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19">
-        <v>0.35909999999999997</v>
+        <v>0.35780000000000001</v>
       </c>
       <c r="C19">
-        <v>0.35909999999999997</v>
+        <v>0.35780000000000001</v>
       </c>
       <c r="D19">
-        <v>0.35909999999999997</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="E19">
-        <v>0.35909999999999997</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="F19">
-        <v>0.35909999999999997</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="G19">
-        <v>0.35909999999999997</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="H19">
-        <v>0.35909999999999997</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="I19">
-        <v>0.35909999999999997</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="J19">
-        <v>0.35909999999999997</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="K19">
-        <v>0.35909999999999997</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="L19">
-        <v>0.35909999999999997</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="M19">
-        <v>0.35909999999999997</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="N19">
-        <v>0.35909999999999997</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="O19">
-        <v>0.35909999999999997</v>
+        <v>0.3574</v>
       </c>
       <c r="P19">
-        <v>0.35909999999999997</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="Q19">
-        <v>0.35909999999999997</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="R19">
-        <v>0.35909999999999997</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="S19">
-        <v>0.35909999999999997</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="T19">
-        <v>0.35909999999999997</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="U19">
-        <v>0.35909999999999997</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="V19">
-        <v>0.35909999999999997</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="W19">
-        <v>0.35909999999999997</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="X19">
-        <v>0.35909999999999997</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="Y19">
-        <v>0.35909999999999997</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="Z19">
-        <v>0.35909999999999997</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="AA19">
-        <v>0.35909999999999997</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="AB19">
-        <v>0.35909999999999997</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="AC19">
-        <v>0.35909999999999997</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="AD19">
-        <v>0.35909999999999997</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="AE19">
-        <v>0.32500000000000001</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="AF19">
-        <v>0.35799999999999998</v>
+        <v>0.3453</v>
+      </c>
+      <c r="AG19">
+        <v>0.37890000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20">
-        <v>0.34660000000000002</v>
+        <v>0.3402</v>
       </c>
       <c r="C20">
-        <v>0.34660000000000002</v>
+        <v>0.34010000000000001</v>
       </c>
       <c r="D20">
-        <v>0.34660000000000002</v>
+        <v>0.34010000000000001</v>
       </c>
       <c r="E20">
-        <v>0.34660000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="F20">
-        <v>0.34660000000000002</v>
+        <v>0.34010000000000001</v>
       </c>
       <c r="G20">
-        <v>0.34660000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="H20">
-        <v>0.34660000000000002</v>
+        <v>0.34010000000000001</v>
       </c>
       <c r="I20">
-        <v>0.34660000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="J20">
-        <v>0.34660000000000002</v>
+        <v>0.34010000000000001</v>
       </c>
       <c r="K20">
-        <v>0.34660000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="L20">
-        <v>0.34660000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="M20">
-        <v>0.34660000000000002</v>
+        <v>0.33989999999999998</v>
       </c>
       <c r="N20">
-        <v>0.34660000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="O20">
-        <v>0.34660000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="P20">
-        <v>0.34660000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="Q20">
-        <v>0.34660000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="R20">
-        <v>0.34660000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="S20">
-        <v>0.34660000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="T20">
-        <v>0.34660000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="U20">
-        <v>0.34660000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="V20">
-        <v>0.34660000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="W20">
-        <v>0.34660000000000002</v>
+        <v>0.33989999999999998</v>
       </c>
       <c r="X20">
-        <v>0.34660000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="Y20">
-        <v>0.34660000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="Z20">
-        <v>0.34660000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="AA20">
-        <v>0.34660000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="AB20">
-        <v>0.34660000000000002</v>
+        <v>0.33989999999999998</v>
       </c>
       <c r="AC20">
-        <v>0.34660000000000002</v>
+        <v>0.33989999999999998</v>
       </c>
       <c r="AD20">
-        <v>0.34660000000000002</v>
+        <v>0.33989999999999998</v>
       </c>
       <c r="AE20">
-        <v>0.31</v>
+        <v>0.33989999999999998</v>
       </c>
       <c r="AF20">
-        <v>0.33500000000000002</v>
+        <v>0.33510000000000001</v>
+      </c>
+      <c r="AG20">
+        <v>0.36009999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21">
-        <v>0.37059999999999998</v>
+        <v>0.36670000000000003</v>
       </c>
       <c r="C21">
-        <v>0.37059999999999998</v>
+        <v>0.36670000000000003</v>
       </c>
       <c r="D21">
-        <v>0.37059999999999998</v>
+        <v>0.36659999999999998</v>
       </c>
       <c r="E21">
-        <v>0.37059999999999998</v>
+        <v>0.36659999999999998</v>
       </c>
       <c r="F21">
-        <v>0.37059999999999998</v>
+        <v>0.36659999999999998</v>
       </c>
       <c r="G21">
-        <v>0.37059999999999998</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="H21">
-        <v>0.37059999999999998</v>
+        <v>0.36659999999999998</v>
       </c>
       <c r="I21">
-        <v>0.37059999999999998</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="J21">
-        <v>0.37059999999999998</v>
+        <v>0.36659999999999998</v>
       </c>
       <c r="K21">
-        <v>0.37059999999999998</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="L21">
-        <v>0.37059999999999998</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="M21">
-        <v>0.37059999999999998</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="N21">
-        <v>0.37059999999999998</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="O21">
-        <v>0.37059999999999998</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="P21">
-        <v>0.37059999999999998</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="Q21">
-        <v>0.37059999999999998</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="R21">
-        <v>0.37059999999999998</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="S21">
-        <v>0.37059999999999998</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="T21">
-        <v>0.37059999999999998</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="U21">
-        <v>0.37059999999999998</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="V21">
-        <v>0.37059999999999998</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="W21">
-        <v>0.37059999999999998</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="X21">
-        <v>0.37059999999999998</v>
+        <v>0.36659999999999998</v>
       </c>
       <c r="Y21">
-        <v>0.37059999999999998</v>
+        <v>0.36659999999999998</v>
       </c>
       <c r="Z21">
-        <v>0.37059999999999998</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="AA21">
-        <v>0.37059999999999998</v>
+        <v>0.3664</v>
       </c>
       <c r="AB21">
-        <v>0.37059999999999998</v>
+        <v>0.3664</v>
       </c>
       <c r="AC21">
-        <v>0.37059999999999998</v>
+        <v>0.3664</v>
       </c>
       <c r="AD21">
-        <v>0.37059999999999998</v>
+        <v>0.3664</v>
       </c>
       <c r="AE21">
-        <v>0.32500000000000001</v>
+        <v>0.3664</v>
       </c>
       <c r="AF21">
-        <v>0.35799999999999998</v>
+        <v>0.3453</v>
+      </c>
+      <c r="AG21">
+        <v>0.37890000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
       <c r="B22">
-        <v>0.3286</v>
+        <v>0.3332</v>
       </c>
       <c r="C22">
-        <v>0.3286</v>
+        <v>0.33339999999999997</v>
       </c>
       <c r="D22">
-        <v>0.32869999999999999</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="E22">
-        <v>0.3286</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F22">
-        <v>0.32879999999999998</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="G22">
-        <v>0.32869999999999999</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="H22">
-        <v>0.3286</v>
+        <v>0.33339999999999997</v>
       </c>
       <c r="I22">
-        <v>0.32869999999999999</v>
+        <v>0.33339999999999997</v>
       </c>
       <c r="J22">
-        <v>0.3286</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="K22">
-        <v>0.32869999999999999</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="L22">
-        <v>0.32869999999999999</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="M22">
-        <v>0.32869999999999999</v>
+        <v>0.33289999999999997</v>
       </c>
       <c r="N22">
-        <v>0.3286</v>
+        <v>0.33279999999999998</v>
       </c>
       <c r="O22">
-        <v>0.32869999999999999</v>
+        <v>0.33279999999999998</v>
       </c>
       <c r="P22">
-        <v>0.32869999999999999</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="Q22">
-        <v>0.3286</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="R22">
-        <v>0.3286</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="S22">
-        <v>0.32900000000000001</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="T22">
-        <v>0.32869999999999999</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="U22">
-        <v>0.3286</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="V22">
-        <v>0.32900000000000001</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="W22">
-        <v>0.32869999999999999</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="X22">
-        <v>0.3286</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="Y22">
-        <v>0.3286</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="Z22">
-        <v>0.32869999999999999</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AA22">
-        <v>0.3286</v>
+        <v>0.33339999999999997</v>
       </c>
       <c r="AB22">
-        <v>0.32869999999999999</v>
+        <v>0.33339999999999997</v>
       </c>
       <c r="AC22">
-        <v>0.3286</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="AD22">
-        <v>0.32869999999999999</v>
+        <v>0.3332</v>
       </c>
       <c r="AE22">
-        <v>0.31</v>
+        <v>0.33339999999999997</v>
       </c>
       <c r="AF22">
-        <v>0.33500000000000002</v>
+        <v>0.314</v>
+      </c>
+      <c r="AG22">
+        <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23">
-        <v>0.35620000000000002</v>
+        <v>0.3553</v>
       </c>
       <c r="C23">
-        <v>0.35620000000000002</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="D23">
-        <v>0.35639999999999999</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="E23">
-        <v>0.35620000000000002</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="F23">
-        <v>0.35639999999999999</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="G23">
-        <v>0.35639999999999999</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="H23">
-        <v>0.35620000000000002</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="I23">
-        <v>0.35639999999999999</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="J23">
-        <v>0.35620000000000002</v>
+        <v>0.35520000000000002</v>
       </c>
       <c r="K23">
-        <v>0.35630000000000001</v>
+        <v>0.35520000000000002</v>
       </c>
       <c r="L23">
-        <v>0.35630000000000001</v>
+        <v>0.35520000000000002</v>
       </c>
       <c r="M23">
-        <v>0.35639999999999999</v>
+        <v>0.35520000000000002</v>
       </c>
       <c r="N23">
-        <v>0.35620000000000002</v>
+        <v>0.35510000000000003</v>
       </c>
       <c r="O23">
-        <v>0.35639999999999999</v>
+        <v>0.35510000000000003</v>
       </c>
       <c r="P23">
-        <v>0.35639999999999999</v>
+        <v>0.35520000000000002</v>
       </c>
       <c r="Q23">
-        <v>0.35620000000000002</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="R23">
-        <v>0.35620000000000002</v>
+        <v>0.3553</v>
       </c>
       <c r="S23">
-        <v>0.35680000000000001</v>
+        <v>0.3553</v>
       </c>
       <c r="T23">
-        <v>0.35639999999999999</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="U23">
-        <v>0.35620000000000002</v>
+        <v>0.3553</v>
       </c>
       <c r="V23">
-        <v>0.35670000000000002</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="W23">
-        <v>0.35630000000000001</v>
+        <v>0.35520000000000002</v>
       </c>
       <c r="X23">
-        <v>0.35620000000000002</v>
+        <v>0.3553</v>
       </c>
       <c r="Y23">
-        <v>0.35620000000000002</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="Z23">
-        <v>0.35630000000000001</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.35620000000000002</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="AB23">
-        <v>0.35630000000000001</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="AC23">
-        <v>0.35620000000000002</v>
+        <v>0.3553</v>
       </c>
       <c r="AD23">
-        <v>0.35639999999999999</v>
+        <v>0.3553</v>
       </c>
       <c r="AE23">
-        <v>0.32500000000000001</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="AF23">
-        <v>0.35799999999999998</v>
+        <v>0.3453</v>
+      </c>
+      <c r="AG23">
+        <v>0.37890000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24">
-        <v>0.3286</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="C24">
-        <v>0.32829999999999998</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D24">
-        <v>0.3286</v>
+        <v>0.33279999999999998</v>
       </c>
       <c r="E24">
-        <v>0.32850000000000001</v>
+        <v>0.33239999999999997</v>
       </c>
       <c r="F24">
-        <v>0.3286</v>
+        <v>0.33250000000000002</v>
       </c>
       <c r="G24">
-        <v>0.32829999999999998</v>
+        <v>0.33239999999999997</v>
       </c>
       <c r="H24">
-        <v>0.32850000000000001</v>
+        <v>0.33239999999999997</v>
       </c>
       <c r="I24">
-        <v>0.32869999999999999</v>
+        <v>0.33239999999999997</v>
       </c>
       <c r="J24">
-        <v>0.32829999999999998</v>
+        <v>0.33239999999999997</v>
       </c>
       <c r="K24">
-        <v>0.32840000000000003</v>
+        <v>0.33260000000000001</v>
       </c>
       <c r="L24">
-        <v>0.32829999999999998</v>
+        <v>0.33239999999999997</v>
       </c>
       <c r="M24">
-        <v>0.3286</v>
+        <v>0.33250000000000002</v>
       </c>
       <c r="N24">
-        <v>0.32829999999999998</v>
+        <v>0.33279999999999998</v>
       </c>
       <c r="O24">
-        <v>0.32840000000000003</v>
+        <v>0.33279999999999998</v>
       </c>
       <c r="P24">
-        <v>0.3286</v>
+        <v>0.33260000000000001</v>
       </c>
       <c r="Q24">
-        <v>0.32829999999999998</v>
+        <v>0.33250000000000002</v>
       </c>
       <c r="R24">
-        <v>0.32829999999999998</v>
+        <v>0.33239999999999997</v>
       </c>
       <c r="S24">
-        <v>0.32929999999999998</v>
+        <v>0.33239999999999997</v>
       </c>
       <c r="T24">
-        <v>0.32840000000000003</v>
+        <v>0.33239999999999997</v>
       </c>
       <c r="U24">
-        <v>0.32829999999999998</v>
+        <v>0.33239999999999997</v>
       </c>
       <c r="V24">
-        <v>0.32869999999999999</v>
+        <v>0.33250000000000002</v>
       </c>
       <c r="W24">
-        <v>0.32829999999999998</v>
+        <v>0.33250000000000002</v>
       </c>
       <c r="X24">
-        <v>0.32829999999999998</v>
+        <v>0.3322</v>
       </c>
       <c r="Y24">
-        <v>0.32829999999999998</v>
+        <v>0.33289999999999997</v>
       </c>
       <c r="Z24">
-        <v>0.32829999999999998</v>
+        <v>0.33289999999999997</v>
       </c>
       <c r="AA24">
-        <v>0.32829999999999998</v>
+        <v>0.33279999999999998</v>
       </c>
       <c r="AB24">
-        <v>0.32840000000000003</v>
+        <v>0.3327</v>
       </c>
       <c r="AC24">
-        <v>0.32829999999999998</v>
+        <v>0.33250000000000002</v>
       </c>
       <c r="AD24">
-        <v>0.32840000000000003</v>
+        <v>0.33279999999999998</v>
       </c>
       <c r="AE24">
-        <v>0.31</v>
+        <v>0.33250000000000002</v>
       </c>
       <c r="AF24">
-        <v>0.33500000000000002</v>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AG24">
+        <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
       <c r="B25">
-        <v>0.35730000000000001</v>
+        <v>0.35920000000000002</v>
       </c>
       <c r="C25">
-        <v>0.3569</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="D25">
-        <v>0.35730000000000001</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="E25">
-        <v>0.35709999999999997</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="F25">
-        <v>0.35730000000000001</v>
+        <v>0.35880000000000001</v>
       </c>
       <c r="G25">
-        <v>0.3569</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="H25">
-        <v>0.35709999999999997</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="I25">
-        <v>0.35730000000000001</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="J25">
-        <v>0.3569</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="K25">
-        <v>0.3569</v>
+        <v>0.3589</v>
       </c>
       <c r="L25">
-        <v>0.3569</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="M25">
-        <v>0.35709999999999997</v>
+        <v>0.3589</v>
       </c>
       <c r="N25">
-        <v>0.3569</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="O25">
-        <v>0.3569</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="P25">
-        <v>0.35709999999999997</v>
+        <v>0.3589</v>
       </c>
       <c r="Q25">
-        <v>0.3569</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="R25">
-        <v>0.3569</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="S25">
-        <v>0.35709999999999997</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="T25">
-        <v>0.3569</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="U25">
-        <v>0.3569</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="V25">
-        <v>0.35680000000000001</v>
+        <v>0.35880000000000001</v>
       </c>
       <c r="W25">
-        <v>0.3569</v>
+        <v>0.35880000000000001</v>
       </c>
       <c r="X25">
-        <v>0.3569</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="Y25">
-        <v>0.3569</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="Z25">
-        <v>0.3569</v>
+        <v>0.35920000000000002</v>
       </c>
       <c r="AA25">
-        <v>0.3569</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="AB25">
-        <v>0.3569</v>
+        <v>0.3589</v>
       </c>
       <c r="AC25">
-        <v>0.3569</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="AD25">
-        <v>0.3569</v>
+        <v>0.3589</v>
       </c>
       <c r="AE25">
-        <v>0.32500000000000001</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="AF25">
-        <v>0.35799999999999998</v>
+        <v>0.3453</v>
+      </c>
+      <c r="AG25">
+        <v>0.37890000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
       <c r="B26">
-        <v>0.35210000000000002</v>
+        <v>0.34449999999999997</v>
       </c>
       <c r="C26">
-        <v>0.35210000000000002</v>
+        <v>0.34449999999999997</v>
       </c>
       <c r="D26">
-        <v>0.35210000000000002</v>
+        <v>0.34439999999999998</v>
       </c>
       <c r="E26">
-        <v>0.35210000000000002</v>
+        <v>0.34439999999999998</v>
       </c>
       <c r="F26">
-        <v>0.35210000000000002</v>
+        <v>0.34439999999999998</v>
       </c>
       <c r="G26">
-        <v>0.35210000000000002</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="H26">
-        <v>0.35210000000000002</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="I26">
-        <v>0.35210000000000002</v>
+        <v>0.34439999999999998</v>
       </c>
       <c r="J26">
-        <v>0.35210000000000002</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="K26">
-        <v>0.35210000000000002</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="L26">
-        <v>0.35210000000000002</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="M26">
-        <v>0.35210000000000002</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="N26">
-        <v>0.35210000000000002</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="O26">
-        <v>0.35210000000000002</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="P26">
-        <v>0.35210000000000002</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="Q26">
-        <v>0.35210000000000002</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="R26">
-        <v>0.35210000000000002</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="S26">
-        <v>0.35210000000000002</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="T26">
-        <v>0.35210000000000002</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="U26">
-        <v>0.35210000000000002</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="V26">
-        <v>0.35210000000000002</v>
+        <v>0.34420000000000001</v>
       </c>
       <c r="W26">
-        <v>0.35210000000000002</v>
+        <v>0.34420000000000001</v>
       </c>
       <c r="X26">
-        <v>0.35210000000000002</v>
+        <v>0.34420000000000001</v>
       </c>
       <c r="Y26">
-        <v>0.35210000000000002</v>
+        <v>0.34420000000000001</v>
       </c>
       <c r="Z26">
-        <v>0.35210000000000002</v>
+        <v>0.34420000000000001</v>
       </c>
       <c r="AA26">
-        <v>0.35210000000000002</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="AB26">
-        <v>0.35210000000000002</v>
+        <v>0.34420000000000001</v>
       </c>
       <c r="AC26">
-        <v>0.35210000000000002</v>
+        <v>0.34420000000000001</v>
       </c>
       <c r="AD26">
-        <v>0.35210000000000002</v>
+        <v>0.34420000000000001</v>
       </c>
       <c r="AE26">
-        <v>0.31</v>
+        <v>0.34420000000000001</v>
       </c>
       <c r="AF26">
-        <v>0.33500000000000002</v>
+        <v>0.33510000000000001</v>
+      </c>
+      <c r="AG26">
+        <v>0.36009999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
       <c r="B27">
-        <v>0.37409999999999999</v>
+        <v>0.36870000000000003</v>
       </c>
       <c r="C27">
-        <v>0.37409999999999999</v>
+        <v>0.36859999999999998</v>
       </c>
       <c r="D27">
-        <v>0.37409999999999999</v>
+        <v>0.36859999999999998</v>
       </c>
       <c r="E27">
-        <v>0.37409999999999999</v>
+        <v>0.36859999999999998</v>
       </c>
       <c r="F27">
-        <v>0.37409999999999999</v>
+        <v>0.36859999999999998</v>
       </c>
       <c r="G27">
-        <v>0.37409999999999999</v>
+        <v>0.36849999999999999</v>
       </c>
       <c r="H27">
-        <v>0.37409999999999999</v>
+        <v>0.36849999999999999</v>
       </c>
       <c r="I27">
-        <v>0.37409999999999999</v>
+        <v>0.36849999999999999</v>
       </c>
       <c r="J27">
-        <v>0.37409999999999999</v>
+        <v>0.36849999999999999</v>
       </c>
       <c r="K27">
-        <v>0.37409999999999999</v>
+        <v>0.36849999999999999</v>
       </c>
       <c r="L27">
-        <v>0.37409999999999999</v>
+        <v>0.36849999999999999</v>
       </c>
       <c r="M27">
-        <v>0.37409999999999999</v>
+        <v>0.36849999999999999</v>
       </c>
       <c r="N27">
-        <v>0.37409999999999999</v>
+        <v>0.36849999999999999</v>
       </c>
       <c r="O27">
-        <v>0.37409999999999999</v>
+        <v>0.36849999999999999</v>
       </c>
       <c r="P27">
-        <v>0.37409999999999999</v>
+        <v>0.36849999999999999</v>
       </c>
       <c r="Q27">
-        <v>0.37409999999999999</v>
+        <v>0.36849999999999999</v>
       </c>
       <c r="R27">
-        <v>0.37409999999999999</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="S27">
-        <v>0.37409999999999999</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="T27">
-        <v>0.37409999999999999</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="U27">
-        <v>0.37409999999999999</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="V27">
-        <v>0.37409999999999999</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="W27">
-        <v>0.37409999999999999</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="X27">
-        <v>0.37409999999999999</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="Y27">
-        <v>0.37409999999999999</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="Z27">
-        <v>0.37409999999999999</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="AA27">
-        <v>0.37409999999999999</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="AB27">
-        <v>0.37409999999999999</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="AC27">
-        <v>0.37409999999999999</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="AD27">
-        <v>0.37409999999999999</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="AE27">
-        <v>0.32500000000000001</v>
+        <v>0.36830000000000002</v>
       </c>
       <c r="AF27">
-        <v>0.35799999999999998</v>
+        <v>0.3453</v>
+      </c>
+      <c r="AG27">
+        <v>0.37890000000000001</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>